--- a/data/检索结果.xlsx
+++ b/data/检索结果.xlsx
@@ -353,876 +353,1092 @@
         <v>春节</v>
       </c>
       <c r="B2" t="str">
+        <v>（新华全媒头条·图文互动）（1）奋楫扬帆此其时——浙江锚定方向扎实推进共同富裕</v>
+      </c>
+      <c r="C2" t="str">
+        <v>101002022031590000153</v>
+      </c>
+      <c r="D2" t="str">
+        <v>新华社照片，杭州，2022年3月18日
+    奋楫扬帆此其时——浙江锚定方向扎实推进共同富裕
+    义乌市中国小商品城经过春节假期的休整后重新开市营业，这是经营户整理货架（2月12日摄）。
+    （配本社同题文字稿）
+    新华社记者 江汉 摄</v>
+      </c>
+      <c r="E2" t="str"/>
+      <c r="F2" t="str">
+        <v>江汉 2022-03-18 20:07:56
+                        ID : 101002022031590000153</v>
+      </c>
+      <c r="G2" t="str"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B3" t="str">
+        <v>（外代一线）（1）庆祝洒红节</v>
+      </c>
+      <c r="C3" t="str">
+        <v>101002022031290001898</v>
+      </c>
+      <c r="D3" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（1）庆祝洒红节
+    3月11日，人们在印度北方邦伯尔萨纳庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E3" t="str"/>
+      <c r="F3" t="str">
+        <v>ANINDITO MUKHERJEE 2022-03-12 19:31:14
+                        ID : 101002022031290001898</v>
+      </c>
+      <c r="G3" t="str"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B4" t="str">
+        <v>（外代一线）（7）庆祝洒红节</v>
+      </c>
+      <c r="C4" t="str">
+        <v>101002022031290001904</v>
+      </c>
+      <c r="D4" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（7）庆祝洒红节
+    3月10日，一名男子在尼泊尔加德满都庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E4" t="str"/>
+      <c r="F4" t="str">
+        <v>PRAKASH MATHEMA 2022-03-12 19:31:14
+                        ID : 101002022031290001904</v>
+      </c>
+      <c r="G4" t="str"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B5" t="str">
+        <v>（外代一线）（2）庆祝洒红节</v>
+      </c>
+      <c r="C5" t="str">
+        <v>101002022031290001899</v>
+      </c>
+      <c r="D5" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（2）庆祝洒红节
+    3月11日，人们在印度北方邦伯尔萨纳庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E5" t="str"/>
+      <c r="F5" t="str">
+        <v>ANINDITO MUKHERJEE 2022-03-12 19:31:14
+                        ID : 101002022031290001899</v>
+      </c>
+      <c r="G5" t="str"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B6" t="str">
+        <v>（外代一线）（6）庆祝洒红节</v>
+      </c>
+      <c r="C6" t="str">
+        <v>101002022031290001902</v>
+      </c>
+      <c r="D6" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（6）庆祝洒红节
+    3月10日，人们在尼泊尔加德满都庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E6" t="str"/>
+      <c r="F6" t="str">
+        <v>PRAKASH MATHEMA 2022-03-12 19:31:14
+                        ID : 101002022031290001902</v>
+      </c>
+      <c r="G6" t="str"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B7" t="str">
+        <v>（外代一线）（4）庆祝洒红节</v>
+      </c>
+      <c r="C7" t="str">
+        <v>101002022031290001901</v>
+      </c>
+      <c r="D7" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（4）庆祝洒红节
+    3月11日，人们在印度北方邦伯尔萨纳庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E7" t="str"/>
+      <c r="F7" t="str">
+        <v>ANINDITO MUKHERJEE 2022-03-12 19:31:14
+                        ID : 101002022031290001901</v>
+      </c>
+      <c r="G7" t="str"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B8" t="str">
+        <v>（外代一线）（5）庆祝洒红节</v>
+      </c>
+      <c r="C8" t="str">
+        <v>101002022031290001905</v>
+      </c>
+      <c r="D8" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（5）庆祝洒红节
+    3月10日，人们在印度北方邦伯尔萨纳庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E8" t="str"/>
+      <c r="F8" t="str">
+        <v>- 2022-03-12 19:31:14
+                        ID : 101002022031290001905</v>
+      </c>
+      <c r="G8" t="str"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B9" t="str">
+        <v>（外代一线）（8）庆祝洒红节</v>
+      </c>
+      <c r="C9" t="str">
+        <v>101002022031290001903</v>
+      </c>
+      <c r="D9" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（8）庆祝洒红节
+    3月10日，一名男子在尼泊尔加德满都庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E9" t="str"/>
+      <c r="F9" t="str">
+        <v>PRAKASH MATHEMA 2022-03-12 19:31:14
+                        ID : 101002022031290001903</v>
+      </c>
+      <c r="G9" t="str"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B10" t="str">
+        <v>（外代一线）（3）庆祝洒红节</v>
+      </c>
+      <c r="C10" t="str">
+        <v>101002022031290001900</v>
+      </c>
+      <c r="D10" t="str">
+        <v>新华社照片，外代，2022年3月12日
+    （外代一线）（3）庆祝洒红节
+    3月11日，人们在印度北方邦伯尔萨纳庆祝洒红节。
+    洒红节是印度教的春节，意味着春回大地，万物复苏。按照传统习俗，在洒红节这天，人们要在脸上和身上涂上颜料，还要相互泼洒五颜六色的粉末，尽情狂欢。
+    新华社/法新</v>
+      </c>
+      <c r="E10" t="str"/>
+      <c r="F10" t="str">
+        <v>ANINDITO MUKHERJEE 2022-03-12 19:31:14
+                        ID : 101002022031290001900</v>
+      </c>
+      <c r="G10" t="str"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B11" t="str">
         <v>（新华全媒头条·图文互动）（4）风好正是扬帆时 奋楫逐浪天地宽——京津冀协同发展迈向更高水平综述</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C11" t="str">
         <v>101002022022590001015</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D11" t="str">
         <v>新华社照片，北京，2022年2月25日
     风好正是扬帆时 奋楫逐浪天地宽——京津冀协同发展迈向更高水平综述
     演员在北京环球度假区为游客带来具有春节气氛的表演（2022年1月22日摄）。
     （配本社同题文字稿）
     新华社记者 陈钟昊 摄</v>
       </c>
-      <c r="E2" t="str"/>
-      <c r="F2" t="str">
+      <c r="E11" t="str"/>
+      <c r="F11" t="str">
         <v>陈钟昊 2022-02-25 12:54:00
                         ID : 101002022022590001015</v>
       </c>
-      <c r="G2" t="str"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+      <c r="G11" t="str"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>春节</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B12" t="str">
         <v>（新华全媒+·代表委员在基层）（3）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C12" t="str">
         <v>101002022022390001229</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D12" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯在盘山县太平凯地农机服务专业合作社里查看去年收割的水稻。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3%。...</v>
       </c>
-      <c r="E3" t="str"/>
-      <c r="F3" t="str">
+      <c r="E12" t="str"/>
+      <c r="F12" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001229</v>
       </c>
-      <c r="G3" t="str"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="G12" t="str"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
         <v>春节</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B13" t="str">
         <v>（新华全媒+·代表委员在基层）（10）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C13" t="str">
         <v>101002022022390001222</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D13" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（右）在盘山县太平街道办事处张家村一处大棚查看作物生长情况。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3...</v>
       </c>
-      <c r="E4" t="str"/>
-      <c r="F4" t="str">
+      <c r="E13" t="str"/>
+      <c r="F13" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001222</v>
       </c>
-      <c r="G4" t="str"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+      <c r="G13" t="str"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
         <v>春节</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B14" t="str">
         <v>（新华全媒+·代表委员在基层）（4）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C14" t="str">
         <v>101002022022390001228</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D14" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯在盘山县太平凯地农机服务专业合作社里检查农机。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3%。与传统人工...</v>
       </c>
-      <c r="E5" t="str"/>
-      <c r="F5" t="str">
+      <c r="E14" t="str"/>
+      <c r="F14" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001228</v>
       </c>
-      <c r="G5" t="str"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+      <c r="G14" t="str"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
         <v>春节</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B15" t="str">
         <v>（新华全媒+·代表委员在基层）（9）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C15" t="str">
         <v>101002022022390001223</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D15" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（右）在盘山县太平街道办事处张家村一处大棚查看作物生长情况。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3...</v>
       </c>
-      <c r="E6" t="str"/>
-      <c r="F6" t="str">
+      <c r="E15" t="str"/>
+      <c r="F15" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001223</v>
       </c>
-      <c r="G6" t="str"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+      <c r="G15" t="str"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
         <v>春节</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B16" t="str">
         <v>（新华全媒+·代表委员在基层）（7）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C16" t="str">
         <v>101002022022390001225</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D16" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（中）在盘山县太平街道办事处张家村向村民征求土地保护和节约粮食的意见。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损...</v>
       </c>
-      <c r="E7" t="str"/>
-      <c r="F7" t="str">
+      <c r="E16" t="str"/>
+      <c r="F16" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001225</v>
       </c>
-      <c r="G7" t="str"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+      <c r="G16" t="str"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
         <v>春节</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B17" t="str">
         <v>（新华全媒+·代表委员在基层）（2）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C17" t="str">
         <v>101002022022390001230</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D17" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯在盘山县太平凯地农机服务专业合作社里查看去年收割的水稻。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3%。...</v>
       </c>
-      <c r="E8" t="str"/>
-      <c r="F8" t="str">
+      <c r="E17" t="str"/>
+      <c r="F17" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001230</v>
       </c>
-      <c r="G8" t="str"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
+      <c r="G17" t="str"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v>春节</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B18" t="str">
         <v>（新华全媒+·代表委员在基层）（5）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C18" t="str">
         <v>101002022022390001227</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D18" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（中）在盘山县太平凯地农机服务专业合作社向考察人员介绍农机使用经验。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失...</v>
       </c>
-      <c r="E9" t="str"/>
-      <c r="F9" t="str">
+      <c r="E18" t="str"/>
+      <c r="F18" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001227</v>
       </c>
-      <c r="G9" t="str"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+      <c r="G18" t="str"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
         <v>春节</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B19" t="str">
         <v>（新华全媒+·代表委员在基层）（12）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C19" t="str">
         <v>101002022022390001220</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D19" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（右）在盘山县太平街道办事处张家村一户村民家中和村民唠家常。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3...</v>
       </c>
-      <c r="E10" t="str"/>
-      <c r="F10" t="str">
+      <c r="E19" t="str"/>
+      <c r="F19" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001220</v>
       </c>
-      <c r="G10" t="str"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
+      <c r="G19" t="str"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>春节</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B20" t="str">
         <v>（新华全媒+·代表委员在基层）（1）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C20" t="str">
         <v>101002022022390001231</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D20" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯在盘山县太平凯地农机服务专业合作社里查看去年收割的水稻。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3%。...</v>
       </c>
-      <c r="E11" t="str"/>
-      <c r="F11" t="str">
+      <c r="E20" t="str"/>
+      <c r="F20" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001231</v>
       </c>
-      <c r="G11" t="str"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
+      <c r="G20" t="str"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
         <v>春节</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B21" t="str">
         <v>（新华全媒+·代表委员在基层）（11）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C21" t="str">
         <v>101002022022390001221</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D21" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（右）在盘山县太平街道办事处张家村和村民唠家常。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失率只有3%。与传统人...</v>
       </c>
-      <c r="E12" t="str"/>
-      <c r="F12" t="str">
+      <c r="E21" t="str"/>
+      <c r="F21" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001221</v>
       </c>
-      <c r="G12" t="str"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
+      <c r="G21" t="str"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
         <v>春节</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B22" t="str">
         <v>（新华全媒+·代表委员在基层）（8）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C22" t="str">
         <v>101002022022390001224</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D22" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（右二）在盘山县太平街道办事处张家村向村民征求土地保护和节约粮食的意见。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻...</v>
       </c>
-      <c r="E13" t="str"/>
-      <c r="F13" t="str">
+      <c r="E22" t="str"/>
+      <c r="F22" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001224</v>
       </c>
-      <c r="G13" t="str"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+      <c r="G22" t="str"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>春节</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B23" t="str">
         <v>（新华全媒+·代表委员在基层）（6）“颗粒归仓”——一位全国人大代表的节粮梦</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C23" t="str">
         <v>101002022022390001226</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D23" t="str">
         <v>新华社照片，盘锦（辽宁），2022年2月23日
     “颗粒归仓”——一位全国人大代表的节粮梦
     2月15日，郭凯（右）在盘山县太平凯地农机服务专业合作社向考察人员介绍农机使用经验。
     “我是一个农民的代表，我得为农民、农业发声。”全国人大代表郭凯说。
     郭凯现任辽宁省盘锦市盘山县太平街道办事处张家村党支部书记、村委会主任，盘山县太平凯地农机服务专业合作社理事长。多年来，他一直致力于精细机械化耕种、收割，努力减少粮食浪费。他所在的合作社有二百多台（套）大型农机设备，采用机械化精细收割，水稻损失...</v>
       </c>
-      <c r="E14" t="str"/>
-      <c r="F14" t="str">
+      <c r="E23" t="str"/>
+      <c r="F23" t="str">
         <v>杨青 2022-02-23 15:35:23
                         ID : 101002022022390001226</v>
       </c>
-      <c r="G14" t="str"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
+      <c r="G23" t="str"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
         <v>春节</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B24" t="str">
         <v>（新华视界）（4）安徽：车企生产忙</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C24" t="str">
         <v>101002022022290001477</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D24" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工人在江淮汽车乘用车总装车间生产线上忙碌。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E15" t="str"/>
-      <c r="F15" t="str">
+      <c r="E24" t="str"/>
+      <c r="F24" t="str">
         <v>刘军喜 2022-02-22 21:04:52
                         ID : 101002022022290001477</v>
       </c>
-      <c r="G15" t="str"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
+      <c r="G24" t="str"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>春节</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B25" t="str">
         <v>（新华视界）（3）安徽：车企生产忙</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C25" t="str">
         <v>101002022022290001478</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D25" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工人在江淮汽车乘用车总装车间生产线上忙碌。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 周牧 摄</v>
       </c>
-      <c r="E16" t="str"/>
-      <c r="F16" t="str">
+      <c r="E25" t="str"/>
+      <c r="F25" t="str">
         <v>周牧 2022-02-22 21:04:52
                         ID : 101002022022290001478</v>
       </c>
-      <c r="G16" t="str"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
+      <c r="G25" t="str"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
         <v>春节</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B26" t="str">
         <v>（新华视界）（2）安徽：车企生产忙</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C26" t="str">
         <v>101002022022290001437</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D26" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工业机器人在江淮汽车乘用车焊接车间生产线上工作。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E17" t="str"/>
-      <c r="F17" t="str">
+      <c r="E26" t="str"/>
+      <c r="F26" t="str">
         <v>刘军喜 2022-02-22 21:04:52
                         ID : 101002022022290001437</v>
       </c>
-      <c r="G17" t="str"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
+      <c r="G26" t="str"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
         <v>春节</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B27" t="str">
         <v>（新华视界）（1）安徽：车企生产忙</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C27" t="str">
         <v>101002022022290001438</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D27" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工业机器人在江淮汽车乘用车焊接车间生产线上工作。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E18" t="str"/>
-      <c r="F18" t="str">
+      <c r="E27" t="str"/>
+      <c r="F27" t="str">
         <v>刘军喜 2022-02-22 21:04:52
                         ID : 101002022022290001438</v>
       </c>
-      <c r="G18" t="str"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
+      <c r="G27" t="str"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
         <v>春节</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B28" t="str">
+        <v>（经济）（5）安徽：车企生产忙</v>
+      </c>
+      <c r="C28" t="str">
+        <v>101002022022290001440</v>
+      </c>
+      <c r="D28" t="str">
+        <v>新华社照片，合肥，2022年2月22日
+    安徽：车企生产忙
+    2月22日，工人在江淮汽车乘用车生产线上忙碌。
+    春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
+    新华社记者 周牧 摄</v>
+      </c>
+      <c r="E28" t="str"/>
+      <c r="F28" t="str">
+        <v>周牧 2022-02-22 21:02:27
+                        ID : 101002022022290001440</v>
+      </c>
+      <c r="G28" t="str"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>春节</v>
+      </c>
+      <c r="B29" t="str">
         <v>（经济）（3）安徽：车企生产忙</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C29" t="str">
         <v>101002022022290001476</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D29" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工人在江淮汽车乘用车总装车间生产线上忙碌。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E19" t="str"/>
-      <c r="F19" t="str">
+      <c r="E29" t="str"/>
+      <c r="F29" t="str">
         <v>刘军喜 2022-02-22 21:02:27
                         ID : 101002022022290001476</v>
       </c>
-      <c r="G19" t="str"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
+      <c r="G29" t="str"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
         <v>春节</v>
       </c>
-      <c r="B20" t="str">
-        <v>（经济）（5）安徽：车企生产忙</v>
-      </c>
-      <c r="C20" t="str">
-        <v>101002022022290001440</v>
-      </c>
-      <c r="D20" t="str">
-        <v>新华社照片，合肥，2022年2月22日
-    安徽：车企生产忙
-    2月22日，工人在江淮汽车乘用车生产线上忙碌。
-    春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
-    新华社记者 周牧 摄</v>
-      </c>
-      <c r="E20" t="str"/>
-      <c r="F20" t="str">
-        <v>周牧 2022-02-22 21:02:27
-                        ID : 101002022022290001440</v>
-      </c>
-      <c r="G20" t="str"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="B30" t="str">
         <v>（经济）（6）安徽：车企生产忙</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C30" t="str">
         <v>101002022022290001479</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D30" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工人在江淮汽车乘用车总装车间生产线上忙碌。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E21" t="str"/>
-      <c r="F21" t="str">
+      <c r="E30" t="str"/>
+      <c r="F30" t="str">
         <v>刘军喜 2022-02-22 21:02:27
                         ID : 101002022022290001479</v>
       </c>
-      <c r="G21" t="str"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
+      <c r="G30" t="str"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
         <v>春节</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B31" t="str">
         <v>（经济）（4）安徽：车企生产忙</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C31" t="str">
         <v>101002022022290001475</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D31" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工人在江淮汽车乘用车总装车间生产线上忙碌。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 周牧 摄</v>
       </c>
-      <c r="E22" t="str"/>
-      <c r="F22" t="str">
+      <c r="E31" t="str"/>
+      <c r="F31" t="str">
         <v>周牧 2022-02-22 21:02:27
                         ID : 101002022022290001475</v>
       </c>
-      <c r="G22" t="str"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
+      <c r="G31" t="str"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
         <v>春节</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B32" t="str">
         <v>（经济）（2）安徽：车企生产忙</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C32" t="str">
         <v>101002022022290001480</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D32" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工人在江淮汽车乘用车总装车间生产线上忙碌。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E23" t="str"/>
-      <c r="F23" t="str">
+      <c r="E32" t="str"/>
+      <c r="F32" t="str">
         <v>刘军喜 2022-02-22 21:02:27
                         ID : 101002022022290001480</v>
       </c>
-      <c r="G23" t="str"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
+      <c r="G32" t="str"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
         <v>春节</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B33" t="str">
         <v>（经济）（1）安徽：车企生产忙</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C33" t="str">
         <v>101002022022290001439</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D33" t="str">
         <v>新华社照片，合肥，2022年2月22日
     安徽：车企生产忙
     2月22日，工业机器人在江淮汽车乘用车焊接车间生产线上工作。
     春节假期过后，位于安徽省合肥市的江淮汽车各生产基地陆续复工复产，生产车间内一派繁忙景象。
     新华社记者 刘军喜 摄</v>
       </c>
-      <c r="E24" t="str"/>
-      <c r="F24" t="str">
+      <c r="E33" t="str"/>
+      <c r="F33" t="str">
         <v>刘军喜 2022-02-22 21:02:27
                         ID : 101002022022290001439</v>
       </c>
-      <c r="G24" t="str"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
+      <c r="G33" t="str"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
         <v>春节</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B34" t="str">
         <v>（经济）（1）广西灵川：企业节后生产忙</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C34" t="str">
         <v>101002022022290001184</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D34" t="str">
         <v>新华社照片，灵川（广西），2022年2月22日
     广西灵川：企业节后生产忙
     2月22日，在广西灵川县定江镇，一家企业的员工在制鞋车间工作。
     春节过后，广西灵川县众多企业随着员工陆续到位，全力推动节后复工复产，生产车间内一片繁忙。
     新华社记者 陆波岸 摄</v>
       </c>
-      <c r="E25" t="str"/>
-      <c r="F25" t="str">
+      <c r="E34" t="str"/>
+      <c r="F34" t="str">
         <v>陆波岸 2022-02-22 19:03:49
                         ID : 101002022022290001184</v>
       </c>
-      <c r="G25" t="str"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
+      <c r="G34" t="str"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
         <v>春节</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B35" t="str">
         <v>（经济）（5）广西灵川：企业节后生产忙</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C35" t="str">
         <v>101002022022290001170</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D35" t="str">
         <v>新华社照片，灵川（广西），2022年2月22日
     广西灵川：企业节后生产忙
     2月22日，在广西灵川县定江镇，一家企业的员工在生产玩具。
     春节过后，广西灵川县众多企业随着员工陆续到位，全力推动节后复工复产，生产车间内一片繁忙。
     新华社记者 陆波岸 摄</v>
       </c>
-      <c r="E26" t="str"/>
-      <c r="F26" t="str">
+      <c r="E35" t="str"/>
+      <c r="F35" t="str">
         <v>陆波岸 2022-02-22 19:03:49
                         ID : 101002022022290001170</v>
       </c>
-      <c r="G26" t="str"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
+      <c r="G35" t="str"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
         <v>春节</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B36" t="str">
         <v>（经济）（6）广西灵川：企业节后生产忙</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C36" t="str">
         <v>101002022022290001182</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D36" t="str">
         <v>新华社照片，灵川（广西），2022年2月22日
     广西灵川：企业节后生产忙
     2月22日，在广西灵川县定江镇，一家企业的员工在生产线上工作。
     春节过后，广西灵川县众多企业随着员工陆续到位，全力推动节后复工复产，生产车间内一片繁忙。
     新华社记者 陆波岸 摄</v>
       </c>
-      <c r="E27" t="str"/>
-      <c r="F27" t="str">
+      <c r="E36" t="str"/>
+      <c r="F36" t="str">
         <v>陆波岸 2022-02-22 19:03:49
                         ID : 101002022022290001182</v>
       </c>
-      <c r="G27" t="str"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
+      <c r="G36" t="str"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
         <v>春节</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B37" t="str">
         <v>（经济）（3）广西灵川：企业节后生产忙</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C37" t="str">
         <v>101002022022290001188</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D37" t="str">
         <v>新华社照片，灵川（广西），2022年2月22日
     广西灵川：企业节后生产忙
     2月22日，在广西灵川县定江镇，一家企业的员工在制鞋车间工作。
     春节过后，广西灵川县众多企业随着员工陆续到位，全力推动节后复工复产，生产车间内一片繁忙。
     新华社记者 陆波岸 摄</v>
       </c>
-      <c r="E28" t="str"/>
-      <c r="F28" t="str">
+      <c r="E37" t="str"/>
+      <c r="F37" t="str">
         <v>陆波岸 2022-02-22 19:03:49
                         ID : 101002022022290001188</v>
       </c>
-      <c r="G28" t="str"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
+      <c r="G37" t="str"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
         <v>春节</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B38" t="str">
         <v>（经济）（4）广西灵川：企业节后生产忙</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C38" t="str">
         <v>101002022022290001187</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D38" t="str">
         <v>新华社照片，灵川（广西），2022年2月22日
     广西灵川：企业节后生产忙
     2月22日，在广西灵川县定江镇，一家企业的员工在生产玩具。
     春节过后，广西灵川县众多企业随着员工陆续到位，全力推动节后复工复产，生产车间内一片繁忙。
     新华社记者 陆波岸 摄</v>
       </c>
-      <c r="E29" t="str"/>
-      <c r="F29" t="str">
+      <c r="E38" t="str"/>
+      <c r="F38" t="str">
         <v>陆波岸 2022-02-22 19:03:49
                         ID : 101002022022290001187</v>
       </c>
-      <c r="G29" t="str"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
+      <c r="G38" t="str"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
         <v>春节</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B39" t="str">
         <v>（经济）（2）广西灵川：企业节后生产忙</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C39" t="str">
         <v>101002022022290001181</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D39" t="str">
         <v>新华社照片，灵川（广西），2022年2月22日
     广西灵川：企业节后生产忙
     2月22日，在广西灵川县定江镇，一家企业的员工在制鞋车间工作。
     春节过后，广西灵川县众多企业随着员工陆续到位，全力推动节后复工复产，生产车间内一片繁忙。
     新华社记者 陆波岸 摄</v>
       </c>
-      <c r="E30" t="str"/>
-      <c r="F30" t="str">
+      <c r="E39" t="str"/>
+      <c r="F39" t="str">
         <v>陆波岸 2022-02-22 19:03:49
                         ID : 101002022022290001181</v>
       </c>
-      <c r="G30" t="str"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
+      <c r="G39" t="str"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
         <v>春节</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B40" t="str">
         <v>#（新华视界）（3）山东：新春求职招聘忙</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C40" t="str">
         <v>101002022022090005745</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D40" t="str">
         <v>新华社照片，青岛（山东），2022年2月20日
     山东：新春求职招聘忙
     2月20日，在山东青岛西海岸新区一务工市场，求职者在查看招聘信息。
     春节过后，山东青岛西海岸新区众多企业为外来务工人员提供工作岗位，吸引求职者前来寻找适合自己的工作岗位。
     新华社发（俞方平 摄）</v>
       </c>
-      <c r="E31" t="str"/>
-      <c r="F31" t="str">
+      <c r="E40" t="str"/>
+      <c r="F40" t="str">
         <v>俞方平 2022-02-20 22:04:41
                         ID : 101002022022090005745</v>
       </c>
-      <c r="G31" t="str"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
+      <c r="G40" t="str"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
         <v>春节</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B41" t="str">
         <v>（社会）（6）列车上的招聘会</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C41" t="str">
         <v>101002022021890002228</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D41" t="str">
         <v>新华社照片，杭州，2022年2月18日
     列车上的招聘会
     2月18日，旅客在查看企业发放的招聘信息资料。
     杭州客运段甬广车队的K210次列车途经广东、江西、浙江三省，每年春节后都有大量务工人员乘坐该次列车来浙求职。2月18日，浙江省总工会与杭州客运段在K210次列车上联合举办列车企业招聘会，来自浙江省9家企业的代表们在餐车车厢设立招聘接待处，并将招聘信息送到旅客手中，为乘坐该次列车的旅客提供就业服务。
     新华社记者 江汉 摄</v>
       </c>
-      <c r="E32" t="str"/>
-      <c r="F32" t="str">
+      <c r="E41" t="str"/>
+      <c r="F41" t="str">
         <v>江汉 2022-02-18 19:07:26
                         ID : 101002022021890002228</v>
       </c>
-      <c r="G32" t="str"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
+      <c r="G41" t="str"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
         <v>春节</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B42" t="str">
         <v>（社会）（1）列车上的招聘会</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C42" t="str">
         <v>101002022021890002222</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D42" t="str">
         <v>新华社照片，杭州，2022年2月18日
     列车上的招聘会
     2月18日，列车员为旅客发放企业招聘信息资料。
     杭州客运段甬广车队的K210次列车途经广东、江西、浙江三省，每年春节后都有大量务工人员乘坐该次列车来浙求职。2月18日，浙江省总工会与杭州客运段在K210次列车上联合举办列车企业招聘会，来自浙江省9家企业的代表们在餐车车厢设立招聘接待处，并将招聘信息送到旅客手中，为乘坐该次列车的旅客提供就业服务。
     新华社记者 江汉 摄</v>
       </c>
-      <c r="E33" t="str"/>
-      <c r="F33" t="str">
+      <c r="E42" t="str"/>
+      <c r="F42" t="str">
         <v>江汉 2022-02-18 19:07:26
                         ID : 101002022021890002222</v>
       </c>
-      <c r="G33" t="str"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
+      <c r="G42" t="str"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
         <v>春节</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B43" t="str">
         <v>（社会）（5）列车上的招聘会</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C43" t="str">
         <v>101002022021890002227</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D43" t="str">
         <v>新华社照片，杭州，2022年2月18日
     列车上的招聘会
     2月18日，企业代表（右）为旅客介绍企业招聘信息。
     杭州客运段甬广车队的K210次列车途经广东、江西、浙江三省，每年春节后都有大量务工人员乘坐该次列车来浙求职。2月18日，浙江省总工会与杭州客运段在K210次列车上联合举办列车企业招聘会，来自浙江省9家企业的代表们在餐车车厢设立招聘接待处，并将招聘信息送到旅客手中，为乘坐该次列车的旅客提供就业服务。
     新华社记者 江汉 摄</v>
       </c>
-      <c r="E34" t="str"/>
-      <c r="F34" t="str">
+      <c r="E43" t="str"/>
+      <c r="F43" t="str">
         <v>江汉 2022-02-18 19:07:26
                         ID : 101002022021890002227</v>
       </c>
-      <c r="G34" t="str"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
+      <c r="G43" t="str"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
         <v>春节</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B44" t="str">
         <v>（社会）（2）列车上的招聘会</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C44" t="str">
         <v>101002022021890002218</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D44" t="str">
         <v>新华社照片，杭州，2022年2月18日
     列车上的招聘会
     2月18日，企业代表在K210次列车车厢内给旅客发放招聘信息资料。
     杭州客运段甬广车队的K210次列车途经广东、江西、浙江三省，每年春节后都有大量务工人员乘坐该次列车来浙求职。2月18日，浙江省总工会与杭州客运段在K210次列车上联合举办列车企业招聘会，来自浙江省9家企业的代表们在餐车车厢设立招聘接待处，并将招聘信息送到旅客手中，为乘坐该次列车的旅客提供就业服务。
     新华社记者 ...</v>
       </c>
-      <c r="E35" t="str"/>
-      <c r="F35" t="str">
+      <c r="E44" t="str"/>
+      <c r="F44" t="str">
         <v>江汉 2022-02-18 19:07:26
                         ID : 101002022021890002218</v>
       </c>
-      <c r="G35" t="str"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
+      <c r="G44" t="str"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
         <v>春节</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B45" t="str">
         <v>（社会）（3）列车上的招聘会</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C45" t="str">
         <v>101002022021890002219</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D45" t="str">
         <v>新华社照片，杭州，2022年2月18日
     列车上的招聘会
     2月18日，在餐车的招聘接待处，旅客（前左）与企业达成用工意向后填写表格。
     杭州客运段甬广车队的K210次列车途经广东、江西、浙江三省，每年春节后都有大量务工人员乘坐该次列车来浙求职。2月18日，浙江省总工会与杭州客运段在K210次列车上联合举办列车企业招聘会，来自浙江省9家企业的代表们在餐车车厢设立招聘接待处，并将招聘信息送到旅客手中，为乘坐该次列车的旅客提供就业服务。
     新华...</v>
       </c>
-      <c r="E36" t="str"/>
-      <c r="F36" t="str">
+      <c r="E45" t="str"/>
+      <c r="F45" t="str">
         <v>江汉 2022-02-18 19:07:26
                         ID : 101002022021890002219</v>
       </c>
-      <c r="G36" t="str"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
+      <c r="G45" t="str"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
         <v>春节</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B46" t="str">
         <v>（社会）（4）列车上的招聘会</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C46" t="str">
         <v>101002022021890002226</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D46" t="str">
         <v>新华社照片，杭州，2022年2月18日
     列车上的招聘会
     2月18日，列车招聘会发起人陈美芳（左一）在餐车招聘接待处为旅客介绍招聘会的相关情况。
     杭州客运段甬广车队的K210次列车途经广东、江西、浙江三省，每年春节后都有大量务工人员乘坐该次列车来浙求职。2月18日，浙江省总工会与杭州客运段在K210次列车上联合举办列车企业招聘会，来自浙江省9家企业的代表们在餐车车厢设立招聘接待处，并将招聘信息送到旅客手中，为乘坐该次列车的旅客提供就业服务。
 ...</v>
       </c>
-      <c r="E37" t="str"/>
-      <c r="F37" t="str">
+      <c r="E46" t="str"/>
+      <c r="F46" t="str">
         <v>江汉 2022-02-18 19:07:26
                         ID : 101002022021890002226</v>
       </c>
-      <c r="G37" t="str"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
+      <c r="G46" t="str"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
         <v>春节</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B47" t="str">
         <v>新华社摄影部2022年02月17日发稿目录（国际对内）</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C47" t="str">
         <v>101002022021890000002</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D47" t="str">
         <v>新华社摄影部2022年02月17日发稿目录（国际对内）
     *（国际）（5）索马里首都发生自杀式炸弹袭击致2死16伤
     *（国际）（8）巴西里约州暴雨灾害死亡人数升至78人
@@ -1231,47 +1447,47 @@
     *（国际）（7）柏林国际电影节主竞赛单元奖项揭晓
     *...</v>
       </c>
-      <c r="E38" t="str"/>
-      <c r="F38" t="str">
+      <c r="E47" t="str"/>
+      <c r="F47" t="str">
         <v>张加扬 2022-02-18 00:14:54
                         ID : 101002022021890000002</v>
       </c>
-      <c r="G38" t="str"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
+      <c r="G47" t="str"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
         <v>春节</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B48" t="str">
         <v>（国际）中国春节电影周在意大利举行</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C48" t="str">
         <v>101002022021790004699</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D48" t="str">
         <v>新华社照片，罗马，2022年2月17日
     （国际）中国春节电影周在意大利举行
     2月13日，电影周观众在意大利罗马的影院门前和“冰墩墩”、“雪容融”合影。
     持续15天的意大利中国春节电影周于日前闭幕。电影周为意大利民众带来浓浓的春节文化气氛。电影周由意大利《世界中国》杂志社主办，中国驻意大利大使馆提供的多部影片2月1日开始在罗马台伯河边的“风景”...</v>
       </c>
-      <c r="E39" t="str"/>
-      <c r="F39" t="str">
+      <c r="E48" t="str"/>
+      <c r="F48" t="str">
         <v>刘咏秋 2022-02-17 20:50:03
                         ID : 101002022021790004699</v>
       </c>
-      <c r="G39" t="str"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
+      <c r="G48" t="str"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
         <v>春节</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B49" t="str">
         <v>新华社摄影部2022年02月17日白班发稿目录（国际对内）</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C49" t="str">
         <v>101002022021790003008</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D49" t="str">
         <v>新华社摄影部2022年02月17日白班发稿目录（国际对内）
 *（国际）（5）索马里首都发生自杀式炸弹袭击致2死16伤
 *（国际）（8）巴西里约州暴雨灾害死亡人数升至78人
@@ -1281,284 +1497,58 @@
 新华社摄影部
 2022年2月17日</v>
       </c>
-      <c r="E40" t="str"/>
-      <c r="F40" t="str">
+      <c r="E49" t="str"/>
+      <c r="F49" t="str">
         <v>邹予 2022-02-17 16:42:36
                         ID : 101002022021790003008</v>
       </c>
-      <c r="G40" t="str"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
+      <c r="G49" t="str"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
         <v>春节</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B50" t="str">
         <v>（国际·图文互动）（2）通讯：这个春节，中国医疗队走进圭亚那热带雨林深处</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C50" t="str">
         <v>101002022021790000565</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D50" t="str">
         <v>新华社照片，加拉加斯，2022年2月17日
     （国际·图文互动）（2）通讯：这个春节，中国医疗队走进圭亚那热带雨林深处
     2月11日，中国医疗队在圭亚那夸夸尼社区为当地居民义诊。
     （配本社同题文字稿）
     新华社发（医疗队供图）</v>
       </c>
-      <c r="E41" t="str"/>
-      <c r="F41" t="str">
+      <c r="E50" t="str"/>
+      <c r="F50" t="str">
         <v>徐烨,王瑛 2022-02-17 11:39:30
                         ID : 101002022021790000565</v>
       </c>
-      <c r="G41" t="str"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
+      <c r="G50" t="str"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
         <v>春节</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B51" t="str">
         <v>（国际·图文互动）（3）通讯：这个春节，中国医疗队走进圭亚那热带雨林深处</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C51" t="str">
         <v>101002022021790000563</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D51" t="str">
         <v>新华社照片，加拉加斯，2022年2月17日
     （国际·图文互动）（3）通讯：这个春节，中国医疗队走进圭亚那热带雨林深处
     2月12日，中国医疗队在圭亚那中资企业荣安公司林区驻地为工人做检查。
     （配本社同题文字稿）
     新华社发（医疗队供图）</v>
       </c>
-      <c r="E42" t="str"/>
-      <c r="F42" t="str">
+      <c r="E51" t="str"/>
+      <c r="F51" t="str">
         <v>徐烨,王瑛 2022-02-17 11:39:30
                         ID : 101002022021790000563</v>
-      </c>
-      <c r="G42" t="str"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B43" t="str">
-        <v>（国际·图文互动）（1）通讯：这个春节，中国医疗队走进圭亚那热带雨林深处</v>
-      </c>
-      <c r="C43" t="str">
-        <v>101002022021790000561</v>
-      </c>
-      <c r="D43" t="str">
-        <v>新华社照片，加拉加斯，2022年2月17日
-    （国际·图文互动）（1）通讯：这个春节，中国医疗队走进圭亚那热带雨林深处
-    2月6日，中国医疗队在圭亚那西南边境城市莱瑟姆为当地华侨华人义诊。
-    （配本社同题文字稿）
-    新华社发（医疗队供图）</v>
-      </c>
-      <c r="E43" t="str"/>
-      <c r="F43" t="str">
-        <v>徐烨,王瑛 2022-02-17 11:39:30
-                        ID : 101002022021790000561</v>
-      </c>
-      <c r="G43" t="str"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B44" t="str">
-        <v>新华社摄影部2022年02月15日发稿目录（国际对内）</v>
-      </c>
-      <c r="C44" t="str">
-        <v>101002022021590008783</v>
-      </c>
-      <c r="D44" t="str">
-        <v>新华社摄影部2022年02月15日发稿目录（国际对内）
-*（国际·图文互动）中国肯尼亚“2018年紧急粮食援助项目”交接完毕
-*（国际）（3）联合国秘书长呼吁通过外交手段化解俄乌紧张局势
-*（国际）（3）第58届慕尼黑安全会议定调“摆脱无助感”
-*（国际）（8）泰国芭提雅：象背上的婚礼
-*（国际）墨西哥：点亮中国红庆祝中墨建交50周年
-*（国际·图文互动）（4）非洲自贸区稳步推进 中非合作迎来新机遇
-*（国际）（4）美国旧金山：灯光秀
-*（国际）（4）韩国大选竞选活动拉开帷幕
-*（国际）（5）中...</v>
-      </c>
-      <c r="E44" t="str"/>
-      <c r="F44" t="str">
-        <v>李旭伦 2022-02-15 23:59:46
-                        ID : 101002022021590008783</v>
-      </c>
-      <c r="G44" t="str"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B45" t="str">
-        <v>新华社摄影部2022年02月15日发稿目录（国际对外）</v>
-      </c>
-      <c r="C45" t="str">
-        <v>101002022021590008788</v>
-      </c>
-      <c r="D45" t="str">
-        <v>新华社摄影部2022年02月15日发稿目录（国际对外）
-*（XHDW）（9）浪漫情人节
-*（国际·图文互动）中国肯尼亚“2018年紧急粮食援助项目”交接完毕
-*（国际）（3）联合国秘书长呼吁通过外交手段化解俄乌紧张局势
-*（XHDW）（12）情人节掠影
-*（XHDW）美英领导人通话讨论乌克兰局势
-*（国际）（3）第58届慕尼黑安全会议定调“摆脱无助感”
-*（国际）（8）泰国芭提雅：象背上的婚礼
-*（国际）墨西哥：点亮中国红庆祝中墨建交50周年
-*（新华视界）（3）墨西哥：点亮中国红庆祝中墨建交5...</v>
-      </c>
-      <c r="E45" t="str"/>
-      <c r="F45" t="str">
-        <v>李旭伦 2022-02-15 23:59:03
-                        ID : 101002022021590008788</v>
-      </c>
-      <c r="G45" t="str"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B46" t="str">
-        <v>（国际·图文互动）（2）通讯：甘做“一带一路”项目建设的螺丝钉——记春节期间在格鲁吉亚坚守岗位的中国铁路建设者</v>
-      </c>
-      <c r="C46" t="str">
-        <v>101002022021590007846</v>
-      </c>
-      <c r="D46" t="str">
-        <v>新华社照片，哈舒里（格鲁吉亚），2022年2月15日
-    （国际·图文互动）（2）通讯：甘做“一带一路”项目建设的螺丝钉——记春节期间在格鲁吉亚坚守岗位的中国铁路建设者
-    2月15日，在格鲁吉亚中部城市哈舒里附近，中铁二十三局员工在格鲁吉亚现代化铁路项目施工现场工作。
-    （配本社同题文字稿）
-    新华社发（中铁二十三局供图）</v>
-      </c>
-      <c r="E46" t="str"/>
-      <c r="F46" t="str">
-        <v>李铭 2022-02-15 22:57:46
-                        ID : 101002022021590007846</v>
-      </c>
-      <c r="G46" t="str"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B47" t="str">
-        <v>（国际·图文互动）（1）通讯：甘做“一带一路”项目建设的螺丝钉——记春节期间在格鲁吉亚坚守岗位的中国铁路建设者</v>
-      </c>
-      <c r="C47" t="str">
-        <v>101002022021590007845</v>
-      </c>
-      <c r="D47" t="str">
-        <v>新华社照片，哈舒里（格鲁吉亚），2022年2月15日
-    （国际·图文互动）（1）通讯：甘做“一带一路”项目建设的螺丝钉——记春节期间在格鲁吉亚坚守岗位的中国铁路建设者
-    1月24日，在格鲁吉亚中部城市哈舒里附近，中铁二十三局员工在格鲁吉亚现代化铁路项目施工现场工作。
-    （配本社同题文字稿）
-    新华社发（中铁二十三局供图）</v>
-      </c>
-      <c r="E47" t="str"/>
-      <c r="F47" t="str">
-        <v>李铭 2022-02-15 22:57:46
-                        ID : 101002022021590007845</v>
-      </c>
-      <c r="G47" t="str"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B48" t="str">
-        <v>（国际·图文互动）（3）通讯：甘做“一带一路”项目建设的螺丝钉——记春节期间在格鲁吉亚坚守岗位的中国铁路建设者</v>
-      </c>
-      <c r="C48" t="str">
-        <v>101002022021590007847</v>
-      </c>
-      <c r="D48" t="str">
-        <v>新华社照片，哈舒里（格鲁吉亚），2022年2月15日
-    （国际·图文互动）（3）通讯：甘做“一带一路”项目建设的螺丝钉——记春节期间在格鲁吉亚坚守岗位的中国铁路建设者
-    2月15日，在格鲁吉亚中部城市哈舒里附近，中铁二十三局员工在格鲁吉亚现代化铁路项目施工现场工作。
-    （配本社同题文字稿）
-    新华社发（中铁二十三局供图）</v>
-      </c>
-      <c r="E48" t="str"/>
-      <c r="F48" t="str">
-        <v>李铭 2022-02-15 22:57:46
-                        ID : 101002022021590007847</v>
-      </c>
-      <c r="G48" t="str"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B49" t="str">
-        <v>（新华全媒+）（1）台胞吴清菊的虎年元宵节</v>
-      </c>
-      <c r="C49" t="str">
-        <v>101002022021590007305</v>
-      </c>
-      <c r="D49" t="str">
-        <v>新华社照片，福州，2022年2月15日
-    台胞吴清菊的虎年元宵节
-    2月15日，吴清菊在福州市鼓楼区五凤街道永恒社区参加猜灯谜活动。
-    “我在大陆过春节期间，都会参加大陆的迎新春庆团圆活动，和同胞们相互交流，感受两岸一家亲的温暖。”台胞吴清菊说，“元宵节放孔明灯、吃汤圆、闹花灯的传统习俗，台湾和大陆都一样，都充满着浓浓的年味。”
-    出生于台湾高雄的吴清菊，1992年到厦门大学读研究生，毕业后到福州继续深造，并从事书画创作、研究。吴清菊说：“...</v>
-      </c>
-      <c r="E49" t="str"/>
-      <c r="F49" t="str">
-        <v>林善传 2022-02-15 21:53:39
-                        ID : 101002022021590007305</v>
-      </c>
-      <c r="G49" t="str"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B50" t="str">
-        <v>（新华全媒+）（3）台胞吴清菊的虎年元宵节</v>
-      </c>
-      <c r="C50" t="str">
-        <v>101002022021590007303</v>
-      </c>
-      <c r="D50" t="str">
-        <v>新华社照片，福州，2022年2月15日
-    台胞吴清菊的虎年元宵节
-    2月14日，在福州市晋安区茶园街道新时代文明实践所，吴清菊为社区居民介绍台湾元宵节习俗。
-    “我在大陆过春节期间，都会参加大陆的迎新春庆团圆活动，和同胞们相互交流，感受两岸一家亲的温暖。”台胞吴清菊说，“元宵节放孔明灯、吃汤圆、闹花灯的传统习俗，台湾和大陆都一样，都充满着浓浓的年味。”
-    出生于台湾高雄的吴清菊，1992年到厦门大学读研究生，毕业后到福州继续深造，并从事书画...</v>
-      </c>
-      <c r="E50" t="str"/>
-      <c r="F50" t="str">
-        <v>林善传 2022-02-15 21:53:39
-                        ID : 101002022021590007303</v>
-      </c>
-      <c r="G50" t="str"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>春节</v>
-      </c>
-      <c r="B51" t="str">
-        <v>（新华全媒+）（2）台胞吴清菊的虎年元宵节</v>
-      </c>
-      <c r="C51" t="str">
-        <v>101002022021590007302</v>
-      </c>
-      <c r="D51" t="str">
-        <v>新华社照片，福州，2022年2月15日
-    台胞吴清菊的虎年元宵节
-    2月15日，吴清菊（中）在福州市鼓楼区五凤街道永恒社区教小朋友装饰花灯。
-    “我在大陆过春节期间，都会参加大陆的迎新春庆团圆活动，和同胞们相互交流，感受两岸一家亲的温暖。”台胞吴清菊说，“元宵节放孔明灯、吃汤圆、闹花灯的传统习俗，台湾和大陆都一样，都充满着浓浓的年味。”
-    出生于台湾高雄的吴清菊，1992年到厦门大学读研究生，毕业后到福州继续深造，并从事书画创作、研究。吴清...</v>
-      </c>
-      <c r="E51" t="str"/>
-      <c r="F51" t="str">
-        <v>林善传 2022-02-15 21:53:39
-                        ID : 101002022021590007302</v>
       </c>
       <c r="G51" t="str"/>
     </row>
@@ -2247,46 +2237,46 @@
         <v>太阳系</v>
       </c>
       <c r="B80" t="str">
+        <v>（外代一线）（1）三名科学家分享2019年诺贝尔物理学奖</v>
+      </c>
+      <c r="C80" t="str">
+        <v>101002019100890002011</v>
+      </c>
+      <c r="D80" t="str">
+        <v>新华社照片，外代，2019年10月8日
+    （外代一线）（1）三名科学家分享2019年诺贝尔物理学奖
+    瑞典皇家科学院10月8日宣布，将2019年诺贝尔物理学奖授予三名科学家。来自美国的詹姆斯·皮布尔斯因宇宙学相关研究获奖，来自瑞士的米歇尔·马约尔和迪迪埃·奎洛兹因首次发现太阳系外行星获奖。
+    这是2005年8月11日在瑞士日内瓦大学拍摄的米歇尔·马约尔（左）和迪迪埃·奎洛兹。
+    新华社/美联</v>
+      </c>
+      <c r="E80" t="str"/>
+      <c r="F80" t="str">
+        <v>Laurent Gillieron 2019-10-08 22:23:25
+                        ID : 101002019100890002011</v>
+      </c>
+      <c r="G80" t="str"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B81" t="str">
         <v>（外代一线）（8）三名科学家分享2019年诺贝尔物理学奖</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C81" t="str">
         <v>101002019100890002024</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D81" t="str">
         <v>新华社照片，外代，2019年10月8日
     （外代一线）（8）三名科学家分享2019年诺贝尔物理学奖
     10月8日，在位于斯德哥尔摩的瑞典皇家科学院，一个屏幕上显示2019年诺贝尔物理学奖获得者。
     瑞典皇家科学院8日宣布，将2019年诺贝尔物理学奖授予三名科学家。来自美国的詹姆斯·皮布尔斯因宇宙学相关研究获奖，来自瑞士的米歇尔·马约尔和迪迪埃·奎洛兹因首次发现太阳系外行星获奖。
     新华社/法新</v>
       </c>
-      <c r="E80" t="str"/>
-      <c r="F80" t="str">
+      <c r="E81" t="str"/>
+      <c r="F81" t="str">
         <v>JONATHAN NACKSTRAND 2019-10-08 22:23:25
                         ID : 101002019100890002024</v>
-      </c>
-      <c r="G80" t="str"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>太阳系</v>
-      </c>
-      <c r="B81" t="str">
-        <v>（外代一线）（1）三名科学家分享2019年诺贝尔物理学奖</v>
-      </c>
-      <c r="C81" t="str">
-        <v>101002019100890002011</v>
-      </c>
-      <c r="D81" t="str">
-        <v>新华社照片，外代，2019年10月8日
-    （外代一线）（1）三名科学家分享2019年诺贝尔物理学奖
-    瑞典皇家科学院10月8日宣布，将2019年诺贝尔物理学奖授予三名科学家。来自美国的詹姆斯·皮布尔斯因宇宙学相关研究获奖，来自瑞士的米歇尔·马约尔和迪迪埃·奎洛兹因首次发现太阳系外行星获奖。
-    这是2005年8月11日在瑞士日内瓦大学拍摄的米歇尔·马约尔（左）和迪迪埃·奎洛兹。
-    新华社/美联</v>
-      </c>
-      <c r="E81" t="str"/>
-      <c r="F81" t="str">
-        <v>Laurent Gillieron 2019-10-08 22:23:25
-                        ID : 101002019100890002011</v>
       </c>
       <c r="G81" t="str"/>
     </row>
@@ -3192,67 +3182,67 @@
         <v>魔术</v>
       </c>
       <c r="B120" t="str">
+        <v>（新华全媒+）（10）逐梦冰雪——寒夜滑雪场的“面条守护者”</v>
+      </c>
+      <c r="C120" t="str">
+        <v>101002021112390000759</v>
+      </c>
+      <c r="D120" t="str">
+        <v>新华社照片，抚松（吉林），2021年11月23日
+    （新华全媒+）（10）逐梦冰雪——寒夜滑雪场的“面条守护者”
+    在滑雪场，平整的机压雪道被滑雪爱好者们称为“面条雪”，踩着雪板滑行在机压雪道上被比喻为“吃面条”——这是最令滑雪爱好者们心动的体验之一。
+    在吉林长白山国际度假区滑雪场，为确保每天都能“吃面条”，一群“面条守护者”坚持在每个寒夜上线。他们当中，有宛如“冰雪魔术师”的雪场造雪师，有将凌乱雪道重归平整的压雪车司机，有行走在陡坡间的雪道巡...</v>
+      </c>
+      <c r="E120" t="str"/>
+      <c r="F120" t="str">
+        <v>许畅 2021-11-23 16:53:09
+                        ID : 101002021112390000759</v>
+      </c>
+      <c r="G120" t="str"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>魔术</v>
+      </c>
+      <c r="B121" t="str">
         <v>（新华全媒+）（11）逐梦冰雪——寒夜滑雪场的“面条守护者”</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C121" t="str">
         <v>101002021112390000797</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D121" t="str">
         <v>新华社照片，抚松（吉林），2021年11月23日
     （新华全媒+）（11）逐梦冰雪——寒夜滑雪场的“面条守护者”
     在滑雪场，平整的机压雪道被滑雪爱好者们称为“面条雪”，踩着雪板滑行在机压雪道上被比喻为“吃面条”——这是最令滑雪爱好者们心动的体验之一。
     在吉林长白山国际度假区滑雪场，为确保每天都能“吃面条”，一群“面条守护者”坚持在每个寒夜上线。他们当中，有宛如“冰雪魔术师”的雪场造雪师，有将凌乱雪道重归平整的压雪车司机，有行走在陡坡间的雪道巡...</v>
       </c>
-      <c r="E120" t="str"/>
-      <c r="F120" t="str">
+      <c r="E121" t="str"/>
+      <c r="F121" t="str">
         <v>许畅 2021-11-23 16:53:09
                         ID : 101002021112390000797</v>
       </c>
-      <c r="G120" t="str"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
+      <c r="G121" t="str"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
         <v>魔术</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B122" t="str">
         <v>（新华全媒+）（17）逐梦冰雪——寒夜滑雪场的“面条守护者”</v>
       </c>
-      <c r="C121" t="str">
+      <c r="C122" t="str">
         <v>101002021112390000772</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D122" t="str">
         <v>新华社照片，抚松（吉林），2021年11月23日
     （新华全媒+）（17）逐梦冰雪——寒夜滑雪场的“面条守护者”
     在滑雪场，平整的机压雪道被滑雪爱好者们称为“面条雪”，踩着雪板滑行在机压雪道上被比喻为“吃面条”——这是最令滑雪爱好者们心动的体验之一。
     在吉林长白山国际度假区滑雪场，为确保每天都能“吃面条”，一群“面条守护者”坚持在每个寒夜上线。他们当中，有宛如“冰雪魔术师”的雪场造雪师，有将凌乱雪道重归平整的压雪车司机，有行走在陡坡间的雪道巡...</v>
       </c>
-      <c r="E121" t="str"/>
-      <c r="F121" t="str">
-        <v>许畅 2021-11-23 16:53:09
-                        ID : 101002021112390000772</v>
-      </c>
-      <c r="G121" t="str"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>魔术</v>
-      </c>
-      <c r="B122" t="str">
-        <v>（新华全媒+）（10）逐梦冰雪——寒夜滑雪场的“面条守护者”</v>
-      </c>
-      <c r="C122" t="str">
-        <v>101002021112390000759</v>
-      </c>
-      <c r="D122" t="str">
-        <v>新华社照片，抚松（吉林），2021年11月23日
-    （新华全媒+）（10）逐梦冰雪——寒夜滑雪场的“面条守护者”
-    在滑雪场，平整的机压雪道被滑雪爱好者们称为“面条雪”，踩着雪板滑行在机压雪道上被比喻为“吃面条”——这是最令滑雪爱好者们心动的体验之一。
-    在吉林长白山国际度假区滑雪场，为确保每天都能“吃面条”，一群“面条守护者”坚持在每个寒夜上线。他们当中，有宛如“冰雪魔术师”的雪场造雪师，有将凌乱雪道重归平整的压雪车司机，有行走在陡坡间的雪道巡...</v>
-      </c>
       <c r="E122" t="str"/>
       <c r="F122" t="str">
         <v>许畅 2021-11-23 16:53:09
-                        ID : 101002021112390000759</v>
+                        ID : 101002021112390000772</v>
       </c>
       <c r="G122" t="str"/>
     </row>
@@ -3660,46 +3650,46 @@
         <v>魔术</v>
       </c>
       <c r="B140" t="str">
+        <v>（外代一线）（7）美国加州：恢复营业的主题乐园</v>
+      </c>
+      <c r="C140" t="str">
+        <v>101002021040290000520</v>
+      </c>
+      <c r="D140" t="str">
+        <v>新华社照片，外代，2021年4月2日
+    （外代一线）（7）美国加州：恢复营业的主题乐园
+    4月1日，工作人员在美国加利福尼亚州巴伦西亚的六旗魔术山主题乐园欢迎游客。
+    受疫情影响而关闭的六旗魔术山主题乐园当天恢复营业。加利福尼亚州政府要求恢复营业的主题乐园限制人员尖叫、大声说话等行为，以免飞沫传播新冠病毒、增加疫情蔓延风险。
+    新华社/法新</v>
+      </c>
+      <c r="E140" t="str"/>
+      <c r="F140" t="str">
+        <v>VALERIE MACON 2021-04-02 14:19:11
+                        ID : 101002021040290000520</v>
+      </c>
+      <c r="G140" t="str"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>魔术</v>
+      </c>
+      <c r="B141" t="str">
         <v>（外代一线）（3）美国加州：恢复营业的主题乐园</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C141" t="str">
         <v>101002021040290000512</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D141" t="str">
         <v>新华社照片，外代，2021年4月2日
     （外代一线）（3）美国加州：恢复营业的主题乐园
     4月1日，工作人员在美国加利福尼亚州巴伦西亚的六旗魔术山主题乐园提醒人们保持社交距离。
     受疫情影响而关闭的六旗魔术山主题乐园当天恢复营业。加利福尼亚州政府要求恢复营业的主题乐园限制人员尖叫、大声说话等行为，以免飞沫传播新冠病毒、增加疫情蔓延风险。
     新华社/路透</v>
       </c>
-      <c r="E140" t="str"/>
-      <c r="F140" t="str">
+      <c r="E141" t="str"/>
+      <c r="F141" t="str">
         <v>LUCY NICHOLSON 2021-04-02 14:19:11
                         ID : 101002021040290000512</v>
-      </c>
-      <c r="G140" t="str"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>魔术</v>
-      </c>
-      <c r="B141" t="str">
-        <v>（外代一线）（7）美国加州：恢复营业的主题乐园</v>
-      </c>
-      <c r="C141" t="str">
-        <v>101002021040290000520</v>
-      </c>
-      <c r="D141" t="str">
-        <v>新华社照片，外代，2021年4月2日
-    （外代一线）（7）美国加州：恢复营业的主题乐园
-    4月1日，工作人员在美国加利福尼亚州巴伦西亚的六旗魔术山主题乐园欢迎游客。
-    受疫情影响而关闭的六旗魔术山主题乐园当天恢复营业。加利福尼亚州政府要求恢复营业的主题乐园限制人员尖叫、大声说话等行为，以免飞沫传播新冠病毒、增加疫情蔓延风险。
-    新华社/法新</v>
-      </c>
-      <c r="E141" t="str"/>
-      <c r="F141" t="str">
-        <v>VALERIE MACON 2021-04-02 14:19:11
-                        ID : 101002021040290000520</v>
       </c>
       <c r="G141" t="str"/>
     </row>
@@ -3827,44 +3817,44 @@
         <v>魔术</v>
       </c>
       <c r="B147" t="str">
+        <v>（国际疫情·新华视界）（2）以色列：“医疗小丑”在工作</v>
+      </c>
+      <c r="C147" t="str">
+        <v>101002021020590002094</v>
+      </c>
+      <c r="D147" t="str">
+        <v>新华社照片，采法特（以色列），2021年2月5日
+    （国际疫情·新华视界）（2）以色列：“医疗小丑”在工作
+    2月4日，“医疗小丑”在以色列北部城市采法特的齐夫医学中心工作。
+    讲故事、变魔术、带着患者一起跳舞……新冠疫情期间，以色列医院里，一个特殊的群体正施展自己爱与幽默的力量。这些被称为“医疗小丑”或“梦想医生”的人在严格的卫生防疫措施下，帮助患者在欢笑中配合治疗、暂时忘却孤独和痛苦。作为医学领域里替代疗法的一个分支，“医疗小丑”近年来在以色...</v>
+      </c>
+      <c r="E147" t="str"/>
+      <c r="F147" t="str">
+        <v>尚昊 2021-02-05 20:20:31
+                        ID : 101002021020590002094</v>
+      </c>
+      <c r="G147" t="str"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>魔术</v>
+      </c>
+      <c r="B148" t="str">
         <v>（国际疫情·新华视界）（4）以色列：“医疗小丑”在工作</v>
       </c>
-      <c r="C147" t="str">
+      <c r="C148" t="str">
         <v>101002021020590002096</v>
       </c>
-      <c r="D147" t="str">
+      <c r="D148" t="str">
         <v>新华社照片，采法特（以色列），2021年2月5日
     （国际疫情·新华视界）（4）以色列：“医疗小丑”在工作
     2月4日，“医疗小丑”在以色列北部城市采法特的齐夫医学中心工作。
     讲故事、变魔术、带着患者一起跳舞……新冠疫情期间，以色列医院里，一个特殊的群体正施展自己爱与幽默的力量。这些被称为“医疗小丑”或“梦想医生”的人在严格的卫生防疫措施下，帮助患者在欢笑中配合治疗、暂时忘却孤独和痛苦。作为医学领域里替代疗法的一个分支，“医疗小丑”近年来在以色...</v>
       </c>
-      <c r="E147" t="str"/>
-      <c r="F147" t="str">
-        <v>尚昊 2021-02-05 20:20:31
-                        ID : 101002021020590002096</v>
-      </c>
-      <c r="G147" t="str"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>魔术</v>
-      </c>
-      <c r="B148" t="str">
-        <v>（国际疫情·新华视界）（2）以色列：“医疗小丑”在工作</v>
-      </c>
-      <c r="C148" t="str">
-        <v>101002021020590002094</v>
-      </c>
-      <c r="D148" t="str">
-        <v>新华社照片，采法特（以色列），2021年2月5日
-    （国际疫情·新华视界）（2）以色列：“医疗小丑”在工作
-    2月4日，“医疗小丑”在以色列北部城市采法特的齐夫医学中心工作。
-    讲故事、变魔术、带着患者一起跳舞……新冠疫情期间，以色列医院里，一个特殊的群体正施展自己爱与幽默的力量。这些被称为“医疗小丑”或“梦想医生”的人在严格的卫生防疫措施下，帮助患者在欢笑中配合治疗、暂时忘却孤独和痛苦。作为医学领域里替代疗法的一个分支，“医疗小丑”近年来在以色...</v>
-      </c>
       <c r="E148" t="str"/>
       <c r="F148" t="str">
         <v>尚昊 2021-02-05 20:20:31
-                        ID : 101002021020590002094</v>
+                        ID : 101002021020590002096</v>
       </c>
       <c r="G148" t="str"/>
     </row>
@@ -3942,209 +3932,213 @@
         <v>京剧</v>
       </c>
       <c r="B152" t="str">
+        <v>#（新华视界）（3）弘扬戏曲艺术 传承传统文化</v>
+      </c>
+      <c r="C152" t="str">
+        <v>101002022031890001727</v>
+      </c>
+      <c r="D152" t="str">
+        <v>新华社照片，淮北（安徽），2022年3月18日
+    弘扬戏曲艺术 传承传统文化
+    3月18日，在淮北市淮海东路小学，戏曲老师在指导学生学习戏曲唱腔和动作。
+    近年来，安徽省淮北市淮海东路小学积极推进传统戏曲进校园，通过设立戏曲兴趣班和“第二课堂”，聘请专业戏曲老师走进校园，为学生进行京剧、越剧、黄梅戏等传统戏曲教学辅导，让孩子们感受传统戏曲的魅力。
+    新华社发（万善朝 摄）</v>
+      </c>
+      <c r="E152" t="str"/>
+      <c r="F152" t="str">
+        <v>万善朝（安徽） 2022-03-18 20:57:39
+                        ID : 101002022031890001727</v>
+      </c>
+      <c r="G152" t="str"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B153" t="str">
+        <v>#（新华视界）（1）弘扬戏曲艺术 传承传统文化</v>
+      </c>
+      <c r="C153" t="str">
+        <v>101002022031890001729</v>
+      </c>
+      <c r="D153" t="str">
+        <v>新华社照片，淮北（安徽），2022年3月18日
+    弘扬戏曲艺术 传承传统文化
+    3月18日，淮北市淮海东路小学学生在练习戏曲动作。
+    近年来，安徽省淮北市淮海东路小学积极推进传统戏曲进校园，通过设立戏曲兴趣班和“第二课堂”，聘请专业戏曲老师走进校园，为学生进行京剧、越剧、黄梅戏等传统戏曲教学辅导，让孩子们感受传统戏曲的魅力。
+    新华社发（万善朝 摄）</v>
+      </c>
+      <c r="E153" t="str"/>
+      <c r="F153" t="str">
+        <v>万善朝（安徽） 2022-03-18 20:57:39
+                        ID : 101002022031890001729</v>
+      </c>
+      <c r="G153" t="str"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B154" t="str">
+        <v>#（新华视界）（2）弘扬戏曲艺术 传承传统文化</v>
+      </c>
+      <c r="C154" t="str">
+        <v>101002022031890001728</v>
+      </c>
+      <c r="D154" t="str">
+        <v>新华社照片，淮北（安徽），2022年3月18日
+    弘扬戏曲艺术 传承传统文化
+    3月18日，在淮北市淮海东路小学，戏曲老师为学生整理头冠。
+    近年来，安徽省淮北市淮海东路小学积极推进传统戏曲进校园，通过设立戏曲兴趣班和“第二课堂”，聘请专业戏曲老师走进校园，为学生进行京剧、越剧、黄梅戏等传统戏曲教学辅导，让孩子们感受传统戏曲的魅力。
+    新华社发（万善朝 摄）</v>
+      </c>
+      <c r="E154" t="str"/>
+      <c r="F154" t="str">
+        <v>万善朝（安徽） 2022-03-18 20:57:39
+                        ID : 101002022031890001728</v>
+      </c>
+      <c r="G154" t="str"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B155" t="str">
+        <v>#（新华视界）（4）弘扬戏曲艺术 传承传统文化</v>
+      </c>
+      <c r="C155" t="str">
+        <v>101002022031890001726</v>
+      </c>
+      <c r="D155" t="str">
+        <v>新华社照片，淮北（安徽），2022年3月18日
+    弘扬戏曲艺术 传承传统文化
+    3月18日，在淮北市淮海东路小学，戏曲老师在指导学生学习戏曲唱腔和动作。
+    近年来，安徽省淮北市淮海东路小学积极推进传统戏曲进校园，通过设立戏曲兴趣班和“第二课堂”，聘请专业戏曲老师走进校园，为学生进行京剧、越剧、黄梅戏等传统戏曲教学辅导，让孩子们感受传统戏曲的魅力。
+    新华社发（万善朝 摄）</v>
+      </c>
+      <c r="E155" t="str"/>
+      <c r="F155" t="str">
+        <v>万善朝（安徽） 2022-03-18 20:57:39
+                        ID : 101002022031890001726</v>
+      </c>
+      <c r="G155" t="str"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B156" t="str">
         <v>（两会议政录·影像链接）潘鲁生委员：传统文化要有新的时代内涵</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C156" t="str">
         <v>101002022030890001859</v>
       </c>
-      <c r="D152" t="str">
+      <c r="D156" t="str">
         <v>新华社照片，北京，2022年3月8日
     潘鲁生委员：传统文化要有新的时代内涵
     左图：全国政协委员潘鲁生说，传承中华优秀传统文化，要坚持创造性转化和创新性发展，不断赋予其新的时代内涵和表达形式。近年来，文艺工作者不断推陈出新，《中国诗词大会》等节目以传统文化为基础和内容，让传统文化活在当下。新华社记者 金良快 摄
     右图：在邢台市隆尧县第三实验小学京剧课堂，戏曲老师指导学生练习京剧表演基本功（20...</v>
       </c>
-      <c r="E152" t="str"/>
-      <c r="F152" t="str">
+      <c r="E156" t="str"/>
+      <c r="F156" t="str">
         <v>新华社发 2022-03-08 20:33:12
                         ID : 101002022030890001859</v>
       </c>
-      <c r="G152" t="str"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
+      <c r="G156" t="str"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
         <v>京剧</v>
       </c>
-      <c r="B153" t="str">
+      <c r="B157" t="str">
         <v>（北京冬奥会）2月12日冬奥头图</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C157" t="str">
         <v>101002022021390000044</v>
       </c>
-      <c r="D153" t="str">
+      <c r="D157" t="str">
         <v>新华社照片，北京，2022年2月12日
     （北京冬奥会）2月12日冬奥头图
     2月12日，在比赛休息间隙场地内上演京剧舞蹈秀。
     当日，在五棵松体育中心举行的北京2022年冬奥会女子冰球四分之一决赛中，芬兰队以7比1战胜日本队。
     新华社记者 李贺 摄</v>
       </c>
-      <c r="E153" t="str"/>
-      <c r="F153" t="str">
+      <c r="E157" t="str"/>
+      <c r="F157" t="str">
         <v>李贺 2022-02-13 00:41:35
                         ID : 101002022021390000044</v>
       </c>
-      <c r="G153" t="str"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
+      <c r="G157" t="str"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
         <v>京剧</v>
       </c>
-      <c r="B154" t="str">
+      <c r="B158" t="str">
         <v>（北京冬奥会）冰球——女子四分之一决赛：芬兰队胜日本队</v>
       </c>
-      <c r="C154" t="str">
+      <c r="C158" t="str">
         <v>101002022021290004437</v>
       </c>
-      <c r="D154" t="str">
+      <c r="D158" t="str">
         <v>新华社照片，北京，2022年2月12日
     （北京冬奥会）冰球——女子四分之一决赛：芬兰队胜日本队
     2月12日，在比赛休息间隙场地内上演京剧舞蹈秀。
     当日，在五棵松体育中心举行的北京2022年冬奥会女子冰球四分之一决赛中，芬兰队以7比1战胜日本队。
     新华社记者 李贺 摄</v>
       </c>
-      <c r="E154" t="str"/>
-      <c r="F154" t="str">
+      <c r="E158" t="str"/>
+      <c r="F158" t="str">
         <v>李贺 2022-02-12 23:15:10
                         ID : 101002022021290004437</v>
       </c>
-      <c r="G154" t="str"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
+      <c r="G158" t="str"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
         <v>京剧</v>
       </c>
-      <c r="B155" t="str">
+      <c r="B159" t="str">
         <v>（北京冬奥会）冰球——女子四分之一决赛：芬兰队胜日本队</v>
       </c>
-      <c r="C155" t="str">
+      <c r="C159" t="str">
         <v>101002022021290004446</v>
       </c>
-      <c r="D155" t="str">
+      <c r="D159" t="str">
         <v>新华社照片，北京，2022年2月12日
     （北京冬奥会）冰球——女子四分之一决赛：芬兰队胜日本队
     2月12日，在比赛休息间隙场地内上演京剧舞蹈秀。
     当日，在五棵松体育中心举行的北京2022年冬奥会女子冰球四分之一决赛中，芬兰队以7比1战胜日本队。
     新华社记者 李贺 摄</v>
       </c>
-      <c r="E155" t="str"/>
-      <c r="F155" t="str">
+      <c r="E159" t="str"/>
+      <c r="F159" t="str">
         <v>李贺 2022-02-12 23:15:10
                         ID : 101002022021290004446</v>
       </c>
-      <c r="G155" t="str"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
+      <c r="G159" t="str"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
         <v>京剧</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B160" t="str">
         <v>（北京冬奥会）冰球——女子四分之一决赛：芬兰队胜日本队</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C160" t="str">
         <v>101002022021290004467</v>
       </c>
-      <c r="D156" t="str">
+      <c r="D160" t="str">
         <v>新华社照片，北京，2022年2月12日
     （北京冬奥会）冰球——女子四分之一决赛：芬兰队胜日本队
     2月12日，在比赛休息间隙场地内上演京剧舞蹈秀。
     当日，在五棵松体育中心举行的北京2022年冬奥会女子冰球四分之一决赛中，芬兰队以7比1战胜日本队。
     新华社记者 李贺 摄</v>
       </c>
-      <c r="E156" t="str"/>
-      <c r="F156" t="str">
+      <c r="E160" t="str"/>
+      <c r="F160" t="str">
         <v>李贺 2022-02-12 23:15:10
                         ID : 101002022021290004467</v>
-      </c>
-      <c r="G156" t="str"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B157" t="str">
-        <v>（文化）（3）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
-      </c>
-      <c r="C157" t="str">
-        <v>101002022012090001596</v>
-      </c>
-      <c r="D157" t="str">
-        <v>新华社照片，北京，2022年1月20日
-    “梅澜芳华——梅兰芳艺术人生展”在国博举行
-    1月20日，观众在参观展览。
-    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
-      </c>
-      <c r="E157" t="str"/>
-      <c r="F157" t="str">
-        <v>金良快 2022-01-20 20:00:14
-                        ID : 101002022012090001596</v>
-      </c>
-      <c r="G157" t="str"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B158" t="str">
-        <v>（文化）（5）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
-      </c>
-      <c r="C158" t="str">
-        <v>101002022012090001594</v>
-      </c>
-      <c r="D158" t="str">
-        <v>新华社照片，北京，2022年1月20日
-    “梅澜芳华——梅兰芳艺术人生展”在国博举行
-    1月20日，观众在参观展览。
-    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
-      </c>
-      <c r="E158" t="str"/>
-      <c r="F158" t="str">
-        <v>金良快 2022-01-20 20:00:14
-                        ID : 101002022012090001594</v>
-      </c>
-      <c r="G158" t="str"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B159" t="str">
-        <v>（文化）（4）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
-      </c>
-      <c r="C159" t="str">
-        <v>101002022012090001595</v>
-      </c>
-      <c r="D159" t="str">
-        <v>新华社照片，北京，2022年1月20日
-    “梅澜芳华——梅兰芳艺术人生展”在国博举行
-    1月20日，观众在参观展览。
-    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
-      </c>
-      <c r="E159" t="str"/>
-      <c r="F159" t="str">
-        <v>金良快 2022-01-20 20:00:14
-                        ID : 101002022012090001595</v>
-      </c>
-      <c r="G159" t="str"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B160" t="str">
-        <v>（文化）（2）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
-      </c>
-      <c r="C160" t="str">
-        <v>101002022012090001597</v>
-      </c>
-      <c r="D160" t="str">
-        <v>新华社照片，北京，2022年1月20日
-    “梅澜芳华——梅兰芳艺术人生展”在国博举行
-    1月20日，观众在参观展览。
-    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
-      </c>
-      <c r="E160" t="str"/>
-      <c r="F160" t="str">
-        <v>金良快 2022-01-20 20:00:14
-                        ID : 101002022012090001597</v>
       </c>
       <c r="G160" t="str"/>
     </row>
@@ -4153,10 +4147,10 @@
         <v>京剧</v>
       </c>
       <c r="B161" t="str">
-        <v>（文化）（1）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
+        <v>（文化）（3）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
       </c>
       <c r="C161" t="str">
-        <v>101002022012090001598</v>
+        <v>101002022012090001596</v>
       </c>
       <c r="D161" t="str">
         <v>新华社照片，北京，2022年1月20日
@@ -4167,7 +4161,7 @@
       <c r="E161" t="str"/>
       <c r="F161" t="str">
         <v>金良快 2022-01-20 20:00:14
-                        ID : 101002022012090001598</v>
+                        ID : 101002022012090001596</v>
       </c>
       <c r="G161" t="str"/>
     </row>
@@ -4176,214 +4170,210 @@
         <v>京剧</v>
       </c>
       <c r="B162" t="str">
+        <v>（文化）（5）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
+      </c>
+      <c r="C162" t="str">
+        <v>101002022012090001594</v>
+      </c>
+      <c r="D162" t="str">
+        <v>新华社照片，北京，2022年1月20日
+    “梅澜芳华——梅兰芳艺术人生展”在国博举行
+    1月20日，观众在参观展览。
+    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
+      </c>
+      <c r="E162" t="str"/>
+      <c r="F162" t="str">
+        <v>金良快 2022-01-20 20:00:14
+                        ID : 101002022012090001594</v>
+      </c>
+      <c r="G162" t="str"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B163" t="str">
+        <v>（文化）（4）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
+      </c>
+      <c r="C163" t="str">
+        <v>101002022012090001595</v>
+      </c>
+      <c r="D163" t="str">
+        <v>新华社照片，北京，2022年1月20日
+    “梅澜芳华——梅兰芳艺术人生展”在国博举行
+    1月20日，观众在参观展览。
+    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
+      </c>
+      <c r="E163" t="str"/>
+      <c r="F163" t="str">
+        <v>金良快 2022-01-20 20:00:14
+                        ID : 101002022012090001595</v>
+      </c>
+      <c r="G163" t="str"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B164" t="str">
+        <v>（文化）（2）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
+      </c>
+      <c r="C164" t="str">
+        <v>101002022012090001597</v>
+      </c>
+      <c r="D164" t="str">
+        <v>新华社照片，北京，2022年1月20日
+    “梅澜芳华——梅兰芳艺术人生展”在国博举行
+    1月20日，观众在参观展览。
+    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
+      </c>
+      <c r="E164" t="str"/>
+      <c r="F164" t="str">
+        <v>金良快 2022-01-20 20:00:14
+                        ID : 101002022012090001597</v>
+      </c>
+      <c r="G164" t="str"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B165" t="str">
+        <v>（文化）（1）“梅澜芳华——梅兰芳艺术人生展”在国博举行</v>
+      </c>
+      <c r="C165" t="str">
+        <v>101002022012090001598</v>
+      </c>
+      <c r="D165" t="str">
+        <v>新华社照片，北京，2022年1月20日
+    “梅澜芳华——梅兰芳艺术人生展”在国博举行
+    1月20日，观众在参观展览。
+    当日，由中国国家博物馆联合梅兰芳纪念馆、江苏泰州市人民政府共同主办的“梅澜芳华——梅兰芳艺术人生展”在北京中国国家博物馆对公众展出。展览共展出实物近400件（套），图片近600张，分为“群英谱京韵”“梅秀出世家”“梅占百花魁”“梅馨缀玉轩”“梅香传万里”“梅骨傲风雪”“梅报万物春”“梅韵展新声”八个单元，展示梅兰芳身处不同历史时期的艺术创造，让广大观众近距离感受一代艺术大师的个...</v>
+      </c>
+      <c r="E165" t="str"/>
+      <c r="F165" t="str">
+        <v>金良快 2022-01-20 20:00:14
+                        ID : 101002022012090001598</v>
+      </c>
+      <c r="G165" t="str"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B166" t="str">
+        <v>（文化）（5）“剧”中经典合唱音乐会在京上演</v>
+      </c>
+      <c r="C166" t="str">
+        <v>101002021121890001416</v>
+      </c>
+      <c r="D166" t="str">
+        <v>新华社照片，北京，2021年12月18日
+    “剧”中经典合唱音乐会在京上演
+    12月18日拍摄的音乐会现场。
+    当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
+    新华社记者 金良快 摄</v>
+      </c>
+      <c r="E166" t="str"/>
+      <c r="F166" t="str">
+        <v>金良快 2021-12-18 20:56:27
+                        ID : 101002021121890001416</v>
+      </c>
+      <c r="G166" t="str"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B167" t="str">
         <v>（文化）（1）“剧”中经典合唱音乐会在京上演</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C167" t="str">
         <v>101002021121890001420</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D167" t="str">
         <v>新华社照片，北京，2021年12月18日
     “剧”中经典合唱音乐会在京上演
     12月18日，中国交响乐团合唱团在音乐会上演唱。
     当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
     新华社记者 金良快 摄</v>
       </c>
-      <c r="E162" t="str"/>
-      <c r="F162" t="str">
+      <c r="E167" t="str"/>
+      <c r="F167" t="str">
         <v>金良快 2021-12-18 20:56:27
                         ID : 101002021121890001420</v>
       </c>
-      <c r="G162" t="str"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
+      <c r="G167" t="str"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
         <v>京剧</v>
       </c>
-      <c r="B163" t="str">
-        <v>（文化）（5）“剧”中经典合唱音乐会在京上演</v>
-      </c>
-      <c r="C163" t="str">
-        <v>101002021121890001416</v>
-      </c>
-      <c r="D163" t="str">
+      <c r="B168" t="str">
+        <v>（文化）（4）“剧”中经典合唱音乐会在京上演</v>
+      </c>
+      <c r="C168" t="str">
+        <v>101002021121890001417</v>
+      </c>
+      <c r="D168" t="str">
+        <v>新华社照片，北京，2021年12月18日
+    “剧”中经典合唱音乐会在京上演
+    12月18日，贾林林在音乐会上演奏钢琴。
+    当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
+    新华社记者 金良快 摄</v>
+      </c>
+      <c r="E168" t="str"/>
+      <c r="F168" t="str">
+        <v>金良快 2021-12-18 20:56:27
+                        ID : 101002021121890001417</v>
+      </c>
+      <c r="G168" t="str"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B169" t="str">
+        <v>（文化）（3）“剧”中经典合唱音乐会在京上演</v>
+      </c>
+      <c r="C169" t="str">
+        <v>101002021121890001418</v>
+      </c>
+      <c r="D169" t="str">
         <v>新华社照片，北京，2021年12月18日
     “剧”中经典合唱音乐会在京上演
     12月18日拍摄的音乐会现场。
     当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
     新华社记者 金良快 摄</v>
       </c>
-      <c r="E163" t="str"/>
-      <c r="F163" t="str">
-        <v>金良快 2021-12-18 20:56:27
-                        ID : 101002021121890001416</v>
-      </c>
-      <c r="G163" t="str"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B164" t="str">
-        <v>（文化）（4）“剧”中经典合唱音乐会在京上演</v>
-      </c>
-      <c r="C164" t="str">
-        <v>101002021121890001417</v>
-      </c>
-      <c r="D164" t="str">
-        <v>新华社照片，北京，2021年12月18日
-    “剧”中经典合唱音乐会在京上演
-    12月18日，贾林林在音乐会上演奏钢琴。
-    当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
-    新华社记者 金良快 摄</v>
-      </c>
-      <c r="E164" t="str"/>
-      <c r="F164" t="str">
-        <v>金良快 2021-12-18 20:56:27
-                        ID : 101002021121890001417</v>
-      </c>
-      <c r="G164" t="str"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B165" t="str">
-        <v>（文化）（3）“剧”中经典合唱音乐会在京上演</v>
-      </c>
-      <c r="C165" t="str">
-        <v>101002021121890001418</v>
-      </c>
-      <c r="D165" t="str">
-        <v>新华社照片，北京，2021年12月18日
-    “剧”中经典合唱音乐会在京上演
-    12月18日拍摄的音乐会现场。
-    当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
-    新华社记者 金良快 摄</v>
-      </c>
-      <c r="E165" t="str"/>
-      <c r="F165" t="str">
+      <c r="E169" t="str"/>
+      <c r="F169" t="str">
         <v>金良快 2021-12-18 20:56:27
                         ID : 101002021121890001418</v>
       </c>
-      <c r="G165" t="str"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
+      <c r="G169" t="str"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
         <v>京剧</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B170" t="str">
         <v>（文化）（2）“剧”中经典合唱音乐会在京上演</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C170" t="str">
         <v>101002021121890001419</v>
       </c>
-      <c r="D166" t="str">
+      <c r="D170" t="str">
         <v>新华社照片，北京，2021年12月18日
     “剧”中经典合唱音乐会在京上演
     12月18日，指挥王军在音乐会上指挥。
     当日，“剧”中经典合唱音乐会在北京音乐厅上演，中国交响乐团合唱团演唱了音乐剧《剧院魅影》选曲、京剧《霸王别姬》选段等经典曲目。
     新华社记者 金良快 摄</v>
       </c>
-      <c r="E166" t="str"/>
-      <c r="F166" t="str">
+      <c r="E170" t="str"/>
+      <c r="F170" t="str">
         <v>金良快 2021-12-18 20:56:27
                         ID : 101002021121890001419</v>
-      </c>
-      <c r="G166" t="str"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B167" t="str">
-        <v>（文化）（2）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
-      </c>
-      <c r="C167" t="str">
-        <v>101002021121790002125</v>
-      </c>
-      <c r="D167" t="str">
-        <v>新华社照片，西昌（四川），2021年12月17日
-    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
-    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
-    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
-    新华社记者 沈伯韩 摄</v>
-      </c>
-      <c r="E167" t="str"/>
-      <c r="F167" t="str">
-        <v>沈伯韩 2021-12-17 22:38:01
-                        ID : 101002021121790002125</v>
-      </c>
-      <c r="G167" t="str"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B168" t="str">
-        <v>（文化）（1）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
-      </c>
-      <c r="C168" t="str">
-        <v>101002021121790002124</v>
-      </c>
-      <c r="D168" t="str">
-        <v>新华社照片，西昌（四川），2021年12月17日
-    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
-    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
-    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
-    新华社记者 沈伯韩 摄</v>
-      </c>
-      <c r="E168" t="str"/>
-      <c r="F168" t="str">
-        <v>沈伯韩 2021-12-17 22:38:01
-                        ID : 101002021121790002124</v>
-      </c>
-      <c r="G168" t="str"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B169" t="str">
-        <v>（文化）（4）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
-      </c>
-      <c r="C169" t="str">
-        <v>101002021121790002131</v>
-      </c>
-      <c r="D169" t="str">
-        <v>新华社照片，西昌（四川），2021年12月17日
-    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
-    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
-    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
-    新华社记者 沈伯韩 摄</v>
-      </c>
-      <c r="E169" t="str"/>
-      <c r="F169" t="str">
-        <v>沈伯韩 2021-12-17 22:38:01
-                        ID : 101002021121790002131</v>
-      </c>
-      <c r="G169" t="str"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B170" t="str">
-        <v>（文化）（3）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
-      </c>
-      <c r="C170" t="str">
-        <v>101002021121790002129</v>
-      </c>
-      <c r="D170" t="str">
-        <v>新华社照片，西昌（四川），2021年12月17日
-    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
-    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
-    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
-    新华社记者 沈伯韩 摄</v>
-      </c>
-      <c r="E170" t="str"/>
-      <c r="F170" t="str">
-        <v>沈伯韩 2021-12-17 22:38:01
-                        ID : 101002021121790002129</v>
       </c>
       <c r="G170" t="str"/>
     </row>
@@ -4392,10 +4382,10 @@
         <v>京剧</v>
       </c>
       <c r="B171" t="str">
-        <v>（文化）（5）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
+        <v>（文化）（2）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
       </c>
       <c r="C171" t="str">
-        <v>101002021121790002134</v>
+        <v>101002021121790002125</v>
       </c>
       <c r="D171" t="str">
         <v>新华社照片，西昌（四川），2021年12月17日
@@ -4407,7 +4397,7 @@
       <c r="E171" t="str"/>
       <c r="F171" t="str">
         <v>沈伯韩 2021-12-17 22:38:01
-                        ID : 101002021121790002134</v>
+                        ID : 101002021121790002125</v>
       </c>
       <c r="G171" t="str"/>
     </row>
@@ -4416,707 +4406,3139 @@
         <v>京剧</v>
       </c>
       <c r="B172" t="str">
+        <v>（文化）（1）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
+      </c>
+      <c r="C172" t="str">
+        <v>101002021121790002124</v>
+      </c>
+      <c r="D172" t="str">
+        <v>新华社照片，西昌（四川），2021年12月17日
+    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
+    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
+    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
+    新华社记者 沈伯韩 摄</v>
+      </c>
+      <c r="E172" t="str"/>
+      <c r="F172" t="str">
+        <v>沈伯韩 2021-12-17 22:38:01
+                        ID : 101002021121790002124</v>
+      </c>
+      <c r="G172" t="str"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B173" t="str">
+        <v>（文化）（4）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
+      </c>
+      <c r="C173" t="str">
+        <v>101002021121790002131</v>
+      </c>
+      <c r="D173" t="str">
+        <v>新华社照片，西昌（四川），2021年12月17日
+    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
+    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
+    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
+    新华社记者 沈伯韩 摄</v>
+      </c>
+      <c r="E173" t="str"/>
+      <c r="F173" t="str">
+        <v>沈伯韩 2021-12-17 22:38:01
+                        ID : 101002021121790002131</v>
+      </c>
+      <c r="G173" t="str"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B174" t="str">
+        <v>（文化）（3）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
+      </c>
+      <c r="C174" t="str">
+        <v>101002021121790002129</v>
+      </c>
+      <c r="D174" t="str">
+        <v>新华社照片，西昌（四川），2021年12月17日
+    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
+    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
+    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
+    新华社记者 沈伯韩 摄</v>
+      </c>
+      <c r="E174" t="str"/>
+      <c r="F174" t="str">
+        <v>沈伯韩 2021-12-17 22:38:01
+                        ID : 101002021121790002129</v>
+      </c>
+      <c r="G174" t="str"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B175" t="str">
+        <v>（文化）（5）话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”</v>
+      </c>
+      <c r="C175" t="str">
+        <v>101002021121790002134</v>
+      </c>
+      <c r="D175" t="str">
+        <v>新华社照片，西昌（四川），2021年12月17日
+    话剧《蜀中唐门》亮相2021“中国·西昌第三届大凉山国际戏剧节”
+    12月17日，在西昌市邛海剧场，成都市京剧研究院的演员在表演话剧《蜀中唐门》。
+    当日，2021“中国·西昌第三届大凉山国际戏剧节”在四川省凉山彝族自治州西昌市拉开帷幕。话剧《蜀中唐门》亮相戏剧节，这也是该剧在国内的首次演出。
+    新华社记者 沈伯韩 摄</v>
+      </c>
+      <c r="E175" t="str"/>
+      <c r="F175" t="str">
+        <v>沈伯韩 2021-12-17 22:38:01
+                        ID : 101002021121790002134</v>
+      </c>
+      <c r="G175" t="str"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B176" t="str">
         <v>（文化）（5）扛大刀、担大戏——青年演员“武动”梨园</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C176" t="str">
         <v>101002021121390001872</v>
       </c>
-      <c r="D172" t="str">
+      <c r="D176" t="str">
         <v>新华社照片，北京，2021年12月13日
     扛大刀、担大戏——青年演员“武动”梨园
     12月13日，饰演王五的演员詹磊在排演中。
     当日，新编京剧《大刀王五》剧组在北京京剧院举办剧目联排暨首演新闻发布会。主创人员完整排演了该剧，获得观演人员的一致好评。该剧主演均为各行当的青年武戏演员，不仅汇聚了北京京剧院青年武戏人才，还有7位中国戏曲学院在读学生参...</v>
       </c>
-      <c r="E172" t="str"/>
-      <c r="F172" t="str">
+      <c r="E176" t="str"/>
+      <c r="F176" t="str">
         <v>陈钟昊 2021-12-13 20:23:00
                         ID : 101002021121390001872</v>
       </c>
-      <c r="G172" t="str"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="str">
+      <c r="G176" t="str"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
         <v>京剧</v>
       </c>
-      <c r="B173" t="str">
+      <c r="B177" t="str">
         <v>（文化）（1）扛大刀、担大戏——青年演员“武动”梨园</v>
       </c>
-      <c r="C173" t="str">
+      <c r="C177" t="str">
         <v>101002021121390001875</v>
       </c>
-      <c r="D173" t="str">
+      <c r="D177" t="str">
         <v>新华社照片，北京，2021年12月13日
     扛大刀、担大戏——青年演员“武动”梨园
     12月13日，青年演员们在排演中。
     当日，新编京剧《大刀王五》剧组在北京京剧院举办剧目联排暨首演新闻发布会。主创人员完整排演了该剧，获得观演人员的一致好评。该剧主演均为各行当的青年武戏演员，不仅汇聚了北京京剧院青年武戏人才，还有7位中国戏曲学院在读学生参演。经过...</v>
       </c>
-      <c r="E173" t="str"/>
-      <c r="F173" t="str">
+      <c r="E177" t="str"/>
+      <c r="F177" t="str">
         <v>陈钟昊 2021-12-13 20:23:00
                         ID : 101002021121390001875</v>
       </c>
-      <c r="G173" t="str"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="str">
+      <c r="G177" t="str"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
         <v>京剧</v>
       </c>
-      <c r="B174" t="str">
+      <c r="B178" t="str">
         <v>（文化）（3）扛大刀、担大戏——青年演员“武动”梨园</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C178" t="str">
         <v>101002021121390001876</v>
       </c>
-      <c r="D174" t="str">
+      <c r="D178" t="str">
         <v>新华社照片，北京，2021年12月13日
     扛大刀、担大戏——青年演员“武动”梨园
     这是12月13日拍摄的《大刀王五》排演现场。
     当日，新编京剧《大刀王五》剧组在北京京剧院举办剧目联排暨首演新闻发布会。主创人员完整排演了该剧，获得观演人员的一致好评。该剧主演均为各行当的青年武戏演员，不仅汇聚了北京京剧院青年武戏人才，还有7位中国戏曲学院在读学生...</v>
       </c>
-      <c r="E174" t="str"/>
-      <c r="F174" t="str">
+      <c r="E178" t="str"/>
+      <c r="F178" t="str">
         <v>陈钟昊 2021-12-13 20:23:00
                         ID : 101002021121390001876</v>
       </c>
-      <c r="G174" t="str"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="str">
+      <c r="G178" t="str"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
         <v>京剧</v>
       </c>
-      <c r="B175" t="str">
+      <c r="B179" t="str">
         <v>（文化）（4）扛大刀、担大戏——青年演员“武动”梨园</v>
       </c>
-      <c r="C175" t="str">
+      <c r="C179" t="str">
         <v>101002021121390001877</v>
       </c>
-      <c r="D175" t="str">
+      <c r="D179" t="str">
         <v>新华社照片，北京，2021年12月13日
     扛大刀、担大戏——青年演员“武动”梨园
     12月13日，青年演员们在排演中。
     当日，新编京剧《大刀王五》剧组在北京京剧院举办剧目联排暨首演新闻发布会。主创人员完整排演了该剧，获得观演人员的一致好评。该剧主演均为各行当的青年武戏演员，不仅汇聚了北京京剧院青年武戏人才，还有7位中国戏曲学院在读学生参演。经过...</v>
       </c>
-      <c r="E175" t="str"/>
-      <c r="F175" t="str">
+      <c r="E179" t="str"/>
+      <c r="F179" t="str">
         <v>陈钟昊 2021-12-13 20:23:00
                         ID : 101002021121390001877</v>
       </c>
-      <c r="G175" t="str"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="str">
+      <c r="G179" t="str"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
         <v>京剧</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B180" t="str">
         <v>（文化）（6）扛大刀、担大戏——青年演员“武动”梨园</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C180" t="str">
         <v>101002021121390001867</v>
       </c>
-      <c r="D176" t="str">
+      <c r="D180" t="str">
         <v>新华社照片，北京，2021年12月13日
     扛大刀、担大戏——青年演员“武动”梨园
     12月13日，饰演窜天猴的演员曹阳阳在排演中。
     当日，新编京剧《大刀王五》剧组在北京京剧院举办剧目联排暨首演新闻发布会。主创人员完整排演了该剧，获得观演人员的一致好评。该剧主演均为各行当的青年武戏演员，不仅汇聚了北京京剧院青年武戏人才，还有7位中国戏曲学院在读学...</v>
       </c>
-      <c r="E176" t="str"/>
-      <c r="F176" t="str">
+      <c r="E180" t="str"/>
+      <c r="F180" t="str">
         <v>陈钟昊 2021-12-13 20:23:00
                         ID : 101002021121390001867</v>
       </c>
-      <c r="G176" t="str"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
+      <c r="G180" t="str"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
         <v>京剧</v>
       </c>
-      <c r="B177" t="str">
+      <c r="B181" t="str">
         <v>（文化）（2）扛大刀、担大戏——青年演员“武动”梨园</v>
       </c>
-      <c r="C177" t="str">
+      <c r="C181" t="str">
         <v>101002021121390001870</v>
       </c>
-      <c r="D177" t="str">
+      <c r="D181" t="str">
         <v>新华社照片，北京，2021年12月13日
     扛大刀、担大戏——青年演员“武动”梨园
     这是12月13日拍摄的《大刀王五》排演现场。
     当日，新编京剧《大刀王五》剧组在北京京剧院举办剧目联排暨首演新闻发布会。主创人员完整排演了该剧，获得观演人员的一致好评。该剧主演均为各行当的青年武戏演员，不仅汇聚了北京京剧院青年武戏人才，还有7位中国戏曲学院在读学生...</v>
       </c>
-      <c r="E177" t="str"/>
-      <c r="F177" t="str">
+      <c r="E181" t="str"/>
+      <c r="F181" t="str">
         <v>陈钟昊 2021-12-13 20:23:00
                         ID : 101002021121390001870</v>
       </c>
-      <c r="G177" t="str"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
+      <c r="G181" t="str"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
         <v>京剧</v>
       </c>
-      <c r="B178" t="str">
+      <c r="B182" t="str">
         <v>（图文互动）（2）当科技遇上中国国粹，京剧大师梅兰芳再现舞台</v>
       </c>
-      <c r="C178" t="str">
+      <c r="C182" t="str">
         <v>101002021111890000632</v>
       </c>
-      <c r="D178" t="str">
+      <c r="D182" t="str">
         <v>新华社照片，北京，2021年11月18日
     当科技遇上中国国粹，京剧大师梅兰芳再现舞台
     在北京理工大学光电学院VR实验室拍摄的光场采集系统（11月9日摄）。
     （配本社同题文字稿）
     新华社记者 任超 摄</v>
       </c>
-      <c r="E178" t="str"/>
-      <c r="F178" t="str">
+      <c r="E182" t="str"/>
+      <c r="F182" t="str">
         <v>任超 2021-11-18 14:26:13
                         ID : 101002021111890000632</v>
       </c>
-      <c r="G178" t="str"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
+      <c r="G182" t="str"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
         <v>京剧</v>
       </c>
-      <c r="B179" t="str">
+      <c r="B183" t="str">
         <v>（图文互动）（1）当科技遇上中国国粹，京剧大师梅兰芳再现舞台</v>
       </c>
-      <c r="C179" t="str">
+      <c r="C183" t="str">
         <v>101002021111890000628</v>
       </c>
-      <c r="D179" t="str">
+      <c r="D183" t="str">
         <v>新华社照片，北京，2021年11月18日
     当科技遇上中国国粹，京剧大师梅兰芳再现舞台
     在北京理工大学光电学院VR实验室，科研人员在光场采集系统里采集人脸数据（11月9日摄）。
     （配本社同题文字稿）
     新华社记者 任超 摄</v>
       </c>
-      <c r="E179" t="str"/>
-      <c r="F179" t="str">
+      <c r="E183" t="str"/>
+      <c r="F183" t="str">
         <v>任超 2021-11-18 14:26:13
                         ID : 101002021111890000628</v>
       </c>
-      <c r="G179" t="str"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
+      <c r="G183" t="str"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
         <v>京剧</v>
       </c>
-      <c r="B180" t="str">
+      <c r="B184" t="str">
         <v>（图文互动）（3）当科技遇上中国国粹，京剧大师梅兰芳再现舞台</v>
       </c>
-      <c r="C180" t="str">
+      <c r="C184" t="str">
         <v>101002021111890000629</v>
       </c>
-      <c r="D180" t="str">
+      <c r="D184" t="str">
         <v>新华社照片，北京，2021年11月18日
     当科技遇上中国国粹，京剧大师梅兰芳再现舞台
     “数字梅兰芳”静态数字模型（左侧）与梅兰芳先生照片对比。
     （配本社同题文字稿）
     新华社发</v>
       </c>
-      <c r="E180" t="str"/>
-      <c r="F180" t="str">
+      <c r="E184" t="str"/>
+      <c r="F184" t="str">
         <v>任超 2021-11-18 14:26:13
                         ID : 101002021111890000629</v>
       </c>
-      <c r="G180" t="str"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="str">
+      <c r="G184" t="str"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
         <v>京剧</v>
       </c>
-      <c r="B181" t="str">
+      <c r="B185" t="str">
+        <v>#（社会）（3）浙江景宁：学唱戏曲  乐享晚年</v>
+      </c>
+      <c r="C185" t="str">
+        <v>101002021110190001479</v>
+      </c>
+      <c r="D185" t="str">
+        <v>新华社照片，景宁（浙江），2021年11月1日
+    浙江景宁：学唱戏曲  乐享晚年
+    11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员学唱戏曲。
+    近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
+    新华社发（李肃人 摄）</v>
+      </c>
+      <c r="E185" t="str"/>
+      <c r="F185" t="str">
+        <v>李肃人 2021-11-01 20:39:02
+                        ID : 101002021110190001479</v>
+      </c>
+      <c r="G185" t="str"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B186" t="str">
+        <v>#（社会）（4）浙江景宁：学唱戏曲  乐享晚年</v>
+      </c>
+      <c r="C186" t="str">
+        <v>101002021110190001478</v>
+      </c>
+      <c r="D186" t="str">
+        <v>新华社照片，景宁（浙江），2021年11月1日
+    浙江景宁：学唱戏曲  乐享晚年
+    11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员在课后交流。
+    近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
+    新华社发（李肃人 摄）</v>
+      </c>
+      <c r="E186" t="str"/>
+      <c r="F186" t="str">
+        <v>李肃人 2021-11-01 20:39:02
+                        ID : 101002021110190001478</v>
+      </c>
+      <c r="G186" t="str"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B187" t="str">
         <v>#（社会）（5）浙江景宁：学唱戏曲  乐享晚年</v>
       </c>
-      <c r="C181" t="str">
+      <c r="C187" t="str">
         <v>101002021110190001476</v>
       </c>
-      <c r="D181" t="str">
+      <c r="D187" t="str">
         <v>新华社照片，景宁（浙江），2021年11月1日
     浙江景宁：学唱戏曲  乐享晚年
     11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员在互动交流。
     近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
     新华社发（李肃人 摄）</v>
       </c>
-      <c r="E181" t="str"/>
-      <c r="F181" t="str">
+      <c r="E187" t="str"/>
+      <c r="F187" t="str">
         <v>李肃人 2021-11-01 20:39:02
                         ID : 101002021110190001476</v>
       </c>
-      <c r="G181" t="str"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="str">
+      <c r="G187" t="str"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
         <v>京剧</v>
       </c>
-      <c r="B182" t="str">
-        <v>#（社会）（4）浙江景宁：学唱戏曲  乐享晚年</v>
-      </c>
-      <c r="C182" t="str">
-        <v>101002021110190001478</v>
-      </c>
-      <c r="D182" t="str">
-        <v>新华社照片，景宁（浙江），2021年11月1日
-    浙江景宁：学唱戏曲  乐享晚年
-    11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员在课后交流。
-    近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
-    新华社发（李肃人 摄）</v>
-      </c>
-      <c r="E182" t="str"/>
-      <c r="F182" t="str">
-        <v>李肃人 2021-11-01 20:39:02
-                        ID : 101002021110190001478</v>
-      </c>
-      <c r="G182" t="str"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B183" t="str">
-        <v>#（社会）（3）浙江景宁：学唱戏曲  乐享晚年</v>
-      </c>
-      <c r="C183" t="str">
-        <v>101002021110190001479</v>
-      </c>
-      <c r="D183" t="str">
-        <v>新华社照片，景宁（浙江），2021年11月1日
-    浙江景宁：学唱戏曲  乐享晚年
-    11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员学唱戏曲。
-    近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
-    新华社发（李肃人 摄）</v>
-      </c>
-      <c r="E183" t="str"/>
-      <c r="F183" t="str">
-        <v>李肃人 2021-11-01 20:39:02
-                        ID : 101002021110190001479</v>
-      </c>
-      <c r="G183" t="str"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B184" t="str">
+      <c r="B188" t="str">
         <v>#（社会）（1）浙江景宁：学唱戏曲  乐享晚年</v>
       </c>
-      <c r="C184" t="str">
+      <c r="C188" t="str">
         <v>101002021110190001482</v>
       </c>
-      <c r="D184" t="str">
+      <c r="D188" t="str">
         <v>新华社照片，景宁（浙江），2021年11月1日
     浙江景宁：学唱戏曲  乐享晚年
     11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员在互动交流。
     近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
     新华社发（李肃人 摄）</v>
       </c>
-      <c r="E184" t="str"/>
-      <c r="F184" t="str">
+      <c r="E188" t="str"/>
+      <c r="F188" t="str">
         <v>李肃人 2021-11-01 20:39:02
                         ID : 101002021110190001482</v>
       </c>
-      <c r="G184" t="str"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="str">
+      <c r="G188" t="str"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
         <v>京剧</v>
       </c>
-      <c r="B185" t="str">
+      <c r="B189" t="str">
         <v>#（社会）（2）浙江景宁：学唱戏曲  乐享晚年</v>
       </c>
-      <c r="C185" t="str">
+      <c r="C189" t="str">
         <v>101002021110190001481</v>
       </c>
-      <c r="D185" t="str">
+      <c r="D189" t="str">
         <v>新华社照片，景宁（浙江），2021年11月1日
     浙江景宁：学唱戏曲  乐享晚年
     11月1日，景宁畲族自治县老干部服务中心，老年大学戏曲班的学员在课间交流。
     近年来，浙江省丽水市景宁畲族自治县通过老年大学、社区开展形式多样的老年文化活动，老年人选择学唱越剧、京剧、黄梅戏等传统戏曲丰富精神文化生活，安享幸福晚年。
     新华社发（李肃人 摄）</v>
       </c>
-      <c r="E185" t="str"/>
-      <c r="F185" t="str">
+      <c r="E189" t="str"/>
+      <c r="F189" t="str">
         <v>李肃人 2021-11-01 20:39:02
                         ID : 101002021110190001481</v>
       </c>
-      <c r="G185" t="str"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="str">
+      <c r="G189" t="str"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
         <v>京剧</v>
       </c>
-      <c r="B186" t="str">
+      <c r="B190" t="str">
         <v>（图文互动）（1）江苏戏曲亮相澳门</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C190" t="str">
         <v>101002021102690001408</v>
       </c>
-      <c r="D186" t="str">
+      <c r="D190" t="str">
         <v>新华社照片，澳门，2021年10月26日
     江苏戏曲亮相澳门
     10月26日，演员在澳门永乐大戏院表演京剧《红娘》。
     （配本社同题文字稿）
     新华社记者 张金加 摄</v>
       </c>
-      <c r="E186" t="str"/>
-      <c r="F186" t="str">
+      <c r="E190" t="str"/>
+      <c r="F190" t="str">
         <v>张金加 2021-10-26 21:32:55
                         ID : 101002021102690001408</v>
       </c>
-      <c r="G186" t="str"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="str">
+      <c r="G190" t="str"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
         <v>京剧</v>
       </c>
-      <c r="B187" t="str">
+      <c r="B191" t="str">
         <v>（文化）（2）中非青年体验中国传统文化</v>
       </c>
-      <c r="C187" t="str">
+      <c r="C191" t="str">
         <v>101002021101990001244</v>
       </c>
-      <c r="D187" t="str">
+      <c r="D191" t="str">
         <v>新华社照片，北京，2021年10月19日
     中非青年体验中国传统文化
     10月19日，来自塞拉利昂的玛利亚（左一）体验刺绣。
     当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自44个非洲国家的45名非洲在京...</v>
       </c>
-      <c r="E187" t="str"/>
-      <c r="F187" t="str">
+      <c r="E191" t="str"/>
+      <c r="F191" t="str">
         <v>金良快 2021-10-19 19:36:54
                         ID : 101002021101990001244</v>
       </c>
-      <c r="G187" t="str"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="str">
+      <c r="G191" t="str"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
         <v>京剧</v>
       </c>
-      <c r="B188" t="str">
+      <c r="B192" t="str">
         <v>（文化）（5）中非青年体验中国传统文化</v>
       </c>
-      <c r="C188" t="str">
+      <c r="C192" t="str">
         <v>101002021101990001247</v>
       </c>
-      <c r="D188" t="str">
+      <c r="D192" t="str">
         <v>新华社照片，北京，2021年10月19日
     中非青年体验中国传统文化
     10月19日，几名青年体验印染工艺。
     当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自44个非洲国家的45名非洲在京青年留学生和青年...</v>
       </c>
-      <c r="E188" t="str"/>
-      <c r="F188" t="str">
+      <c r="E192" t="str"/>
+      <c r="F192" t="str">
         <v>金良快 2021-10-19 19:36:54
                         ID : 101002021101990001247</v>
       </c>
-      <c r="G188" t="str"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="str">
+      <c r="G192" t="str"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
         <v>京剧</v>
       </c>
-      <c r="B189" t="str">
+      <c r="B193" t="str">
+        <v>（文化）（3）中非青年体验中国传统文化</v>
+      </c>
+      <c r="C193" t="str">
+        <v>101002021101990001245</v>
+      </c>
+      <c r="D193" t="str">
+        <v>新华社照片，北京，2021年10月19日
+    中非青年体验中国传统文化
+    10月19日，一名非洲青年体验艾灸。
+    当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自44个非洲国家的45名非洲在京青年留学生和青年...</v>
+      </c>
+      <c r="E193" t="str"/>
+      <c r="F193" t="str">
+        <v>金良快 2021-10-19 19:36:54
+                        ID : 101002021101990001245</v>
+      </c>
+      <c r="G193" t="str"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>京剧</v>
+      </c>
+      <c r="B194" t="str">
         <v>（文化）（4）中非青年体验中国传统文化</v>
       </c>
-      <c r="C189" t="str">
+      <c r="C194" t="str">
         <v>101002021101990001246</v>
       </c>
-      <c r="D189" t="str">
+      <c r="D194" t="str">
         <v>新华社照片，北京，2021年10月19日
     中非青年体验中国传统文化
     10月19日，中非青年体验针灸。
     当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自44个非洲国家的45名非洲在京青年留学生和青年代表...</v>
       </c>
-      <c r="E189" t="str"/>
-      <c r="F189" t="str">
+      <c r="E194" t="str"/>
+      <c r="F194" t="str">
         <v>金良快 2021-10-19 19:36:54
                         ID : 101002021101990001246</v>
       </c>
-      <c r="G189" t="str"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="str">
+      <c r="G194" t="str"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
         <v>京剧</v>
       </c>
-      <c r="B190" t="str">
-        <v>（文化）（3）中非青年体验中国传统文化</v>
-      </c>
-      <c r="C190" t="str">
-        <v>101002021101990001245</v>
-      </c>
-      <c r="D190" t="str">
-        <v>新华社照片，北京，2021年10月19日
-    中非青年体验中国传统文化
-    10月19日，一名非洲青年体验艾灸。
-    当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自44个非洲国家的45名非洲在京青年留学生和青年...</v>
-      </c>
-      <c r="E190" t="str"/>
-      <c r="F190" t="str">
-        <v>金良快 2021-10-19 19:36:54
-                        ID : 101002021101990001245</v>
-      </c>
-      <c r="G190" t="str"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B191" t="str">
+      <c r="B195" t="str">
         <v>（文化）（7）中非青年体验中国传统文化</v>
       </c>
-      <c r="C191" t="str">
+      <c r="C195" t="str">
         <v>101002021101990001249</v>
       </c>
-      <c r="D191" t="str">
+      <c r="D195" t="str">
         <v>新华社照片，北京，2021年10月19日
     中非青年体验中国传统文化
     10月19日，中非青年体验京剧。
     当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自...</v>
       </c>
-      <c r="E191" t="str"/>
-      <c r="F191" t="str">
+      <c r="E195" t="str"/>
+      <c r="F195" t="str">
         <v>金良快 2021-10-19 19:36:54
                         ID : 101002021101990001249</v>
       </c>
-      <c r="G191" t="str"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="str">
+      <c r="G195" t="str"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
         <v>京剧</v>
       </c>
-      <c r="B192" t="str">
+      <c r="B196" t="str">
         <v>（文化）（6）中非青年体验中国传统文化</v>
       </c>
-      <c r="C192" t="str">
+      <c r="C196" t="str">
         <v>101002021101990001248</v>
       </c>
-      <c r="D192" t="str">
+      <c r="D196" t="str">
         <v>新华社照片，北京，2021年10月19日
     中非青年体验中国传统文化
     10月19日，非洲青年学习京剧身段。
     当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请...</v>
       </c>
-      <c r="E192" t="str"/>
-      <c r="F192" t="str">
+      <c r="E196" t="str"/>
+      <c r="F196" t="str">
         <v>金良快 2021-10-19 19:36:54
                         ID : 101002021101990001248</v>
       </c>
-      <c r="G192" t="str"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="str">
+      <c r="G196" t="str"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
         <v>京剧</v>
       </c>
-      <c r="B193" t="str">
+      <c r="B197" t="str">
         <v>（文化）（1）中非青年体验中国传统文化</v>
       </c>
-      <c r="C193" t="str">
+      <c r="C197" t="str">
         <v>101002021101990001250</v>
       </c>
-      <c r="D193" t="str">
+      <c r="D197" t="str">
         <v>新华社照片，北京，2021年10月19日
     中非青年体验中国传统文化
     10月19日，中非青年体验木工。
     当日，参加第六届中非青年大联欢的青年在北京中国宋庆龄青少年科技文化交流中心参加京剧、中医、雅乐、刺绣、印染等中国传统文化体验活动，在体验中更深入地了解中国文化，在互动交流中加深了解和友谊。第六届中非青年大联欢以“回望中共百年光辉历程，凝聚青春智慧担当，共创中非共同发展新篇章”为主题，邀请来自44个非洲国家的45名非洲在京青年留学生和青年代表...</v>
       </c>
-      <c r="E193" t="str"/>
-      <c r="F193" t="str">
+      <c r="E197" t="str"/>
+      <c r="F197" t="str">
         <v>金良快 2021-10-19 19:36:54
                         ID : 101002021101990001250</v>
       </c>
-      <c r="G193" t="str"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="str">
+      <c r="G197" t="str"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
         <v>京剧</v>
       </c>
-      <c r="B194" t="str">
+      <c r="B198" t="str">
         <v>#（社会）（5）山东即墨：新时代文明实践站  服务群众“零距离”</v>
       </c>
-      <c r="C194" t="str">
+      <c r="C198" t="str">
         <v>101002021101490001655</v>
       </c>
-      <c r="D194" t="str">
+      <c r="D198" t="str">
         <v>新华社照片，青岛（山东），2021年10月14日
     山东即墨：新时代文明实践站  服务群众“零距离”
     10月14日，居民在青岛市即墨区潮海街道古城社区新时代文明实践站里表演京剧《红灯记》选段。
     近年来，山东省青岛市即墨区积极探索新时代文明实践工作新路径，根据群众需求和喜好，组织非遗传承人、文艺志愿者等在社区和村庄新时代文明实践站开设戏曲、书画、舞蹈、乐器等免费课程，让实践站成为服务群众、满足群众精神文化生活的新平台。
     新华社发（梁孝鹏...</v>
       </c>
-      <c r="E194" t="str"/>
-      <c r="F194" t="str">
+      <c r="E198" t="str"/>
+      <c r="F198" t="str">
         <v>梁孝鹏 2021-10-14 19:53:30
                         ID : 101002021101490001655</v>
       </c>
-      <c r="G194" t="str"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="str">
+      <c r="G198" t="str"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
         <v>京剧</v>
       </c>
-      <c r="B195" t="str">
+      <c r="B199" t="str">
         <v>（文化）（6）第十七届中国戏剧节武汉开幕</v>
       </c>
-      <c r="C195" t="str">
+      <c r="C199" t="str">
         <v>101002021101090000421</v>
       </c>
-      <c r="D195" t="str">
+      <c r="D199" t="str">
         <v>新华社照片，武汉，2021年10月10日
     第十七届中国戏剧节武汉开幕
     这是10月9日在武汉琴台大剧院拍摄的京剧《母亲》剧照。
     10月9日晚，主题为“戏聚英雄城，礼赞新时代”的第十七届中国戏剧节在湖北武汉正式启幕。
     据介绍，本届戏剧节将持续至10月28日，其间来自全国各地的31台优秀剧目将接连登场，涵盖京剧、昆剧、评剧、豫剧、越剧、黄梅戏、婺剧、高甲戏、花鼓戏等14个戏曲剧种以及话剧、...</v>
       </c>
-      <c r="E195" t="str"/>
-      <c r="F195" t="str">
+      <c r="E199" t="str"/>
+      <c r="F199" t="str">
         <v>肖艺九 2021-10-10 15:08:40
                         ID : 101002021101090000421</v>
       </c>
-      <c r="G195" t="str"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="str">
+      <c r="G199" t="str"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
         <v>京剧</v>
       </c>
-      <c r="B196" t="str">
+      <c r="B200" t="str">
         <v>（文化）（2）第十七届中国戏剧节武汉开幕</v>
       </c>
-      <c r="C196" t="str">
+      <c r="C200" t="str">
         <v>101002021101090000419</v>
       </c>
-      <c r="D196" t="str">
+      <c r="D200" t="str">
         <v>新华社照片，武汉，2021年10月10日
     第十七届中国戏剧节武汉开幕
     10月9日，话剧表演艺术家焦晃在第十七届中国戏剧节上被授予中国文联终身成就戏剧家荣誉称号。
     10月9日晚，主题为“戏聚英雄城，礼赞新时代”的第十七届中国戏剧节在湖北武汉正式启幕。
     据介绍，本届戏剧节将持续至10月28日，其间来自全国各地的31台优秀剧目将接连登场，涵盖京剧、昆剧、评剧、豫剧、越剧、黄梅戏、婺剧、高甲戏、花鼓戏等14个戏曲剧种以及话剧、歌剧、儿童剧等...</v>
       </c>
-      <c r="E196" t="str"/>
-      <c r="F196" t="str">
+      <c r="E200" t="str"/>
+      <c r="F200" t="str">
         <v>肖艺九 2021-10-10 15:08:40
                         ID : 101002021101090000419</v>
       </c>
-      <c r="G196" t="str"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="str">
+      <c r="G200" t="str"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
         <v>京剧</v>
       </c>
-      <c r="B197" t="str">
+      <c r="B201" t="str">
         <v>（文化）（3）第十七届中国戏剧节武汉开幕</v>
       </c>
-      <c r="C197" t="str">
+      <c r="C201" t="str">
         <v>101002021101090000416</v>
       </c>
-      <c r="D197" t="str">
+      <c r="D201" t="str">
         <v>新华社照片，武汉，2021年10月10日
     第十七届中国戏剧节武汉开幕
     这是10月9日在武汉琴台大剧院拍摄的京剧《母亲》剧照。
     10月9日晚，主题为“戏聚英雄城，礼赞新时代”的第十七届中国戏剧节在湖北武汉正式启幕。
     据介绍，本届戏剧节将持续至10月28日，其间来自全国各地的31台优秀剧目将接连登场，涵盖京剧、昆剧、评剧、豫剧、越剧、黄梅戏、婺剧、高甲戏、花鼓戏等14个戏曲剧种以及话剧、...</v>
       </c>
-      <c r="E197" t="str"/>
-      <c r="F197" t="str">
+      <c r="E201" t="str"/>
+      <c r="F201" t="str">
         <v>肖艺九 2021-10-10 15:08:40
                         ID : 101002021101090000416</v>
       </c>
-      <c r="G197" t="str"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B198" t="str">
-        <v>（文化）（4）第十七届中国戏剧节武汉开幕</v>
-      </c>
-      <c r="C198" t="str">
-        <v>101002021101090000417</v>
-      </c>
-      <c r="D198" t="str">
-        <v>新华社照片，武汉，2021年10月10日
-    第十七届中国戏剧节武汉开幕
-    这是10月9日在武汉琴台大剧院拍摄的京剧《母亲》剧照。
-    10月9日晚，主题为“戏聚英雄城，礼赞新时代”的第十七届中国戏剧节在湖北武汉正式启幕。
-    据介绍，本届戏剧节将持续至10月28日，其间来自全国各地的31台优秀剧目将接连登场，涵盖京剧、昆剧、评剧、豫剧、越剧、黄梅戏、婺剧、高甲戏、花鼓戏等14个戏曲剧种以及话剧、...</v>
-      </c>
-      <c r="E198" t="str"/>
-      <c r="F198" t="str">
-        <v>肖艺九 2021-10-10 15:08:40
-                        ID : 101002021101090000417</v>
-      </c>
-      <c r="G198" t="str"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B199" t="str">
-        <v>（文化）（1）第十七届中国戏剧节武汉开幕</v>
-      </c>
-      <c r="C199" t="str">
-        <v>101002021101090000415</v>
-      </c>
-      <c r="D199" t="str">
-        <v>新华社照片，武汉，2021年10月10日
-    第十七届中国戏剧节武汉开幕
-    10月9日，话剧表演艺术家焦晃（右二）被授予中国文联终身成就戏剧家荣誉称号后发言。
-    10月9日晚，主题为“戏聚英雄城，礼赞新时代”的第十七届中国戏剧节在湖北武汉正式启幕。
-    据介绍，本届戏剧节将持续至10月28日，其间来自全国各地的31台优秀剧目将接连登场，涵盖京剧、昆剧、评剧、豫剧、越剧、黄梅戏、婺剧、高甲戏、花鼓戏等14个戏曲剧种以及话剧、歌剧、儿童剧等多个艺术...</v>
-      </c>
-      <c r="E199" t="str"/>
-      <c r="F199" t="str">
-        <v>肖艺九 2021-10-10 15:08:40
-                        ID : 101002021101090000415</v>
-      </c>
-      <c r="G199" t="str"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B200" t="str">
-        <v>（文化）（5）第十七届中国戏剧节武汉开幕</v>
-      </c>
-      <c r="C200" t="str">
-        <v>101002021101090000420</v>
-      </c>
-      <c r="D200" t="str">
-        <v>新华社照片，武汉，2021年10月10日
-    第十七届中国戏剧节武汉开幕
-    这是10月9日在武汉琴台大剧院拍摄的京剧《母亲》剧照。
-    10月9日晚，主题为“戏聚英雄城，礼赞新时代”的第十七届中国戏剧节在湖北武汉正式启幕。
-    据介绍，本届戏剧节将持续至10月28日，其间来自全国各地的31台优秀剧目将接连登场，涵盖京剧、昆剧、评剧、豫剧、越剧、黄梅戏、婺剧、高甲戏、花鼓戏等14个戏曲剧种以及话剧、...</v>
-      </c>
-      <c r="E200" t="str"/>
-      <c r="F200" t="str">
-        <v>肖艺九 2021-10-10 15:08:40
-                        ID : 101002021101090000420</v>
-      </c>
-      <c r="G200" t="str"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="str">
-        <v>京剧</v>
-      </c>
-      <c r="B201" t="str">
-        <v>（新华视界）（5）现代京剧《突围·大别山》在郑州上演</v>
-      </c>
-      <c r="C201" t="str">
-        <v>101002021100790000796</v>
-      </c>
-      <c r="D201" t="str">
-        <v>新华社照片，郑州，2021年10月7日
-    现代京剧《突围·大别山》在郑州上演
-    10月6日，演员在表演现代京剧《突围·大别山》。
-    当日，“第九届中国京剧艺术节”入选剧目河南省京剧艺术中心原创现代京剧《突围·大别山》在郑州河南艺术中心大剧院上演。
+      <c r="G201" t="str"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B202" t="str">
+        <v>（外代一线）（8）印度发射一箭31星　法国卫星瞄准系外行星</v>
+      </c>
+      <c r="C202" t="str">
+        <v>200012018011204162543</v>
+      </c>
+      <c r="D202" t="str">
+        <v>新华社照片，外代，2018年1月12日
+    （外代一线）（8）印度发射一箭31星　法国卫星瞄准系外行星
+    1月12日，在印度安得拉邦的萨迪什·达万航天中心，印度空间研究组织主席基兰·库马尔（中）在火箭发射成功后与媒体交流。
+    印度空间研究组织12日成功发射一枚极地卫星运载火箭，将31颗卫星送入太空，其中一颗来自法国的纳米卫星将用于研究太阳系外恒星“绘架座β星”及围绕它运转的行星。 
+    新华社/法新</v>
+      </c>
+      <c r="E202" t="str"/>
+      <c r="F202" t="str">
+        <v>ARUN SANKAR 2018-01-12 19:32:01
+                        ID : 200012018011204162543</v>
+      </c>
+      <c r="G202" t="str"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B203" t="str">
+        <v>（外代一线）（4）印度发射一箭31星　法国卫星瞄准系外行星</v>
+      </c>
+      <c r="C203" t="str">
+        <v>200012018011204162535</v>
+      </c>
+      <c r="D203" t="str">
+        <v>新华社照片，外代，2018年1月12日
+    （外代一线）（4）印度发射一箭31星　法国卫星瞄准系外行星
+    1月12日，在印度安得拉邦的萨迪什·达万航天中心，印度空间研究组织主席基兰·库马尔在火箭发射成功后与媒体交流。
+    印度空间研究组织12日成功发射一枚极地卫星运载火箭，将31颗卫星送入太空，其中一颗来自法国的纳米卫星将用于研究太阳系外恒星“绘架座β星”及围绕它运转的行星。 
+    新华社/法新</v>
+      </c>
+      <c r="E203" t="str"/>
+      <c r="F203" t="str">
+        <v>ARUN SANKAR 2018-01-12 19:31:59
+                        ID : 200012018011204162535</v>
+      </c>
+      <c r="G203" t="str"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B204" t="str">
+        <v>（外代一线）（7）印度发射一箭31星　法国卫星瞄准系外行星</v>
+      </c>
+      <c r="C204" t="str">
+        <v>200012018011204162550</v>
+      </c>
+      <c r="D204" t="str">
+        <v>新华社照片，外代，2018年1月12日
+    （外代一线）（7）印度发射一箭31星　法国卫星瞄准系外行星
+    1月12日，在印度安得拉邦的萨迪什·达万航天中心，印度空间研究组织主席基兰·库马尔（左二）在火箭发射成功后与媒体交流。
+    印度空间研究组织12日成功发射一枚极地卫星运载火箭，将31颗卫星送入太空，其中一颗来自法国的纳米卫星将用于研究太阳系外恒星“绘架座β星”及围绕它运转的行星。 
+    新华社/法新</v>
+      </c>
+      <c r="E204" t="str"/>
+      <c r="F204" t="str">
+        <v>ARUN SANKAR 2018-01-12 19:31:58
+                        ID : 200012018011204162550</v>
+      </c>
+      <c r="G204" t="str"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B205" t="str">
+        <v>（外代一线）（6）印度发射一箭31星　法国卫星瞄准系外行星</v>
+      </c>
+      <c r="C205" t="str">
+        <v>200012018011204162383</v>
+      </c>
+      <c r="D205" t="str">
+        <v>新华社照片，外代，2018年1月12日
+    （外代一线）（6）印度发射一箭31星　法国卫星瞄准系外行星
+    1月12日，在印度安得拉邦的萨迪什·达万航天中心，印度空间研究组织主席基兰·库马尔（右）在火箭发射成功后与媒体交流。
+    印度空间研究组织12日成功发射一枚极地卫星运载火箭，将31颗卫星送入太空，其中一颗来自法国的纳米卫星将用于研究太阳系外恒星“绘架座β星”及围绕它运转的行星。 
+    新华社/法新</v>
+      </c>
+      <c r="E205" t="str"/>
+      <c r="F205" t="str">
+        <v>ARUN SANKAR 2018-01-12 19:31:57
+                        ID : 200012018011204162383</v>
+      </c>
+      <c r="G205" t="str"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B206" t="str">
+        <v>（外代一线）（5）印度发射一箭31星　法国卫星瞄准系外行星</v>
+      </c>
+      <c r="C206" t="str">
+        <v>200012018011204162374</v>
+      </c>
+      <c r="D206" t="str">
+        <v>新华社照片，外代，2018年1月12日
+    （外代一线）（5）印度发射一箭31星　法国卫星瞄准系外行星
+    1月12日，火箭从印度安得拉邦的萨迪什·达万航天中心发射升空。
+    印度空间研究组织12日成功发射一枚极地卫星运载火箭，将31颗卫星送入太空，其中一颗来自法国的纳米卫星将用于研究太阳系外恒星“绘架座β星”及围绕它运转的行星。 
+    新华社/法新</v>
+      </c>
+      <c r="E206" t="str"/>
+      <c r="F206" t="str">
+        <v>ARUN SANKAR 2018-01-12 19:31:56
+                        ID : 200012018011204162374</v>
+      </c>
+      <c r="G206" t="str"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B207" t="str">
+        <v>（外代一线）（3）印度发射一箭31星　法国卫星瞄准系外行星</v>
+      </c>
+      <c r="C207" t="str">
+        <v>200012018011204162378</v>
+      </c>
+      <c r="D207" t="str">
+        <v>新华社照片，外代，2018年1月12日
+    （外代一线）（3）印度发射一箭31星　法国卫星瞄准系外行星
+    1月12日，火箭从印度安得拉邦的萨迪什·达万航天中心发射升空。
+    印度空间研究组织12日成功发射一枚极地卫星运载火箭，将31颗卫星送入太空，其中一颗来自法国的纳米卫星将用于研究太阳系外恒星“绘架座β星”及围绕它运转的行星。 
+    新华社/法新</v>
+      </c>
+      <c r="E207" t="str"/>
+      <c r="F207" t="str">
+        <v>ARUN SANKAR 2018-01-12 19:31:55
+                        ID : 200012018011204162378</v>
+      </c>
+      <c r="G207" t="str"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B208" t="str">
+        <v>新华社摄影部2017年05月06日发稿目录(图表专线)</v>
+      </c>
+      <c r="C208" t="str">
+        <v>200012017050700008548</v>
+      </c>
+      <c r="D208" t="str">
+        <v>新华社摄影部2017年05月06日发稿目录(图表专线)
+*（图表·漫画）[社会]“到付”骗局
+*（图表·漫画）[社会]防不胜防
+*（图表·漫画）[社会]快递“陷阱”
+*（图表·漫画）[财经]发布新办法
+*（图表·漫画）[文化·视点]“携手”
+*（图表）[科技]美航天局开始评估下一个太阳系探索任务
+*（图表·漫画）[文化·视点]直播“新花”
+*（图表·漫画）[文化·视点]生财之道
+*（图表·漫画）[文化·视点]“井喷”
+*（图表）[财经]4月以来...</v>
+      </c>
+      <c r="E208" t="str"/>
+      <c r="F208" t="str">
+        <v>马研 2017-05-07 00:04:41
+                        ID : 200012017050700008548</v>
+      </c>
+      <c r="G208" t="str"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B209" t="str">
+        <v>新华社摄影部2017年05月06日白班发稿目录(图表专线)</v>
+      </c>
+      <c r="C209" t="str">
+        <v>200012017050601584370</v>
+      </c>
+      <c r="D209" t="str">
+        <v>新华社摄影部2017年05月06日白班发稿目录(图表专线)
+*（图表·漫画）[社会]“到付”骗局
+*（图表·漫画）[社会]防不胜防
+*（图表·漫画）[社会]快递“陷阱”
+*公鉴：关于“新华全媒”新闻服务平台上线的公告
+*（图表·漫画）[财经]发布新办法
+*（图表·漫画）[文化·视点]“携手”
+*（图表）[科技]美航天局开始评估下一个太阳系探索任务
+*（图表·漫画）[文化·视点]直播“新花”
+*（图表·漫画）[文化·视点]生财之道
+     ...</v>
+      </c>
+      <c r="E209" t="str"/>
+      <c r="F209" t="str">
+        <v>周大庆 2017-05-06 18:05:14
+                        ID : 200012017050601584370</v>
+      </c>
+      <c r="G209" t="str"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B210" t="str">
+        <v>新华社摄影部2017年05月06日发稿目录(图表专线)</v>
+      </c>
+      <c r="C210" t="str">
+        <v>200012017050601440885</v>
+      </c>
+      <c r="D210" t="str">
+        <v>新华社摄影部2017年05月06日发稿目录(图表专线)
+*（图表·漫画）[社会]“到付”骗局
+*（图表·漫画）[社会]防不胜防
+*（图表·漫画）[社会]快递“陷阱”
+*公鉴：关于“新华全媒”新闻服务平台上线的公告
+*（图表·漫画）[财经]发布新办法
+*（图表·漫画）[文化·视点]“携手”
+*（图表）[科技]美航天局开始评估下一个太阳系探索任务
+*（图表·漫画）[文化·视点]直播“新花”
+*（图表·漫画）[文化·视点]生财之道</v>
+      </c>
+      <c r="E210" t="str"/>
+      <c r="F210" t="str">
+        <v>冯琦 2017-05-06 17:03:51
+                        ID : 200012017050601440885</v>
+      </c>
+      <c r="G210" t="str"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B211" t="str">
+        <v>（图文互动）（1）太空探索有了“新点子” 国家空间科学中心选出80份“任务单”</v>
+      </c>
+      <c r="C211" t="str">
+        <v>200012017031702692621</v>
+      </c>
+      <c r="D211" t="str">
+        <v>新华社照片，北京，2017年3月17日
+    太空探索有了“新点子” 国家空间科学中心选出80份“任务单”
+    3月17日，中科院国家空间科学中心主任吴季在介绍概念征集情况。
+    通过观测全天射电频谱探索宇宙黑暗时期、聚焦太阳系和生命起源的小天体探测、系外行星大气紫外探测、空间微生理系统的3D打印……中国科学院国家空间科学中心17日宣布，已完成我国空间科学任务概念征集的全部评审工作，共有80个项目通过了遴选。
+    中科院国家空间科学中心2016年12...</v>
+      </c>
+      <c r="E211" t="str"/>
+      <c r="F211" t="str">
+        <v>金立旺 2017-03-17 19:25:08
+                        ID : 200012017031702692621</v>
+      </c>
+      <c r="G211" t="str"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B212" t="str">
+        <v>（图文互动）（2）太空探索有了“新点子” 国家空间科学中心选出80份“任务单”</v>
+      </c>
+      <c r="C212" t="str">
+        <v>200012017031702692617</v>
+      </c>
+      <c r="D212" t="str">
+        <v>新华社照片，北京，2017年3月17日
+    太空探索有了“新点子” 国家空间科学中心选出80份“任务单”
+    3月17日，中科院国家空间科学中心主任吴季在向媒体记者介绍相关情况。
+    通过观测全天射电频谱探索宇宙黑暗时期、聚焦太阳系和生命起源的小天体探测、系外行星大气紫外探测、空间微生理系统的3D打印……中国科学院国家空间科学中心17日宣布，已完成我国空间科学任务概念征集的全部评审工作，共有80个项目通过了遴选。
+    中科院国家空间科学中心2016...</v>
+      </c>
+      <c r="E212" t="str"/>
+      <c r="F212" t="str">
+        <v>金立旺 2017-03-17 19:25:07
+                        ID : 200012017031702692617</v>
+      </c>
+      <c r="G212" t="str"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B213" t="str">
+        <v>（社会）（1）上海科技馆举办“侬好！天文馆”活动</v>
+      </c>
+      <c r="C213" t="str">
+        <v>200012017031200460778</v>
+      </c>
+      <c r="D213" t="str">
+        <v>新华社照片，上海，2017年3月12日
+    上海科技馆举办“侬好！天文馆”活动
+    3月12日，在上海科技馆，辅导员向小朋友讲解太阳系的构成。
+    当日，上海科技馆举行以“侬好！天文馆”为主题的2017国际天文馆日主题活动。小朋友们通过参观球幕星空馆、参加科学小讲台等活动感受星空、分享发现、理解宇宙、思索未来。
+    新华社记者 方喆 摄</v>
+      </c>
+      <c r="E213" t="str"/>
+      <c r="F213" t="str">
+        <v>方喆 2017-03-12 16:17:07
+                        ID : 200012017031200460778</v>
+      </c>
+      <c r="G213" t="str"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B214" t="str">
+        <v>新华社摄影部2017年02月23日发稿目录(国际对内)</v>
+      </c>
+      <c r="C214" t="str">
+        <v>200012017022400002964</v>
+      </c>
+      <c r="D214" t="str">
+        <v>新华社摄影部2017年02月23日发稿目录(国际对内)
+*(国际)(3)温哥华举行“粉红衣日”活动反对校园欺凌
+*(国际)(4)联合国秘书长说南苏丹等四国饥荒急需44亿美元援助
+*(国际)(2)天文学家在40光年外发现酷似太阳系的行星系
+*(国际)(5)中国设计师品牌ANNAKIKI亮相米兰时装周
+*(新华全媒头条·最大“海归”潮)(3)“海归”潮背后的“中国吸引力”——“海归”群体心态录
+*(新华全媒头条·最大“海归”潮)“我把回国工作提前了10年”...</v>
+      </c>
+      <c r="E214" t="str"/>
+      <c r="F214" t="str">
+        <v>朱炜 2017-02-24 00:02:33
+                        ID : 200012017022400002964</v>
+      </c>
+      <c r="G214" t="str"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B215" t="str">
+        <v>新华社摄影部2017年02月23日发稿目录(外代图片一线)</v>
+      </c>
+      <c r="C215" t="str">
+        <v>200012017022303279358</v>
+      </c>
+      <c r="D215" t="str">
+        <v>新华社摄影部2017年02月23日发稿目录(外代图片一线)
+*(外代一线)(3)纽约股市三大股指22日涨跌不一
+*(外代一线)(15)摩苏尔战役进入最后阶段
+*(外代一线)(3)巴西外长塞拉因健康原因辞职
+*(外代一线)(8)悉尼郊区一垃圾回收中心发生火灾
+*(外代一线)(7)天文学家在40光年外发现酷似太阳系的行星系
+*(外代一线)(5)美财长称特朗普政府将推动经济增长3%以上
+*(外代一线)(4)厄瓜多尔总统选举将进入第二轮投票
+*(外代一线)...</v>
+      </c>
+      <c r="E215" t="str"/>
+      <c r="F215" t="str">
+        <v>朱炜 2017-02-24 00:00:03
+                        ID : 200012017022303279358</v>
+      </c>
+      <c r="G215" t="str"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B216" t="str">
+        <v>新华社摄影部今日重要稿件预告</v>
+      </c>
+      <c r="C216" t="str">
+        <v>200012017022302571870</v>
+      </c>
+      <c r="D216" t="str">
+        <v>新华社摄影部今日重要稿件预告
+今日要闻：
+1.（体育）篮球——姚明当选篮协主席（已播发2张）
+2.（国际）天文学家在40光年外发现酷似太阳系的行星系（已播发2张）
+3.（体育）篮球——中国篮协全国代表大会新闻发布会举行（已播发3张）
+重要栏目：
+1.（新华全媒头条·最大“海归”潮）“海归”潮背后的“中国吸引力”——“海归”群体心态录（已播发3张）
+2.（新华全媒头条·最大“海归”潮）青春无悔中国梦——“千人计划”专家王波的创业之路（已播发1张）
+3.（新华全媒...</v>
+      </c>
+      <c r="E216" t="str"/>
+      <c r="F216" t="str">
+        <v>摄影部 2017-02-23 20:53:11
+                        ID : 200012017022302571870</v>
+      </c>
+      <c r="G216" t="str"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B217" t="str">
+        <v>新华社摄影部2017年02月23日白天发稿目录(国际对内)</v>
+      </c>
+      <c r="C217" t="str">
+        <v>200012017022301748811</v>
+      </c>
+      <c r="D217" t="str">
+        <v>新华社摄影部2017年02月23日白天发稿目录(国际对内)
+*(国际)(3)温哥华举行“粉红衣日”活动反对校园欺凌
+*(国际)(4)联合国秘书长说南苏丹等四国饥荒急需44亿美元援助
+*(国际)(2)天文学家在40光年外发现酷似太阳系的行星系
+*(国际)(5)中国设计师品牌ANNAKIKI亮相米兰时装周
+*(国际)(4)冬日冰钓
+新华社摄影部
+2017年2月23日</v>
+      </c>
+      <c r="E217" t="str"/>
+      <c r="F217" t="str">
+        <v>张新晶一读 2017-02-23 17:06:28
+                        ID : 200012017022301748811</v>
+      </c>
+      <c r="G217" t="str"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B218" t="str">
+        <v>新华社摄影部2017年02月23日白天发稿目录(外代图片一线)</v>
+      </c>
+      <c r="C218" t="str">
+        <v>200012017022301747831</v>
+      </c>
+      <c r="D218" t="str">
+        <v>新华社摄影部2017年02月23日白天发稿目录(外代图片一线)
+*(外代一线)(3)纽约股市三大股指22日涨跌不一
+*(外代一线)(15)摩苏尔战役进入最后阶段
+*(外代一线)(3)巴西外长塞拉因健康原因辞职
+*(外代一线)(8)悉尼郊区一垃圾回收中心发生火灾
+*(外代一线)(7)天文学家在40光年外发现酷似太阳系的行星系
+*(外代一线)(5)美财长称特朗普政府将推动经济增长3%以上
+*(外代一线)(4)厄瓜多尔总统选举将进入第二轮投票
+*(外代一...</v>
+      </c>
+      <c r="E218" t="str"/>
+      <c r="F218" t="str">
+        <v>张新晶一读 2017-02-23 17:06:17
+                        ID : 200012017022301747831</v>
+      </c>
+      <c r="G218" t="str"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B219" t="str">
+        <v>新华社摄影部今日重要稿件预告</v>
+      </c>
+      <c r="C219" t="str">
+        <v>200012017022301623164</v>
+      </c>
+      <c r="D219" t="str">
+        <v>新华社摄影部今日重要稿件预告
+今日要闻：
+1.（体育）篮球——姚明当选篮协主席（已播发2张）
+2.（国际）天文学家在40光年外发现酷似太阳系的行星系（已播发2张）
+3.（体育）篮球——中国篮协全国代表大会新闻发布会举行（已播发3张）
+重要栏目：
+1.（新华全媒头条·最大“海归”潮）“海归”潮背后的“中国吸引力”——“海归”群体心态录（已播发３张）
+2.（新华全媒头条·最大“海归”潮）青春无悔中国梦——“千人计划”专家王波的创业之路（已播发１张）
+3.（新华全媒...</v>
+      </c>
+      <c r="E219" t="str"/>
+      <c r="F219" t="str">
+        <v>摄影部 2017-02-23 15:50:19
+                        ID : 200012017022301623164</v>
+      </c>
+      <c r="G219" t="str"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B220" t="str">
+        <v>（外代一线）（1）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C220" t="str">
+        <v>200012017022301538532</v>
+      </c>
+      <c r="D220" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（1）天文学家在40光年外发现酷似太阳系的行星系
+    这张美国航天局2月22日发布的概念图显示的是7颗围绕超冷矮星TRAPPIST-1运转的行星。 
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为，这一酷似太阳系的行星系，堪称迄今寻找外星生命的最佳地点。 
+    新华社/美联
  ...</v>
       </c>
-      <c r="E201" t="str"/>
-      <c r="F201" t="str">
-        <v>张浩然 2021-10-07 16:07:13
-                        ID : 101002021100790000796</v>
-      </c>
-      <c r="G201" t="str"/>
+      <c r="E220" t="str"/>
+      <c r="F220" t="str">
+        <v>Uncredited 2017-02-23 15:25:33
+                        ID : 200012017022301538532</v>
+      </c>
+      <c r="G220" t="str"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B221" t="str">
+        <v>（外代一线）（5）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C221" t="str">
+        <v>200012017022301538598</v>
+      </c>
+      <c r="D221" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（5）天文学家在40光年外发现酷似太阳系的行星系
+    2月22日，在美国华盛顿，（从左至右）美国太空望远镜科学研究所天文学家刘易斯、美国麻省理工学院教授萨拉·西格、美国宇航局“斯皮策”科学中心的肖恩·凯里、比利时列日大学的米夏埃尔·吉隆和美国航天局副局长托马斯·楚比兴出席新闻发布会。
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为...</v>
+      </c>
+      <c r="E221" t="str"/>
+      <c r="F221" t="str">
+        <v>MIKE THEILER 2017-02-23 15:25:32
+                        ID : 200012017022301538598</v>
+      </c>
+      <c r="G221" t="str"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B222" t="str">
+        <v>（外代一线）（7）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C222" t="str">
+        <v>200012017022301538535</v>
+      </c>
+      <c r="D222" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（7）天文学家在40光年外发现酷似太阳系的行星系
+    2月22日，在美国华盛顿，（从左至右）美国麻省理工学院教授萨拉·西格、美国宇航局“斯皮策”科学中心的肖恩·凯里和比利时列日大学的米夏埃尔·吉隆出席新闻发布会。
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为，这一酷似太阳系的行星...</v>
+      </c>
+      <c r="E222" t="str"/>
+      <c r="F222" t="str">
+        <v>MIKE THEILER 2017-02-23 15:25:31
+                        ID : 200012017022301538535</v>
+      </c>
+      <c r="G222" t="str"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B223" t="str">
+        <v>（外代一线）（6）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C223" t="str">
+        <v>200012017022301538458</v>
+      </c>
+      <c r="D223" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（6）天文学家在40光年外发现酷似太阳系的行星系
+    2月22日，在美国华盛顿，（从左至右）美国宇航局“斯皮策”科学中心的肖恩·凯里、比利时列日大学的米夏埃尔·吉隆和美国航天局副局长托马斯·楚比兴出席新闻发布会。
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为，这一酷似太阳系的行星...</v>
+      </c>
+      <c r="E223" t="str"/>
+      <c r="F223" t="str">
+        <v>MIKE THEILER 2017-02-23 15:25:30
+                        ID : 200012017022301538458</v>
+      </c>
+      <c r="G223" t="str"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B224" t="str">
+        <v>（外代一线）（3）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C224" t="str">
+        <v>200012017022301538454</v>
+      </c>
+      <c r="D224" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（3）天文学家在40光年外发现酷似太阳系的行星系
+    2月22日，美国太空望远镜科学研究所天文学家刘易斯在华盛顿举行的新闻发布会上讲话。 
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为，这一酷似太阳系的行星系，堪称迄今寻找外星生命的最佳地点。  
+    新华社/路透</v>
+      </c>
+      <c r="E224" t="str"/>
+      <c r="F224" t="str">
+        <v>MIKE THEILER 2017-02-23 15:25:28
+                        ID : 200012017022301538454</v>
+      </c>
+      <c r="G224" t="str"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B225" t="str">
+        <v>（外代一线）（2）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C225" t="str">
+        <v>200012017022301538396</v>
+      </c>
+      <c r="D225" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（2）天文学家在40光年外发现酷似太阳系的行星系
+    2月22日，在美国华盛顿，（从左至右）美国太空望远镜科学研究所天文学家刘易斯、美国麻省理工学院教授萨拉·西格、美国宇航局“斯皮策”科学中心的肖恩·凯里、比利时列日大学的米夏埃尔·吉隆和美国航天局副局长托马斯·楚比兴出席新闻发布会。
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为...</v>
+      </c>
+      <c r="E225" t="str"/>
+      <c r="F225" t="str">
+        <v>MIKE THEILER 2017-02-23 15:25:26
+                        ID : 200012017022301538396</v>
+      </c>
+      <c r="G225" t="str"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B226" t="str">
+        <v>（外代一线）（4）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C226" t="str">
+        <v>200012017022301538392</v>
+      </c>
+      <c r="D226" t="str">
+        <v>新华社照片，外代，2017年2月23日
+    （外代一线）（4）天文学家在40光年外发现酷似太阳系的行星系
+    2月22日，美国太空望远镜科学研究所天文学家刘易斯（右）在华盛顿举行的新闻发布会上讲话。 
+    美国航天局22日说，一个国际天文学家小组在距离地球约40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为，这一酷似太阳系的行星系，堪称迄今寻找外星生命的最佳地点。 
+    新华社/路透</v>
+      </c>
+      <c r="E226" t="str"/>
+      <c r="F226" t="str">
+        <v>MIKE THEILER 2017-02-23 15:25:25
+                        ID : 200012017022301538392</v>
+      </c>
+      <c r="G226" t="str"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B227" t="str">
+        <v>新华社摄影部今日重要稿件预告</v>
+      </c>
+      <c r="C227" t="str">
+        <v>200012017022300979340</v>
+      </c>
+      <c r="D227" t="str">
+        <v>新华社摄影部今日重要稿件预告
+今日要闻：
+1.（体育）姚明当选篮协主席（预计下午播发）
+2.（国际）天文学家在40光年外发现酷似太阳系的行星系（已播发2张）
+重要栏目：
+1.（新华全媒头条·最大“海归”潮）“海归”潮背后的“中国吸引力”——“海归”群体心态录（已播发１张）
+2.（新华全媒头条·最大“海归”潮）青春无悔中国梦——“千人计划”专家王波的创业之路（已播发１张）
+3.（新华全媒头条·最大“海归”潮）“我把回国工作提前了１０年”——清华大学讲席教授邹昊的...</v>
+      </c>
+      <c r="E227" t="str"/>
+      <c r="F227" t="str">
+        <v>摄影部 2017-02-23 11:02:50
+                        ID : 200012017022300979340</v>
+      </c>
+      <c r="G227" t="str"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B228" t="str">
+        <v>（国际）（2）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C228" t="str">
+        <v>200012017022300481478</v>
+      </c>
+      <c r="D228" t="str">
+        <v>新华社照片，纽约，2017年2月22日
+    （国际）（2）天文学家在40光年外发现酷似太阳系的行星系
+    这张美国航天局2月22日发布的概念图表显示的是围绕单一恒星TRAPPIST-1运行的7颗系外行星（上排）与太阳系水星、金星、地球和火星（下排）在公转周期、与恒星距离、行星半径、行星质量等相关参数上的对比。
+    美国航天局22日宣布，一个国际天文学家小组发现，在距地球仅40光年外发现围绕单一恒星运行的...</v>
+      </c>
+      <c r="E228" t="str"/>
+      <c r="F228" t="str">
+        <v>新华社发 2017-02-23 07:25:10
+                        ID : 200012017022300481478</v>
+      </c>
+      <c r="G228" t="str"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B229" t="str">
+        <v>（国际）（1）天文学家在40光年外发现酷似太阳系的行星系</v>
+      </c>
+      <c r="C229" t="str">
+        <v>200012017022300468928</v>
+      </c>
+      <c r="D229" t="str">
+        <v>新华社照片，纽约，2017年2月22日
+    （国际）（1）天文学家在40光年外发现酷似太阳系的行星系 
+    这张美国航天局2月22日发布的概念图显示的是单一恒星TRAPPIST-1及围绕其运行的7颗系外行星。
+    美国航天局22日宣布，一个国际天文学家小组发现，在距地球仅40光年外发现围绕单一恒星运行的7颗系外行星。天文学家认为，这一酷似太阳系的行星系，堪称迄今寻找外星生命的最佳地点。 
+    新华社发</v>
+      </c>
+      <c r="E229" t="str"/>
+      <c r="F229" t="str">
+        <v>新华社发 2017-02-23 07:12:39
+                        ID : 200012017022300468928</v>
+      </c>
+      <c r="G229" t="str"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B230" t="str">
+        <v>（新华全媒头条·天文望远镜·图文互动）（7）给我一双“慧眼”——“超级天眼”的探索与追问</v>
+      </c>
+      <c r="C230" t="str">
+        <v>200012017030901433672</v>
+      </c>
+      <c r="D230" t="str">
+        <v>新华社照片，平塘（贵州），2016年9月24日
+    给我一双“慧眼”——“超级天眼”的探索与追问
+    平塘天文体验馆内的太阳系模型（9月23日摄）。
+    9月25日，有着“超级天眼”之称的500米口径球面射电望远镜（FAST）将在贵州平塘的喀斯特洼坑中落成启用，吸引着世界目光。
+    1609年，意大利科学家伽利略用自制的天文望远镜发现了月球表面高低不平的环形山，成为利用望远镜观测天体第一人。
+    400多年后，代表中国科技高度的大射电望远镜，将...</v>
+      </c>
+      <c r="E230" t="str"/>
+      <c r="F230" t="str">
+        <v>刘续 2016-09-24 21:05:19
+                        ID : 200012017030901433672</v>
+      </c>
+      <c r="G230" t="str"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B231" t="str">
+        <v>（科技）（3）探访平塘国际射电天文科学旅游文化产业园</v>
+      </c>
+      <c r="C231" t="str">
+        <v>200012017030901387694</v>
+      </c>
+      <c r="D231" t="str">
+        <v>新华社照片，平塘（贵州），2016年9月23日
+    探访平塘国际射电天文科学旅游文化产业园
+    平塘国际射电天文科学旅游文化产业园天文体验馆内的太阳系模型（9月23日摄）。
+    近日，位于贵州省黔南布依族苗族自治州平塘县的“平塘国际射电天文科学旅游文化产业园”建设进入最后收尾阶段。产业园规划面积3平方公里，与世界最大单口径射电望远镜——500米口径球面射电望远镜（FAST）直线距离约5公里，建有天文体验馆、FAST游客服务中心、暗夜观星园等天文旅游项目...</v>
+      </c>
+      <c r="E231" t="str"/>
+      <c r="F231" t="str">
+        <v>刘续 2016-09-23 23:15:21
+                        ID : 200012017030901387694</v>
+      </c>
+      <c r="G231" t="str"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B232" t="str">
+        <v>新华社外代图片——欧新中文专线7月17日发稿目录</v>
+      </c>
+      <c r="C232" t="str">
+        <v>200012017030601102512</v>
+      </c>
+      <c r="D232" t="str">
+        <v>（1）火的轨迹  
+（2）“太阳系”田地  
+（3）全民抓精灵  
+（4）韩国泥浆节  
+（5）影片《冰川时代5：星际碰撞》放映活动  
+（3）印度进入季风雨季  
+（2）约翰内斯堡举行慈善瑜伽活动迎接曼德拉日  
+（2）特朗普同副总统竞选搭档首次公开露面  
+（3）一架土耳其直升机未经许可降落希腊  
+（3）土总统要求奥巴马引渡对立派别领导人  
+（5）土耳其议会大楼在政变中严重受损  
+（3）土军事政变已致194人丧生  
+（2）波兰总统杜达悼念尼斯恐袭遇难者...</v>
+      </c>
+      <c r="E232" t="str"/>
+      <c r="F232" t="str">
+        <v>新华社外代图片 2016-07-17 10:18:07
+                        ID : 200012017030601102512</v>
+      </c>
+      <c r="G232" t="str"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B233" t="str">
+        <v>“太阳系”田地</v>
+      </c>
+      <c r="C233" t="str">
+        <v>200012017030601102824</v>
+      </c>
+      <c r="D233" t="str">
+        <v>这是7月16日在德国阿默湖上空拍摄的一块形成太阳系形状的田地。这块田地是由当地农民科琳娜与恩斯特花费数年时间种植亚麻、玉米、向日葵等作物，并不断切割、整改而成的。这块“太阳系”田地大小相当于四块足球场。
+新华社外代图片 北京2016年7月17日 新华社/欧新中文</v>
+      </c>
+      <c r="E233" t="str"/>
+      <c r="F233" t="str">
+        <v>MATTHIAS BALK 2016-07-17 10:12:12
+                        ID : 200012017030601102824</v>
+      </c>
+      <c r="G233" t="str"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B234" t="str">
+        <v>“太阳系”田地</v>
+      </c>
+      <c r="C234" t="str">
+        <v>200012017030601102854</v>
+      </c>
+      <c r="D234" t="str">
+        <v>这是7月16日在德国阿默湖上空拍摄的一块形成太阳系形状的田地。这块田地是由当地农民科琳娜与恩斯特花费数年时间种植亚麻、玉米、向日葵等作物，并不断切割、整改而成的。这块“太阳系”田地大小相当于四块足球场。
+新华社外代图片 北京2016年7月17日 新华社/欧新中文</v>
+      </c>
+      <c r="E234" t="str"/>
+      <c r="F234" t="str">
+        <v>MATTHIAS BALK 2016-07-17 10:12:12
+                        ID : 200012017030601102854</v>
+      </c>
+      <c r="G234" t="str"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B235" t="str">
+        <v>杭州第一家科技图书馆开馆</v>
+      </c>
+      <c r="C235" t="str">
+        <v>200032020041785524828</v>
+      </c>
+      <c r="D235" t="str">
+        <v>5月15日，一名小读者在八大行星体验展台观看太阳系八大行星的天文知识。当日，杭州图书馆科技分馆在杭州滨江区文化中心开馆。这是杭州第一家主打科技和阅读体验的专业主题分馆，馆内设玩具图书馆、天文展示区、3D打印区、多功能活动区、期刊阅览区，拥有八大行星体验展台、3D打印装置、智能书架、电子沙盘等科普教学设备，为读者提供纸质图书借阅、玩具动手体验、科技体验、亲子活动、天文科普和展览等多元化服务。</v>
+      </c>
+      <c r="E235" t="str"/>
+      <c r="F235" t="str">
+        <v>施健学 2016-05-16 07:19:39
+                        ID : 200032020041785524828</v>
+      </c>
+      <c r="G235" t="str"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B236" t="str">
+        <v>杭州第一家科技图书馆开馆</v>
+      </c>
+      <c r="C236" t="str">
+        <v>200032020041785019366</v>
+      </c>
+      <c r="D236" t="str">
+        <v>5月15日，读者在八大行星体验展台观看太阳系八大行星的“实时”运动轨迹。当日，杭州图书馆科技分馆在杭州滨江区文化中心开馆。这是杭州第一家主打科技和阅读体验的专业主题分馆，馆内设玩具图书馆、天文展示区、3D打印区、多功能活动区、期刊阅览区，拥有八大行星体验展台、3D打印装置、智能书架、电子沙盘等科普教学设备，为读者提供纸质图书借阅、玩具动手体验、科技体验、亲子活动、天文科普和展览等多元化服务。</v>
+      </c>
+      <c r="E236" t="str"/>
+      <c r="F236" t="str">
+        <v>施健学 2016-05-16 07:19:39
+                        ID : 200032020041785019366</v>
+      </c>
+      <c r="G236" t="str"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B237" t="str">
+        <v>杭州第一家科技图书馆开馆</v>
+      </c>
+      <c r="C237" t="str">
+        <v>200032020041686131584</v>
+      </c>
+      <c r="D237" t="str">
+        <v>5月15日，读者在八大行星体验展台观看太阳系八大行星的“实时”运动轨迹。当日，杭州图书馆科技分馆在杭州滨江区文化中心开馆。这是杭州第一家主打科技和阅读体验的专业主题分馆，馆内设玩具图书馆、天文展示区、3D打印区、多功能活动区、期刊阅览区，拥有八大行星体验展台、3D打印装置、智能书架、电子沙盘等科普教学设备，为读者提供纸质图书借阅、玩具动手体验、科技体验、亲子活动、天文科普和展览等多元化服务。</v>
+      </c>
+      <c r="E237" t="str"/>
+      <c r="F237" t="str">
+        <v>施健学 2016-05-16 07:19:39
+                        ID : 200032020041686131584</v>
+      </c>
+      <c r="G237" t="str"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B238" t="str">
+        <v>（生态）（1）苍穹上演“木星合月”天象</v>
+      </c>
+      <c r="C238" t="str">
+        <v>200012017030900503239</v>
+      </c>
+      <c r="D238" t="str">
+        <v>新华社照片，济南，2016年5月15日
+    苍穹上演“木星合月”天象
+    5月15日，在山东济南夜空拍摄的“木星合月”天文景象。
+    当日晚，天宇上演“木星合月”美丽天象。公众可欣赏到太阳系的“大个子”木星与月球近距离接触的奇妙场景。据了解，行星和月亮正好运行到同一经度上，两者距离达到最近，这一天象叫行星合月。
+    新华社记者 朱峥 摄</v>
+      </c>
+      <c r="E238" t="str"/>
+      <c r="F238" t="str">
+        <v>朱峥 2016-05-15 21:22:26
+                        ID : 200012017030900503239</v>
+      </c>
+      <c r="G238" t="str"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B239" t="str">
+        <v>（生态）（2）苍穹上演“木星合月”天象</v>
+      </c>
+      <c r="C239" t="str">
+        <v>200012017030900503344</v>
+      </c>
+      <c r="D239" t="str">
+        <v>新华社照片，郑州，2016年5月15日
+    苍穹上演“木星合月”天象
+    这是5月15日晚在河南郑州上空拍摄的“木星合月”天文景象。
+    当日晚，天宇上演“木星合月”美丽天象。公众可欣赏到太阳系的“大个子”木星与月球近距离接触的奇妙场景。据了解，行星和月亮正好运行到同一经度上，两者距离达到最近，这一天象叫行星合月。
+    新华社记者 朱祥 摄</v>
+      </c>
+      <c r="E239" t="str"/>
+      <c r="F239" t="str">
+        <v>朱祥 2016-05-15 21:22:25
+                        ID : 200012017030900503344</v>
+      </c>
+      <c r="G239" t="str"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B240" t="str">
+        <v>开普勒用新方法发现一大波系外行星</v>
+      </c>
+      <c r="C240" t="str">
+        <v>200012017022401592884</v>
+      </c>
+      <c r="D240" t="str">
+        <v>美国国家航天航空局10日宣布，在太阳系外新发现1284颗系外行星。美联社说，这是迄今一次性宣布成功验证希望行星最多的一次。这些行星由开普勒太空望远镜发现。图为10日美国航天航空局公布的新发现行星的艺术化标示。
+新华社外代图片 北京2016年5月11日 新华社/欧新中文</v>
+      </c>
+      <c r="E240" t="str"/>
+      <c r="F240" t="str">
+        <v>W. STENZEL / NASA / HANDOUT 2016-05-11 15:41:21
+                        ID : 200012017022401592884</v>
+      </c>
+      <c r="G240" t="str"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B241" t="str">
+        <v>（国际）开普勒望远镜新确认近1300颗行星</v>
+      </c>
+      <c r="C241" t="str">
+        <v>200012017022702745982</v>
+      </c>
+      <c r="D241" t="str">
+        <v>新华社照片，华盛顿，2016年5月11日 
+    （国际）开普勒望远镜新确认近1300颗行星
+    这张美国航天局5月10日公布的概念图显示的是，开普勒太空望远镜确认的部分行星。
+    美国航天局10日召开电话记者会宣布，其开普勒太空望远镜一口气确认了1284颗行星的存在，这使太阳系外已知行星的总数翻了约一番。 
+    新华社发</v>
+      </c>
+      <c r="E241" t="str"/>
+      <c r="F241" t="str">
+        <v>殷博古通联 2016-05-11 15:20:45
+                        ID : 200012017022702745982</v>
+      </c>
+      <c r="G241" t="str"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B242" t="str">
+        <v>（国际）（4）走进俄罗斯航天博物馆</v>
+      </c>
+      <c r="C242" t="str">
+        <v>200012017030803898589</v>
+      </c>
+      <c r="D242" t="str">
+        <v>新华社照片，莫斯科，2016年4月7日
+    （国际）（4）走进俄罗斯航天博物馆
+    4月7日，在俄罗斯首都莫斯科，观众在航天博物馆内参观。
+    俄罗斯航天博物馆于1981年4月10日向公众开放，展出了第一颗人造卫星、首次太空行走、探月行动、太阳系探索、国际空间研究计划等航天技术相关展品。
+    新华社记者白雪骐摄</v>
+      </c>
+      <c r="E242" t="str"/>
+      <c r="F242" t="str">
+        <v>白雪骐 2016-04-08 06:56:26
+                        ID : 200012017030803898589</v>
+      </c>
+      <c r="G242" t="str"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B243" t="str">
+        <v>（国际）（2）走进俄罗斯航天博物馆</v>
+      </c>
+      <c r="C243" t="str">
+        <v>200012017030803898257</v>
+      </c>
+      <c r="D243" t="str">
+        <v>新华社照片，莫斯科，2016年4月7日
+    （国际）（2）走进俄罗斯航天博物馆
+    4月7日，在俄罗斯首都莫斯科，观众在航天博物馆内参观当日开幕的《加加林——永远的第一人》画展。
+    俄罗斯航天博物馆于1981年4月10日向公众开放，展出了第一颗人造卫星、首次太空行走、探月行动、太阳系探索、国际空间研究计划等航天技术相关展品。
+    新华社记者白雪骐摄</v>
+      </c>
+      <c r="E243" t="str"/>
+      <c r="F243" t="str">
+        <v>白雪骐 2016-04-08 06:56:20
+                        ID : 200012017030803898257</v>
+      </c>
+      <c r="G243" t="str"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B244" t="str">
+        <v>（国际）（1）走进俄罗斯航天博物馆</v>
+      </c>
+      <c r="C244" t="str">
+        <v>200012017030803898429</v>
+      </c>
+      <c r="D244" t="str">
+        <v>新华社照片，莫斯科，2016年4月7日
+    （国际）（1）走进俄罗斯航天博物馆
+    4月7日，在俄罗斯首都莫斯科，观众在航天博物馆内参观。
+    俄罗斯航天博物馆于1981年4月10日向公众开放，展出了第一颗人造卫星、首次太空行走、探月行动、太阳系探索、国际空间研究计划等航天技术相关展品。
+    新华社记者白雪骐摄</v>
+      </c>
+      <c r="E244" t="str"/>
+      <c r="F244" t="str">
+        <v>白雪骐 2016-04-08 06:56:18
+                        ID : 200012017030803898429</v>
+      </c>
+      <c r="G244" t="str"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B245" t="str">
+        <v>（国际）（3）走进俄罗斯航天博物馆</v>
+      </c>
+      <c r="C245" t="str">
+        <v>200012017030803898087</v>
+      </c>
+      <c r="D245" t="str">
+        <v>新华社照片，莫斯科，2016年4月7日
+    （国际）（3）走进俄罗斯航天博物馆
+    这是4月7日在俄罗斯首都莫斯科航天博物馆内拍摄的在1961年-1963年间“东方”号飞船飞行任务中使用的宇航服。
+    俄罗斯航天博物馆于1981年4月10日向公众开放，展出了第一颗人造卫星、首次太空行走、探月行动、太阳系探索、国际空间研究计划等航天技术相关展品。
+    新华社记者白雪骐摄</v>
+      </c>
+      <c r="E245" t="str"/>
+      <c r="F245" t="str">
+        <v>白雪骐 2016-04-08 06:56:16
+                        ID : 200012017030803898087</v>
+      </c>
+      <c r="G245" t="str"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B246" t="str">
+        <v>新华社摄影部2016年03月01日发稿目录(图表专线)</v>
+      </c>
+      <c r="C246" t="str">
+        <v>200012017022702694228</v>
+      </c>
+      <c r="D246" t="str">
+        <v>*（图表·漫画）[迎接两会·五个发展理念]共享发展播撒人民福祉
+*（图表）[数据新闻·2月份经济数据]2016年2月我国制造业采购经理指数回落至49.0%
+*（图表）[国际]报告显示人民币稳居全球第五大支付货币
+*（图表）[财经·汇率]3月1日人民币对美元汇率中间价上涨67个基点
+*（图表·漫画）[新华漫说]“动真格”
+*（图表）[法律法规]3月1日起，这些民生新规影响你我生活
+*（图表）[财经·股市]央行降准Ａ股温和反弹 沪指重返2700点
+*（图表）[教育]《幼儿园工作规程》1日起实施　严禁虐待...</v>
+      </c>
+      <c r="E246" t="str"/>
+      <c r="F246" t="str">
+        <v>王永卓 2016-03-02 00:18:14
+                        ID : 200012017022702694228</v>
+      </c>
+      <c r="G246" t="str"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B247" t="str">
+        <v>美天文学家：太阳系或重现第九大行星</v>
+      </c>
+      <c r="C247" t="str">
+        <v>200012017030900016137</v>
+      </c>
+      <c r="D247" t="str">
+        <v>这张加州理工学院1月21日提供的图片显示：可能存在的“行星九”与太阳的效果图。美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系中可能存在第九大行星的证据，并称这颗被昵称为“行星九”的行星与太阳之间的距离超过冥王星和太阳之间的距离。美国加州理工学院天文学家布朗和康斯坦丁·巴特金20日在美国《天文学杂志》上发表论文称...</v>
+      </c>
+      <c r="E247" t="str"/>
+      <c r="F247" t="str">
+        <v>CATECH,R. Hurt (IPAC) 2016-01-22 10:00:50
+                        ID : 200012017030900016137</v>
+      </c>
+      <c r="G247" t="str"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B248" t="str">
+        <v>新华社摄影部2016年01月21日发稿目录(路透晚报专线·国内)</v>
+      </c>
+      <c r="C248" t="str">
+        <v>200012017030703848929</v>
+      </c>
+      <c r="D248" t="str">
+        <v>新华社摄影部2016年01月21日发稿目录(路透晚报专线·国内)
+*(教育)(5)南京艺术类招生校考拉开帷幕  注重考察考生综合素质
+*(突发事件)(4)青海海北州门源县发生6．4级地震　西宁震感强烈
+*(晚报)青海省地震局召开新闻发布会
+*(晚报)(2)南极企鹅“回老家”
+*(图文互动)(5)骗提公积金竟成一门“生意”？——揭秘北京26家“黑中介”违规提取公积金内幕
+*(晚报)(3)南京迎来降雪天气
+*(社会)(3)成都火车站启用春运临时候车厅
+*#(生态)(3)冷！冰城“滴水成冰”
+*(晚报...</v>
+      </c>
+      <c r="E248" t="str"/>
+      <c r="F248" t="str">
+        <v>覃海石 2016-01-22 06:52:05
+                        ID : 200012017030703848929</v>
+      </c>
+      <c r="G248" t="str"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B249" t="str">
+        <v>新华社摄影部2016年01月21日发稿目录(路透晚报专线·国际)</v>
+      </c>
+      <c r="C249" t="str">
+        <v>200012017030703848892</v>
+      </c>
+      <c r="D249" t="str">
+        <v>新华社摄影部2016年01月21日发稿目录(路透晚报专线·国际)
+*(晚报)(2)奥地利宣布限制入境难民数量
+*(晚报)(2)纽约股市三大股指20日下跌
+*(晚报)(3)摩尔多瓦新政府通过议会信任投票
+*(晚报)(3)7国防长决定加强对“伊斯兰国”目标的打击
+*(晚报)(3)塞尔维亚将采取措施限制过境难民数量
+*(晚报)越共十二大正式开幕
+*(晚报)英国难民住所红色大门频遭攻击将换色
+*新华社摄影部2016年01月21日白班发稿目录(路透晚报专线·国际)
+*(晚报)(2)日媒曝光安倍内阁高官受贿...</v>
+      </c>
+      <c r="E249" t="str"/>
+      <c r="F249" t="str">
+        <v>邹予 2016-01-22 06:51:31
+                        ID : 200012017030703848892</v>
+      </c>
+      <c r="G249" t="str"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B250" t="str">
+        <v>新华社摄影部2016年01月21日发稿目录(法新专线)</v>
+      </c>
+      <c r="C250" t="str">
+        <v>200012017030703848880</v>
+      </c>
+      <c r="D250" t="str">
+        <v>新华社摄影部2016年01月21日发稿目录(法新专线)
+*(法新)(3)摩尔多瓦新政府通过议会信任投票
+*(法新)(3)7国防长决定加强对“伊斯兰国”目标的打击
+*(法新)(4)塞尔维亚将采取措施限制过境难民数量
+*(法新)(2)日媒曝光安倍内阁高官受贿丑闻
+*新华社摄影部2016年01月21日白班发稿目录(法新专线)
+*(法新)优步欲向法国出租车“敞开大门”
+*(法新)(2)第36届国际旅游展在马德里开幕
+*(法新)(2)美天文学家：太阳系或重现...</v>
+      </c>
+      <c r="E250" t="str"/>
+      <c r="F250" t="str">
+        <v>邹予 2016-01-22 06:51:25
+                        ID : 200012017030703848880</v>
+      </c>
+      <c r="G250" t="str"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B251" t="str">
+        <v>（美联）（2）美天文学家：太阳系重现第九大行星</v>
+      </c>
+      <c r="C251" t="str">
+        <v>200012017030703836545</v>
+      </c>
+      <c r="D251" t="str">
+        <v>新华社照片，美联，2016年1月21日
+    （美联）（2）美天文学家：太阳系重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家迈克尔·布朗在计算机模拟的行星运行轨道前讲解。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系</v>
+      </c>
+      <c r="E251" t="str"/>
+      <c r="F251" t="str">
+        <v>Damian Dovarganes 2016-01-21 21:11:03
+                        ID : 200012017030703836545</v>
+      </c>
+      <c r="G251" t="str"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B252" t="str">
+        <v>（美联）（4）美天文学家：太阳系重现第九大行星</v>
+      </c>
+      <c r="C252" t="str">
+        <v>200012017030703836557</v>
+      </c>
+      <c r="D252" t="str">
+        <v>新华社照片，美联，2016年1月21日
+    （美联）（4）美天文学家：太阳系重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家迈克尔·布朗（左）和康斯坦丁·巴特金在计算机前回顾他们的研究成果。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了</v>
+      </c>
+      <c r="E252" t="str"/>
+      <c r="F252" t="str">
+        <v>Damian Dovarganes 2016-01-21 21:11:02
+                        ID : 200012017030703836557</v>
+      </c>
+      <c r="G252" t="str"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B253" t="str">
+        <v>（美联）（3）美天文学家：太阳系重现第九大行星</v>
+      </c>
+      <c r="C253" t="str">
+        <v>200012017030703836517</v>
+      </c>
+      <c r="D253" t="str">
+        <v>新华社照片，美联，2016年1月21日
+    （美联）（3）美天文学家：太阳系重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家康斯坦丁·巴特金讲解自己的研究成果。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系中可能...</v>
+      </c>
+      <c r="E253" t="str"/>
+      <c r="F253" t="str">
+        <v>Damian Dovarganes 2016-01-21 21:11:00
+                        ID : 200012017030703836517</v>
+      </c>
+      <c r="G253" t="str"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B254" t="str">
+        <v>（美联）（1）美天文学家：太阳系重现第九大行星</v>
+      </c>
+      <c r="C254" t="str">
+        <v>200012017030703836531</v>
+      </c>
+      <c r="D254" t="str">
+        <v>新华社照片，美联，2016年1月21日
+    （美联）（1）美天文学家：太阳系重现第九大行星
+    美国科学家、“冥王星杀手”迈克尔·布朗1月20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系中可能存在第九大行星的证据，并称这颗被昵称为“行星九”的行星与太阳之间的距离超过冥王星和太阳之间的距离。美国...</v>
+      </c>
+      <c r="E254" t="str"/>
+      <c r="F254" t="str">
+        <v>R. Hurt 2016-01-21 21:10:58
+                        ID : 200012017030703836531</v>
+      </c>
+      <c r="G254" t="str"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B255" t="str">
+        <v>（法新）（2）美天文学家：太阳系或重现第九大行星</v>
+      </c>
+      <c r="C255" t="str">
+        <v>200012017030703835036</v>
+      </c>
+      <c r="D255" t="str">
+        <v>新华社照片，法新，2016年1月21日
+    （法新）（2）美天文学家：太阳系或重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家迈克尔·布朗在计算机模拟的行星运行轨道前讲解。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系</v>
+      </c>
+      <c r="E255" t="str"/>
+      <c r="F255" t="str">
+        <v>AFP 2016-01-21 20:38:17
+                        ID : 200012017030703835036</v>
+      </c>
+      <c r="G255" t="str"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B256" t="str">
+        <v>（法新）（1）美天文学家：太阳系或重现第九大行星</v>
+      </c>
+      <c r="C256" t="str">
+        <v>200012017030703835005</v>
+      </c>
+      <c r="D256" t="str">
+        <v>新华社照片，法新，2016年1月21日
+    （法新）（1）美天文学家：太阳系或重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家迈克尔·布朗站在计算机模拟的行星运行轨道前。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系</v>
+      </c>
+      <c r="E256" t="str"/>
+      <c r="F256" t="str">
+        <v>AFP 2016-01-21 20:38:11
+                        ID : 200012017030703835005</v>
+      </c>
+      <c r="G256" t="str"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B257" t="str">
+        <v>（晚报）（2）美天文学家：太阳系或重现第九大行星</v>
+      </c>
+      <c r="C257" t="str">
+        <v>200012017030703832961</v>
+      </c>
+      <c r="D257" t="str">
+        <v>新华社照片，路透，2016年1月21日
+    （晚报）（2）美天文学家：太阳系或重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家迈克尔·布朗在计算机模拟的行星运行轨道前讲解。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系</v>
+      </c>
+      <c r="E257" t="str"/>
+      <c r="F257" t="str">
+        <v>MARIO ANZUONI 2016-01-21 19:53:00
+                        ID : 200012017030703832961</v>
+      </c>
+      <c r="G257" t="str"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B258" t="str">
+        <v>（晚报）（1）美天文学家：太阳系或重现第九大行星</v>
+      </c>
+      <c r="C258" t="str">
+        <v>200012017030703832938</v>
+      </c>
+      <c r="D258" t="str">
+        <v>新华社照片，路透，2016年1月21日
+    （晚报）（1）美天文学家：太阳系或重现第九大行星
+    1月20日，在美国加利福尼亚州帕萨迪纳，加州理工学院天文学家迈克尔·布朗在计算机模拟的行星运行轨道前讲解。
+    美国科学家、“冥王星杀手”迈克尔·布朗20日发表文章说，第九大行星回来了。这一次不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系</v>
+      </c>
+      <c r="E258" t="str"/>
+      <c r="F258" t="str">
+        <v>MARIO ANZUONI 2016-01-21 19:52:58
+                        ID : 200012017030703832938</v>
+      </c>
+      <c r="G258" t="str"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B259" t="str">
+        <v>（锐国际·图文互动）美天文学家：太阳系重现第九大行星</v>
+      </c>
+      <c r="C259" t="str">
+        <v>200012017030703828002</v>
+      </c>
+      <c r="D259" t="str">
+        <v>新华社北京１月２１日新媒体专电美国科学家、“冥王星杀手”迈克尔·布朗２０日发表文章说，第九大行星回来了。不过，这一次可不是要拯救已被从太阳系九大行星中除名的冥王星，而是天文学家新发现了太阳系中可能存在第九大行星的证据。
+　　天文学家说，这颗被昵称为“行星九”的行星与太阳之间的距离超过冥王星和太阳之间的距离。美国加州理工学院天文学家布朗和康斯坦丁·巴特金２０日在美国《天文学杂志》上发表论文称，尽管尚未直接观测到这...</v>
+      </c>
+      <c r="E259" t="str"/>
+      <c r="F259" t="str">
+        <v>郭爽 2016-01-21 15:44:10
+                        ID : 200012017030703828002</v>
+      </c>
+      <c r="G259" t="str"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B260" t="str">
+        <v>新华社摄影部2016年1月1日发稿目录（中国新闻）</v>
+      </c>
+      <c r="C260" t="str">
+        <v>200012017030703124444</v>
+      </c>
+      <c r="D260" t="str">
+        <v>新华社摄影部2016年1月1日发稿目录（中国新闻）
+*(社会)(7)全国各地迎新年
+*(国际)(2)世界各地迎新年
+*(经济)2016年首趟“长安号”中亚班列开行
+*(社会)(2)北京太庙举行迎新年倒计时庆典
+*(社会)(5)天安门广场举行元旦升旗仪式
+*(社会)(2)永兴岛上红旗飘
+*(体育)(2)全民健身——跑进2016
+*(社会)(2)武汉长江大桥拆除老化电线杆
+*(法制)新版《大气污染防治法》今日正式实施
+*(城乡热点)(2)世界最高雪塑建筑“冰雪之冠”“加冕”冰城
+*(社会)(2)...</v>
+      </c>
+      <c r="E260" t="str"/>
+      <c r="F260" t="str">
+        <v>郭求达 2016-01-02 00:25:20
+                        ID : 200012017030703124444</v>
+      </c>
+      <c r="G260" t="str"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B261" t="str">
+        <v>（锐视角）南京举行“探秘太阳系 关爱地球村”元旦科普活动</v>
+      </c>
+      <c r="C261" t="str">
+        <v>200012017022702658316</v>
+      </c>
+      <c r="D261" t="str">
+        <v>新华社照片，南京，2016年1月1日
+    南京举行“探秘太阳系 关爱地球村”元旦科普活动
+    1月1日，小朋友们在科普活动上学习天文知识。
+    当日，一场以“探秘太阳系 关爱地球村”为主题的元旦科普活动在南京紫金山天文台举行。小学生们在家长的带领下，学习天文知识，欢度元旦。
+    新华社记者 季春鹏 摄</v>
+      </c>
+      <c r="E261" t="str"/>
+      <c r="F261" t="str">
+        <v>季春鹏 2016-01-01 18:39:22
+                        ID : 200012017022702658316</v>
+      </c>
+      <c r="G261" t="str"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B262" t="str">
+        <v>（科技）（1）南京举行“探秘太阳系 关爱地球村”元旦科普活动</v>
+      </c>
+      <c r="C262" t="str">
+        <v>200012017022702658325</v>
+      </c>
+      <c r="D262" t="str">
+        <v>新华社照片，南京，2016年1月1日
+    南京举行“探秘太阳系 关爱地球村”元旦科普活动
+    1月1日，小朋友们在科普活动上学习天文知识。
+    当日，一场以“探秘太阳系 关爱地球村”为主题的元旦科普活动在南京紫金山天文台举行。小学生们在家长的带领下，学习天文知识，欢度元旦。
+    新华社记者 季春鹏 摄</v>
+      </c>
+      <c r="E262" t="str"/>
+      <c r="F262" t="str">
+        <v>季春鹏 2016-01-01 18:39:06
+                        ID : 200012017022702658325</v>
+      </c>
+      <c r="G262" t="str"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B263" t="str">
+        <v>（科技）（2）南京举行“探秘太阳系 关爱地球村”元旦科普活动</v>
+      </c>
+      <c r="C263" t="str">
+        <v>200012017022702658340</v>
+      </c>
+      <c r="D263" t="str">
+        <v>新华社照片，南京，2016年1月1日
+    南京举行“探秘太阳系 关爱地球村”元旦科普活动
+    1月1日，小朋友们在科普活动上学习天文知识。
+    当日，一场以“探秘太阳系 关爱地球村”为主题的元旦科普活动在南京紫金山天文台举行。小学生们在家长的带领下，学习天文知识，欢度元旦。
+    新华社记者 季春鹏 摄</v>
+      </c>
+      <c r="E263" t="str"/>
+      <c r="F263" t="str">
+        <v>季春鹏 2016-01-01 18:39:04
+                        ID : 200012017022702658340</v>
+      </c>
+      <c r="G263" t="str"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B264" t="str">
+        <v>#（晚报）（1）“木星合月”迎新年</v>
+      </c>
+      <c r="C264" t="str">
+        <v>200012017030703095676</v>
+      </c>
+      <c r="D264" t="str">
+        <v>新华社照片，大连（辽宁），2016年1月1日
+    “木星合月”迎新年
+    2015年12月31日晚在大连市拍摄的“木星合月”天象。 
+    2015年12月31日夜间至2016年1月1日凌晨，太阳系的“大个子”木星与曼妙的“月姑娘”近距离“对话”，上演了一幕浪漫的“星月童话”。
+    新华社发（刘德斌 摄）</v>
+      </c>
+      <c r="E264" t="str"/>
+      <c r="F264" t="str">
+        <v>刘德斌（辽宁） 2016-01-01 09:21:56
+                        ID : 200012017030703095676</v>
+      </c>
+      <c r="G264" t="str"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B265" t="str">
+        <v>#（晚报）（2）“木星合月”迎新年</v>
+      </c>
+      <c r="C265" t="str">
+        <v>200012017030703095652</v>
+      </c>
+      <c r="D265" t="str">
+        <v>新华社照片，大连（辽宁），2016年1月1日
+    “木星合月”迎新年
+    2015年12月31日晚在大连市拍摄的“木星合月”天象。 
+    2015年12月31日夜间至2016年1月1日凌晨，太阳系的“大个子”木星与曼妙的“月姑娘”近距离“对话”，上演了一幕浪漫的“星月童话”。
+    新华社发（刘德斌 摄）</v>
+      </c>
+      <c r="E265" t="str"/>
+      <c r="F265" t="str">
+        <v>刘德斌（辽宁） 2016-01-01 09:21:54
+                        ID : 200012017030703095652</v>
+      </c>
+      <c r="G265" t="str"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B266" t="str">
+        <v>（国际·年终报道）（12）2015太空探索成就</v>
+      </c>
+      <c r="C266" t="str">
+        <v>200012017030901586293</v>
+      </c>
+      <c r="D266" t="str">
+        <v>新华社照片，北京，2015年12月29日
+    （国际·年终报道）（12）2015太空探索成就
+    长久以来，神秘的太空吸引着人类探索不息。
+    在即将过去的2015年，国际空间站迎来载人飞行15周年纪念，人类探测器首次近距离飞过冥王星，美国航天局宣布发现迄今最像地球的系外行星，火星上找到有液态水活动的“强有力”证据，“悟空”成功发射去太空寻找暗物质……无数的“一小步”，累积成人类探索未知宇宙的更大步。
+    仰望星空，浩瀚的宇宙无穷无尽；展望未来，随着科学技术的日益进步，人类必将在太空探索上取得更多...</v>
+      </c>
+      <c r="E266" t="str"/>
+      <c r="F266" t="str">
+        <v>AFP 2015-12-29 10:54:41
+                        ID : 200012017030901586293</v>
+      </c>
+      <c r="G266" t="str"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B267" t="str">
+        <v>（国际·年终报道）（9）2015太空探索成就</v>
+      </c>
+      <c r="C267" t="str">
+        <v>200012017030901585911</v>
+      </c>
+      <c r="D267" t="str">
+        <v>新华社照片，北京，2015年12月29日
+    （国际·年终报道）（9）2015太空探索成就
+    长久以来，神秘的太空吸引着人类探索不息。
+    在即将过去的2015年，国际空间站迎来载人飞行15周年纪念，人类探测器首次近距离飞过冥王星，美国航天局宣布发现迄今最像地球的系外行星，火星上找到有液态水活动的“强有力”证据，“悟空”成功发射去太空寻找暗物质……无数的“一小步”，累积成人类探索未知宇宙的更大步。
+    仰望星空，浩瀚的宇宙无穷无尽；展望未来，随着科学技术的日益进步，人类必将在太空探索上取得更多成...</v>
+      </c>
+      <c r="E267" t="str"/>
+      <c r="F267" t="str">
+        <v>新华社 2015-12-29 10:54:39
+                        ID : 200012017030901585911</v>
+      </c>
+      <c r="G267" t="str"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B268" t="str">
+        <v>（国际·年终报道）（10）2015太空探索成就</v>
+      </c>
+      <c r="C268" t="str">
+        <v>200012017030901585738</v>
+      </c>
+      <c r="D268" t="str">
+        <v>新华社照片，北京，2015年12月29日
+    （国际·年终报道）（10）2015太空探索成就
+    长久以来，神秘的太空吸引着人类探索不息。
+    在即将过去的2015年，国际空间站迎来载人飞行15周年纪念，人类探测器首次近距离飞过冥王星，美国航天局宣布发现迄今最像地球的系外行星，火星上找到有液态水活动的“强有力”证据，“悟空”成功发射去太空寻找暗物质……无数的“一小步”，累积成人类探索未知宇宙的更大步。
+    仰望星空，浩瀚的宇宙无穷无尽；展望未来，随着科学技术的日益进步，人类必将在太空探索上取得更多...</v>
+      </c>
+      <c r="E268" t="str"/>
+      <c r="F268" t="str">
+        <v>Bill Ingalls 2015-12-29 10:54:27
+                        ID : 200012017030901585738</v>
+      </c>
+      <c r="G268" t="str"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B269" t="str">
+        <v>（国际·年终报道）（8）2015太空探索成就</v>
+      </c>
+      <c r="C269" t="str">
+        <v>200012017030901585694</v>
+      </c>
+      <c r="D269" t="str">
+        <v>新华社照片，北京，2015年12月29日
+    （国际·年终报道）（8）2015太空探索成就
+    长久以来，神秘的太空吸引着人类探索不息。
+    在即将过去的2015年，国际空间站迎来载人飞行15周年纪念，人类探测器首次近距离飞过冥王星，美国航天局宣布发现迄今最像地球的系外行星，火星上找到有液态水活动的“强有力”证据，“悟空”成功发射去太空寻找暗物质……无数的“一小步”，累积成人类探索未知宇宙的更大步。
+    仰望星空，浩瀚的宇宙无穷无尽；展望未来，随着科学技术的日益进步，人类必将在太空探索上取得更多成...</v>
+      </c>
+      <c r="E269" t="str"/>
+      <c r="F269" t="str">
+        <v>NASA 2015-12-29 10:54:26
+                        ID : 200012017030901585694</v>
+      </c>
+      <c r="G269" t="str"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B270" t="str">
+        <v>（国际·年终报道）（7）2015太空探索成就</v>
+      </c>
+      <c r="C270" t="str">
+        <v>200012017030901585546</v>
+      </c>
+      <c r="D270" t="str">
+        <v>新华社照片，北京，2015年12月29日
+    （国际·年终报道）（7）2015太空探索成就
+    长久以来，神秘的太空吸引着人类探索不息。
+    在即将过去的2015年，国际空间站迎来载人飞行15周年纪念，人类探测器首次近距离飞过冥王星，美国航天局宣布发现迄今最像地球的系外行星，火星上找到有液态水活动的“强有力”证据，“悟空”成功发射去太空寻找暗物质……无数的“一小步”，累积成人类探索未知宇宙的更大步。
+    仰望星空，浩瀚的宇宙无穷无尽；展望未来，随着科学技术的日益进步，人类必将在太空探索上取得更多成...</v>
+      </c>
+      <c r="E270" t="str"/>
+      <c r="F270" t="str">
+        <v>AFP 2015-12-29 10:54:20
+                        ID : 200012017030901585546</v>
+      </c>
+      <c r="G270" t="str"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B271" t="str">
+        <v>（锐国际·图文互动）为什么火星比地球小</v>
+      </c>
+      <c r="C271" t="str">
+        <v>200012017022800776093</v>
+      </c>
+      <c r="D271" t="str">
+        <v>新华社北京１０月２９日新媒体专电火星的直径只有地球的一半，质量约为地球的十分之一。为什么火星比地球小那么多？美国西南研究院科学家研究了一种全新的行星形成模型，认为行星是从“小石子”开始的，这个理论还可以解释木星、土星等多个太阳系行星的形成。
+　　火星质量只有地球的十分之一直是困扰科学家的一个谜题。在行星形成的传统模型中，石头堆成山，山堆成大球……大小相似的物体通过一种名为“吸积”的过程堆积融合。金星和地球的大小及质量符合这个模型的预测结果，但火星按照这个理...</v>
+      </c>
+      <c r="E271" t="str"/>
+      <c r="F271" t="str">
+        <v>杨骏 2015-10-29 14:39:45
+                        ID : 200012017022800776093</v>
+      </c>
+      <c r="G271" t="str"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B272" t="str">
+        <v>（锐国际·图文互动）最像地球的行星可能还未诞生</v>
+      </c>
+      <c r="C272" t="str">
+        <v>200012017022800574691</v>
+      </c>
+      <c r="D272" t="str">
+        <v>新华社北京１０月２４日新媒体专电地球在宇宙中是孤独的么？这个问题困扰我们好久了。根据一项最新的理论研究，在宇宙演化这场持久而盛大的“派对”中地球来得早了点。我们之所以感到孤独，很可能是因为和地球高度类似的行星还没诞生。
+　　美国研究人员认为，在太阳系于４６亿年前诞生时，当时的宇宙中约８％的星球可能适宜居住，有９２％的“宜居星球”还未诞生。
+　　这一结论是在分析美国航天局哈勃及开普勒太空望远镜数据的基础上得出的。研究负责人之一、美国太空望远镜科学院的彼得·贝胡兹...</v>
+      </c>
+      <c r="E272" t="str"/>
+      <c r="F272" t="str">
+        <v>李宓 2015-10-24 17:21:16
+                        ID : 200012017022800574691</v>
+      </c>
+      <c r="G272" t="str"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B273" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（10）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C273" t="str">
+        <v>200012017022302123177</v>
+      </c>
+      <c r="D273" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的上海交通大学牵头组织的PandaX实验组，研究人员刘江来（右）和肖翔（左）在无尘实验室里检修设备，李绍莉在实验室外与他们探讨（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是</v>
+      </c>
+      <c r="E273" t="str"/>
+      <c r="F273" t="str">
+        <v>沈伯韩 2015-09-23 16:23:12
+                        ID : 200012017022302123177</v>
+      </c>
+      <c r="G273" t="str"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B274" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（6）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C274" t="str">
+        <v>200012017022302123158</v>
+      </c>
+      <c r="D274" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的清华大学主导的CDEX实验组，研究人员江灏在查看实验设备运行情况（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星文明攻击后的隐...</v>
+      </c>
+      <c r="E274" t="str"/>
+      <c r="F274" t="str">
+        <v>沈伯韩 2015-09-23 16:23:10
+                        ID : 200012017022302123158</v>
+      </c>
+      <c r="G274" t="str"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B275" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（13）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C275" t="str">
+        <v>200012017022302123142</v>
+      </c>
+      <c r="D275" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在位于四川锦屏山隧道内的中国锦屏地下实验室门口拍摄的在这里寻找暗物质的研究人员江灏、刘江来、杨丽桃、任祥祥、李绍莉、赵力、肖翔（从左至右，2014年12月25日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是</v>
+      </c>
+      <c r="E275" t="str"/>
+      <c r="F275" t="str">
+        <v>沈伯韩 2015-09-23 16:23:09
+                        ID : 200012017022302123142</v>
+      </c>
+      <c r="G275" t="str"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B276" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（9）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C276" t="str">
+        <v>200012017022302123204</v>
+      </c>
+      <c r="D276" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室拍摄的上海交通大学牵头组织的PandaX实验所用设备（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星文明攻击后的隐形残骸。
+  ...</v>
+      </c>
+      <c r="E276" t="str"/>
+      <c r="F276" t="str">
+        <v>沈伯韩 2015-09-23 16:23:08
+                        ID : 200012017022302123204</v>
+      </c>
+      <c r="G276" t="str"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B277" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（8）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C277" t="str">
+        <v>200012017022302123246</v>
+      </c>
+      <c r="D277" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室拍摄的上海交通大学牵头组织的PandaX实验所用设备上贴的“PandaX”字样的贴纸（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级...</v>
+      </c>
+      <c r="E277" t="str"/>
+      <c r="F277" t="str">
+        <v>沈伯韩 2015-09-23 16:23:06
+                        ID : 200012017022302123246</v>
+      </c>
+      <c r="G277" t="str"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B278" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（5）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C278" t="str">
+        <v>200012017022302123307</v>
+      </c>
+      <c r="D278" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的上海交通大学牵头组织的PandaX实验组，研究人员李绍莉在进入无尘实验室里检修设备前用通风设备吹去身上的灰尘，以保证不会对实验设备造成影响（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是</v>
+      </c>
+      <c r="E278" t="str"/>
+      <c r="F278" t="str">
+        <v>沈伯韩 2015-09-23 16:23:05
+                        ID : 200012017022302123307</v>
+      </c>
+      <c r="G278" t="str"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B279" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（4）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C279" t="str">
+        <v>200012017022302123282</v>
+      </c>
+      <c r="D279" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的清华大学主导的CDEX实验组，研究人员江灏在查看实验数据（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星文明攻击后的隐形残骸。...</v>
+      </c>
+      <c r="E279" t="str"/>
+      <c r="F279" t="str">
+        <v>沈伯韩 2015-09-23 16:23:03
+                        ID : 200012017022302123282</v>
+      </c>
+      <c r="G279" t="str"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B280" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（11）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C280" t="str">
+        <v>200012017022302123362</v>
+      </c>
+      <c r="D280" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在距离中国锦屏地下实验室数十公里的宿舍，清华大学主导的CDEX实验组的研究人员江灏在通过安装在实验设备内部的摄像头来监控设备运行情况（2014年12月24日晚摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是</v>
+      </c>
+      <c r="E280" t="str"/>
+      <c r="F280" t="str">
+        <v>沈伯韩 2015-09-23 16:23:02
+                        ID : 200012017022302123362</v>
+      </c>
+      <c r="G280" t="str"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B281" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（7）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C281" t="str">
+        <v>200012017022302123327</v>
+      </c>
+      <c r="D281" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的上海交通大学牵头组织的PandaX实验区域，上海交通大学物理与天文系特别研究员刘江来在查看实验资料（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系</v>
+      </c>
+      <c r="E281" t="str"/>
+      <c r="F281" t="str">
+        <v>沈伯韩 2015-09-23 16:23:00
+                        ID : 200012017022302123327</v>
+      </c>
+      <c r="G281" t="str"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B282" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（3）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C282" t="str">
+        <v>200012017022302123395</v>
+      </c>
+      <c r="D282" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    这是锦屏山隧道。中国锦屏地下实验室便在这隧道中部，上方是巍巍锦屏山（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星文明攻击后的隐形残骸。
+    这...</v>
+      </c>
+      <c r="E282" t="str"/>
+      <c r="F282" t="str">
+        <v>沈伯韩 2015-09-23 16:22:59
+                        ID : 200012017022302123395</v>
+      </c>
+      <c r="G282" t="str"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B283" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（12）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C283" t="str">
+        <v>200012017022302123374</v>
+      </c>
+      <c r="D283" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的上海交通大学牵头组织的PandaX实验组，研究人员赵力在检查实验设备（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星文明攻击后...</v>
+      </c>
+      <c r="E283" t="str"/>
+      <c r="F283" t="str">
+        <v>沈伯韩 2015-09-23 16:22:57
+                        ID : 200012017022302123374</v>
+      </c>
+      <c r="G283" t="str"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B284" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（2）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C284" t="str">
+        <v>200012017022302123444</v>
+      </c>
+      <c r="D284" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    车辆通过锦屏山隧道。中国锦屏地下实验室便在这隧道中部，上方是巍巍锦屏山（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星文明攻击后的隐形残骸。
+   ...</v>
+      </c>
+      <c r="E284" t="str"/>
+      <c r="F284" t="str">
+        <v>沈伯韩 2015-09-23 16:22:51
+                        ID : 200012017022302123444</v>
+      </c>
+      <c r="G284" t="str"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B285" t="str">
+        <v>（新华全媒头条·暗物质“迷”与“谜”·图文互动）（1）在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室</v>
+      </c>
+      <c r="C285" t="str">
+        <v>200012017022302123435</v>
+      </c>
+      <c r="D285" t="str">
+        <v>新华社照片，北京，2015年9月23日
+    在地底寻觅“宇宙幽灵”——走近全球最深的暗物质探测实验室
+    在中国锦屏地下实验室的上海交通大学牵头组织的PandaX实验组，研究人员李绍莉在无尘实验室里检修设备（2014年12月24日摄）。
+    什么是暗物质？
+    普通人对它的直观认识多来自科幻作品。在电影《变形金刚》中，机器人“禁闭”所驾驶的飞船就是由它驱动进行星际航行的。
+    在刚刚斩获世界科幻文坛最高奖的小说《三体》里，它是太阳系遭受高级外星...</v>
+      </c>
+      <c r="E285" t="str"/>
+      <c r="F285" t="str">
+        <v>沈伯韩 2015-09-23 16:22:49
+                        ID : 200012017022302123435</v>
+      </c>
+      <c r="G285" t="str"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B286" t="str">
+        <v>美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C286" t="str">
+        <v>200012017022302778813</v>
+      </c>
+      <c r="D286" t="str">
+        <v>这是美国航天局7月23日公布的地球（左）和太阳系外行星开普勒-452b的对比概念图。美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒-452b。
+新华社外代图片 北京2015年7月24日 新华社/欧新中文</v>
+      </c>
+      <c r="E286" t="str"/>
+      <c r="F286" t="str">
+        <v>NASA,JPL-Caltech,T. Pyle 2015-07-24 16:49:11
+                        ID : 200012017022302778813</v>
+      </c>
+      <c r="G286" t="str"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B287" t="str">
+        <v>美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C287" t="str">
+        <v>200012017022302778825</v>
+      </c>
+      <c r="D287" t="str">
+        <v>这是美国航天局7月23日公布的太阳系外行星开普勒-452b的概念图。美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒-452b。
+新华社外代图片 北京2015年7月24日 新华社/欧新中文</v>
+      </c>
+      <c r="E287" t="str"/>
+      <c r="F287" t="str">
+        <v>NASA,JPL-Caltech,T. Pyle 2015-07-24 16:49:11
+                        ID : 200012017022302778825</v>
+      </c>
+      <c r="G287" t="str"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B288" t="str">
+        <v>美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C288" t="str">
+        <v>200012017022302778862</v>
+      </c>
+      <c r="D288" t="str">
+        <v>这是美国航天局7月23日公布的太阳系外行星开普勒-452b系统的范围和规模概念图。美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒-452b。
+新华社外代图片 北京2015年7月24日 新华社/欧新中文</v>
+      </c>
+      <c r="E288" t="str"/>
+      <c r="F288" t="str">
+        <v>NASA,JPL-Caltech,T. Pyle 2015-07-24 16:49:11
+                        ID : 200012017022302778862</v>
+      </c>
+      <c r="G288" t="str"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B289" t="str">
+        <v>（国际）（2）美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C289" t="str">
+        <v>200012017022400701247</v>
+      </c>
+      <c r="D289" t="str">
+        <v>新华社照片，华盛顿，2015年7月23日 
+    （国际）（2）美国航天局宣布发现迄今最像地球的系外行星 
+    这张美国航天局7月23日公布的效果图显示的是新发现的12颗宜居带行星，其中上右为地球，上左为太阳系外行星开普勒-452b。 
+    美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒－452b。 
+    新华社发</v>
+      </c>
+      <c r="E289" t="str"/>
+      <c r="F289" t="str">
+        <v>新华社发 2015-07-24 02:30:09
+                        ID : 200012017022400701247</v>
+      </c>
+      <c r="G289" t="str"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B290" t="str">
+        <v>（国际）（1）美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C290" t="str">
+        <v>200012017022400701410</v>
+      </c>
+      <c r="D290" t="str">
+        <v>新华社照片，华盛顿，2015年7月23日 
+    （国际）（1）美国航天局宣布发现迄今最像地球的系外行星 
+    这张美国航天局7月23日公布的效果图显示的是地球（左）和太阳系外行星开普勒-452b。 
+    美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒－452b。 
+     新华社发</v>
+      </c>
+      <c r="E290" t="str"/>
+      <c r="F290" t="str">
+        <v>新华社 2015-07-24 02:22:02
+                        ID : 200012017022400701410</v>
+      </c>
+      <c r="G290" t="str"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B291" t="str">
+        <v>（晚报）美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C291" t="str">
+        <v>200012017022400702247</v>
+      </c>
+      <c r="D291" t="str">
+        <v>新华社照片，路透，2015年7月23日
+    （晚报）美国航天局宣布发现迄今最像地球的系外行星 
+    这是美国航天局7月23日公布的太阳系外行星开普勒－452b的概念图。
+    美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒－452b。 
+     新华社/路透</v>
+      </c>
+      <c r="E291" t="str"/>
+      <c r="F291" t="str">
+        <v>NASA 2015-07-24 02:02:52
+                        ID : 200012017022400702247</v>
+      </c>
+      <c r="G291" t="str"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B292" t="str">
+        <v>（法新）美国航天局宣布发现迄今最像地球的系外行星</v>
+      </c>
+      <c r="C292" t="str">
+        <v>200012017022800726107</v>
+      </c>
+      <c r="D292" t="str">
+        <v>新华社照片，法新，2015年7月23日
+    （法新）美国航天局宣布发现迄今最像地球的系外行星 
+    这是美国航天局7月23日公布的地球（左）和太阳系外行星开普勒-452b的对比概念图。
+    美国航天局23日在音频新闻发布会上宣布，天文学家通过开普勒太空望远镜确认在宜居带发现第一颗与地球大小相似的太阳系外行星开普勒－452b。 
+     新华社/法新</v>
+      </c>
+      <c r="E292" t="str"/>
+      <c r="F292" t="str">
+        <v>AFP 2015-07-24 01:47:43
+                        ID : 200012017022800726107</v>
+      </c>
+      <c r="G292" t="str"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B293" t="str">
+        <v>（锐参考·图文互动）冥王星为什么“心碎”？</v>
+      </c>
+      <c r="C293" t="str">
+        <v>200012017030800641469</v>
+      </c>
+      <c r="D293" t="str">
+        <v>新华社北京７月１５日新媒体专电美国“新视野”号探测器１４日飞过冥王星，成为首个近距离看到这颗遥远星球的人类探测器。探测器靠近冥王星的过程中，在其表面发现了一个心形图案，越来越近的图像却显示这颗“心”有些破碎。
+　　难道，这是因为“新视野”号携带了冥王星发现者克劳德·汤博的骨灰，而在见到老朋友时，冥王星却感伤于人类已经将自己踢出九大行星行列降格为矮行星，故意在这历史性的会面中展示一颗破碎的心？这就说来话长了。
+　　１９３０年，美国天文学家克劳德·汤博发现了冥王星。此后人们长期认为它是</v>
+      </c>
+      <c r="E293" t="str"/>
+      <c r="F293" t="str">
+        <v>黄堃,郭爽 2015-07-15 14:13:10
+                        ID : 200012017030800641469</v>
+      </c>
+      <c r="G293" t="str"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B294" t="str">
+        <v>（国际·编辑连线）（4）人类将首次近距离观察冥王星</v>
+      </c>
+      <c r="C294" t="str">
+        <v>200012017022401210599</v>
+      </c>
+      <c r="D294" t="str">
+        <v>新华社照片，北京，2015年7月13日
+    （国际·编辑连线）（4）人类将首次近距离观察冥王星
+    经过9年多的长途跋涉，“新视野”号探测器将于7月14日从冥王星上方约1万公里处飞过，这是它与冥王星最接近的距离。此后，“新视野”号还将继续前行，进入太阳系边缘神秘的柯伊伯带，不再复返。
+    由于冥王星体积很小且距离遥远，人们对它几乎一无所知。“新视野”号与冥王星的“会面”是冥王星首次被来自地球的探测器近距离造访。它将使人们对冥王星的认识发生革命性变化。
+...</v>
+      </c>
+      <c r="E294" t="str"/>
+      <c r="F294" t="str">
+        <v>AP 2015-07-13 18:53:06
+                        ID : 200012017022401210599</v>
+      </c>
+      <c r="G294" t="str"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B295" t="str">
+        <v>（国际·编辑连线）（1）人类将首次近距离观察冥王星</v>
+      </c>
+      <c r="C295" t="str">
+        <v>200012017022401210906</v>
+      </c>
+      <c r="D295" t="str">
+        <v>新华社照片，北京，2015年7月13日
+    （国际·编辑连线）（1）人类将首次近距离观察冥王星
+    经过9年多的长途跋涉，“新视野”号探测器将于7月14日从冥王星上方约1万公里处飞过，这是它与冥王星最接近的距离。此后，“新视野”号还将继续前行，进入太阳系边缘神秘的柯伊伯带，不再复返。
+    由于冥王星体积很小且距离遥远，人们对它几乎一无所知。“新视野”号与冥王星的“会面”是冥王星首次被来自地球的探测器近距离造访。它将使人们对冥王星的认识发生革命性变化。
+...</v>
+      </c>
+      <c r="E295" t="str"/>
+      <c r="F295" t="str">
+        <v>REUTERS 2015-07-13 18:53:05
+                        ID : 200012017022401210906</v>
+      </c>
+      <c r="G295" t="str"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B296" t="str">
+        <v>（国际·编辑连线）（2）人类将首次近距离观察冥王星</v>
+      </c>
+      <c r="C296" t="str">
+        <v>200012017022401210771</v>
+      </c>
+      <c r="D296" t="str">
+        <v>新华社照片，北京，2015年7月13日
+    （国际·编辑连线）（2）人类将首次近距离观察冥王星
+    经过9年多的长途跋涉，“新视野”号探测器将于7月14日从冥王星上方约1万公里处飞过，这是它与冥王星最接近的距离。此后，“新视野”号还将继续前行，进入太阳系边缘神秘的柯伊伯带，不再复返。
+    由于冥王星体积很小且距离遥远，人们对它几乎一无所知。“新视野”号与冥王星的“会面”是冥王星首次被来自地球的探测器近距离造访。它将使人们对冥王星的认识发生革命性变化。
+...</v>
+      </c>
+      <c r="E296" t="str"/>
+      <c r="F296" t="str">
+        <v>AFP 2015-07-13 18:53:02
+                        ID : 200012017022401210771</v>
+      </c>
+      <c r="G296" t="str"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B297" t="str">
+        <v>（国际·编辑连线）（3）人类将首次近距离观察冥王星</v>
+      </c>
+      <c r="C297" t="str">
+        <v>200012017022401211093</v>
+      </c>
+      <c r="D297" t="str">
+        <v>新华社照片，北京，2015年7月13日
+    （国际·编辑连线）（3）人类将首次近距离观察冥王星
+    经过9年多的长途跋涉，“新视野”号探测器将于7月14日从冥王星上方约1万公里处飞过，这是它与冥王星最接近的距离。此后，“新视野”号还将继续前行，进入太阳系边缘神秘的柯伊伯带，不再复返。
+    由于冥王星体积很小且距离遥远，人们对它几乎一无所知。“新视野”号与冥王星的“会面”是冥王星首次被来自地球的探测器近距离造访。它将使人们对冥王星的认识发生革命性变化。
+...</v>
+      </c>
+      <c r="E297" t="str"/>
+      <c r="F297" t="str">
+        <v>AFP 2015-07-13 18:53:01
+                        ID : 200012017022401211093</v>
+      </c>
+      <c r="G297" t="str"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B298" t="str">
+        <v>（国际·编辑连线）（5）人类将首次近距离观察冥王星</v>
+      </c>
+      <c r="C298" t="str">
+        <v>200012017022401211101</v>
+      </c>
+      <c r="D298" t="str">
+        <v>新华社照片，北京，2015年7月13日
+    （国际·编辑连线）（5）人类将首次近距离观察冥王星
+    经过9年多的长途跋涉，“新视野”号探测器将于7月14日从冥王星上方约1万公里处飞过，这是它与冥王星最接近的距离。此后，“新视野”号还将继续前行，进入太阳系边缘神秘的柯伊伯带，不再复返。
+    由于冥王星体积很小且距离遥远，人们对它几乎一无所知。“新视野”号与冥王星的“会面”是冥王星首次被来自地球的探测器近距离造访。它将使人们对冥王星的认识发生革命性变化。
+...</v>
+      </c>
+      <c r="E298" t="str"/>
+      <c r="F298" t="str">
+        <v>AFP 2015-07-13 18:52:54
+                        ID : 200012017022401211101</v>
+      </c>
+      <c r="G298" t="str"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B299" t="str">
+        <v>（国际·编辑连线）（6）人类将首次近距离观察冥王星</v>
+      </c>
+      <c r="C299" t="str">
+        <v>200012017022401211123</v>
+      </c>
+      <c r="D299" t="str">
+        <v>新华社照片，北京，2015年7月13日
+    （国际·编辑连线）（6）人类将首次近距离观察冥王星
+    经过9年多的长途跋涉，“新视野”号探测器将于7月14日从冥王星上方约1万公里处飞过，这是它与冥王星最接近的距离。此后，“新视野”号还将继续前行，进入太阳系边缘神秘的柯伊伯带，不再复返。
+    由于冥王星体积很小且距离遥远，人们对它几乎一无所知。“新视野”号与冥王星的“会面”是冥王星首次被来自地球的探测器近距离造访。它将使人们对冥王星的认识发生革命性变化。
+...</v>
+      </c>
+      <c r="E299" t="str"/>
+      <c r="F299" t="str">
+        <v>REUTERS 2015-07-13 18:52:52
+                        ID : 200012017022401211123</v>
+      </c>
+      <c r="G299" t="str"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B300" t="str">
+        <v>（国际）（3）创客的盛会</v>
+      </c>
+      <c r="C300" t="str">
+        <v>200012017030803405854</v>
+      </c>
+      <c r="D300" t="str">
+        <v>新华社照片，旧金山，2015年5月17日
+    （国际）（3）创客的盛会
+    5月15日，在美国加利福尼亚州圣马特奥市，一座模拟太阳系九大行星围绕太阳运行的动态雕塑在制汇节展出。
+    当天，为期三天的第十届湾区制汇节在美国旧金山湾区圣马特奥市开幕。这是美国规模最大的庆祝创客文化的活动。制汇节的“制”即动手制造创意作品，“汇”是汇聚之意。约1300名创客展示了他们亲手打造的创意硬件作品，参观人数预计将达到13万。
+    新华社记者马丹摄</v>
+      </c>
+      <c r="E300" t="str"/>
+      <c r="F300" t="str">
+        <v>马丹 2015-05-17 18:35:22
+                        ID : 200012017030803405854</v>
+      </c>
+      <c r="G300" t="str"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>太阳系</v>
+      </c>
+      <c r="B301" t="str">
+        <v>（国际）美国“黎明”号探测器抵达谷神星</v>
+      </c>
+      <c r="C301" t="str">
+        <v>200012017031100457480</v>
+      </c>
+      <c r="D301" t="str">
+        <v>新华社照片，美联，2015年3月6日
+    （国际）美国“黎明”号探测器抵达谷神星
+    这张由美国航天局提供的照片显示，3月1日从“黎明”号小行星探测器上拍摄的谷神星。
+    美国航天局6日宣布，2007年发射的“黎明”号小行星探测器在2012年离开灶神星后，于当天清晨抵达谷神星轨道，成为第一个造访太阳系两颗天体的无人探测器。
+    新华社/美联</v>
+      </c>
+      <c r="E301" t="str"/>
+      <c r="F301" t="str">
+        <v>美联 2015-03-07 03:04:15
+                        ID : 200012017031100457480</v>
+      </c>
+      <c r="G301" t="str"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
